--- a/documentation/calculoPerdidas.xlsx
+++ b/documentation/calculoPerdidas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raul\Documents\Github\TFGRaul\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE0988-9B92-47A0-81B6-260EB4880F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CC1DED-7401-4CA2-A0D4-A3876AF4D44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{92DAF7E3-0953-4B99-83BE-4E56EDBC23EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92DAF7E3-0953-4B99-83BE-4E56EDBC23EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -127,6 +124,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1875,6 +1875,1736 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Potencia recibida (W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$C$13:$C$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12400</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13400</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14800</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15400</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16800</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17200</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17400</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17800</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18200</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18400</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18800</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19800</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$13:$G$112</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.8748960055266591E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4218100034541619E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7838222290452582E-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5136312521588512E-11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1998336088426548E-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9898888931532864E-12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6138675574871551E-12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.46019532599282E-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9059533691916771E-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8748960055266592E-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6466061099150737E-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.868680558220804E-13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3567088006465669E-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0086672234294719E-13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.654115566472412E-14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9126220787455125E-14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6394272165403425E-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6912208557447982E-14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9733473542457926E-14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.421810003454162E-14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9924290833174753E-14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.654128818696921E-14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3846777296845921E-14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1679253488880025E-14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.919733774148248E-15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4794300040410431E-15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.2913004557921929E-15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.3041701464341996E-15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.4785806568063596E-15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7838222290452575E-15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.1957854835208506E-15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6953887992159453E-15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2674149505124364E-15</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8996420103377141E-15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5821880919794482E-15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3070130348404989E-15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.0675363565492289E-15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8583420964036204E-15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6749491366006996E-15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5136312521588513E-15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3712752088823716E-15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.245268177073422E-15</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1334078835026254E-15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0338305116855756E-15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.4495253907066825E-16</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.6542358105287008E-16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.9408797532598121E-16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.2995334305500156E-16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.7216474697507499E-16</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.199833608842655E-16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.7276879216547432E-16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.299643752525652E-16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.9108489146943763E-16</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.5570627848701206E-16</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.2345697758641176E-16</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.9401063415213748E-16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.6707992027725829E-16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.4241129105039747E-16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1978052032341522E-16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.9898888931532859E-16</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.798599236786454E-16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.6223659272005316E-16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.4597889917499695E-16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.3096179995099658E-16</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.1707340810345068E-16</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0421343440702728E-16</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.9229183356730672E-16</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8122762564610713E-16</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7094786786229533E-16</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6138675574871552E-16</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5248483583304304E-16</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.4418831467753118E-16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.3644845135044313E-16</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.292210222843268E-16</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2246584906355861E-16</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.1614638102522627E-16</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.1022932569408886E-16</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0468432103754373E-16</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.9483644347919565E-17</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.4601953259928204E-17</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.0016055009780176E-17</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.5704700555148225E-17</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1648400615071456E-17</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.7829261067088877E-17</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.4230835464645468E-17</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.083799271891409E-17</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.763679823217729E-17</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.4614406980348478E-17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.1758967224754676E-17</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.9059533691916766E-17</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.6505989198107729E-17</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.408897381580438E-17</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.1799820784208025E-17</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.9630498457873826E-17</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.7573557667932681E-17</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.5622083940937597E-17</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.3769654082321746E-17</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.2010296685942187E-17</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.0338456179165881E-17</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.8748960055266594E-17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6673-4410-A50C-D15C2597BD7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="937801359"/>
+        <c:axId val="937798863"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="937801359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="937798863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="937798863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="937801359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Potencia recibida (dbW)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$C$13:$C$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12400</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13400</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14800</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15400</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16800</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17200</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17400</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17800</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18200</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18400</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18800</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19800</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$13:$H$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-84.117399485981807</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-96.158599312541057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-103.20224967476831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-108.19979913910031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-112.07619965942256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-115.24344950132755</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-117.92132108655208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-120.24099896565956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-122.2870998635548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-124.11739948598181</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-125.77310689231081</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-127.2846493278868</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-128.67513357825527</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-129.96252091311132</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-131.16104984820905</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-132.28219879221879</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-133.33535634111277</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-134.32829969011405</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-135.26754352409495</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-136.15859931254104</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-137.00617127533857</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-137.81430671887006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-138.58651292668551</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-139.32584915444605</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-140.03499983286329</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-140.71633340481452</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-141.3719500523413</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-142.00372073967057</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-142.61331940194003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-143.2022496747683</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-143.7718672393527</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-144.32339861877804</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-144.85795708109731</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-145.37655616767199</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-145.88012125999282</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-146.3694995166733</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-146.84546844866159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-147.3087433506542</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-147.75998376704177</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-148.19979913910029</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-148.62875375477122</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-149.04737110189782</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-149.45613770916526</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-149.85550654542931</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-150.24590003699555</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-150.62771275324477</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-151.00131380341051</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-151.3670489810053</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-151.72524268712235</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-152.07619965942254</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-152.42020652989925</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-152.75753323137377</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-153.08843427001338</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-153.41314987890055</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-153.73190706575156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-154.04492056622982</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-154.35239371288145</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-154.65451922849928</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-154.95147995166758</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-155.24344950132755</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-155.53059288641248</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-155.81306706591195</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-156.09102146412508</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-156.36459844533729</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-156.63393375169602</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-156.89915690765656</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-157.16039159401487</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-157.41775599423124</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-157.67136311547202</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-157.92132108655207</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-158.16773343474483</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-158.41069934323255</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-158.65031389080005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-158.88666827522084</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-159.1198500216498</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-159.34994317721345</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-159.57702849288108</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-159.80118359360102</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-160.02248313759947</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-160.24099896565954</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-160.45680024112781</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-160.66995358133045</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-160.88052318102478</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-161.08857092845707</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-161.29415651455349</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-161.49733753572451</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-161.69816959072654</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-161.89670637198856</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-162.09299975177831</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-162.2870998635548</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-162.47905517882555</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-162.66891257980402</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-162.85671742813921</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-163.04251362996976</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-163.22634369753573</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-163.40824880756455</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-163.5882688566316</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-163.7664425136816</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-163.94280726988382</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-164.11739948598179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BEA8-4C24-9B6C-E62F05563DD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1042286591"/>
+        <c:axId val="1042283679"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1042286591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042283679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1042283679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1042286591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1955,6 +3685,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2472,6 +4282,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3056,6 +5898,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676835</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>100405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>506506</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>157779</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD3FC70-E4B0-4648-9CF4-CE9371937120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>713508</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>547254</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>41564</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18450865-1100-44A9-89E6-6F6DD5C0582D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3363,8 +6277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D925E85-375D-42F6-B196-03066D5C9F63}">
   <dimension ref="A3:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3375,13 +6289,13 @@
     <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -3390,7 +6304,7 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -3398,7 +6312,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -3407,7 +6321,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6">
@@ -3415,7 +6329,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7">
@@ -3423,7 +6337,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1">
@@ -3435,2934 +6349,2934 @@
       <c r="D9" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>100</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>100</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>B13+A13</f>
         <v>200</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f>$B$4/G13</f>
         <v>5161428841.3094292</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f>10*LOG(D13)</f>
         <v>97.127699442621619</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5">
+      <c r="F13" s="3"/>
+      <c r="G13" s="4">
         <f>($B$4*$B$5*$B$6*$B$7*$B$8^2)/((4*PI())^3*B13^2*A13^2)</f>
         <v>3.8748960055266591E-9</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f>10*LOG10(G13)</f>
         <v>-84.117399485981807</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>200</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>200</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f t="shared" ref="C14:C77" si="0">B14+A14</f>
         <v>400</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f t="shared" ref="D14:D77" si="1">$B$4/G14</f>
         <v>82582861460.950867</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f t="shared" ref="E14:E77" si="2">10*LOG(D14)</f>
         <v>109.16889926918087</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5">
+      <c r="F14" s="3"/>
+      <c r="G14" s="4">
         <f t="shared" ref="G14:G77" si="3">($B$4*$B$5*$B$6*$B$7*$B$8^2)/((4*PI())^3*B14^2*A14^2)</f>
         <v>2.4218100034541619E-10</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" ref="H14:H77" si="4">10*LOG10(G14)</f>
         <v>-96.158599312541057</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>300</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>300</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f t="shared" si="1"/>
         <v>418075736146.06378</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f t="shared" si="2"/>
         <v>116.21254963140812</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5">
+      <c r="F15" s="3"/>
+      <c r="G15" s="4">
         <f t="shared" si="3"/>
         <v>4.7838222290452582E-11</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="4"/>
         <v>-103.20224967476831</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>400</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>400</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="1"/>
         <v>1321325783375.2139</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f t="shared" si="2"/>
         <v>121.21009909574012</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5">
+      <c r="F16" s="3"/>
+      <c r="G16" s="4">
         <f t="shared" si="3"/>
         <v>1.5136312521588512E-11</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="4"/>
         <v>-108.19979913910031</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>500</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>500</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f t="shared" si="1"/>
         <v>3225893025818.3931</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f>10*LOG(D17)</f>
         <v>125.08649961606237</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5">
+      <c r="F17" s="3"/>
+      <c r="G17" s="4">
         <f t="shared" si="3"/>
         <v>6.1998336088426548E-12</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="4"/>
         <v>-112.07619965942256</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>600</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>600</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="1"/>
         <v>6689211778337.0205</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <f t="shared" si="2"/>
         <v>128.25374945796736</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5">
+      <c r="F18" s="3"/>
+      <c r="G18" s="4">
         <f t="shared" si="3"/>
         <v>2.9898888931532864E-12</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f t="shared" si="4"/>
         <v>-115.24344950132755</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>700</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>700</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <f t="shared" si="1"/>
         <v>12392590647983.939</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <f t="shared" si="2"/>
         <v>130.93162104319188</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5">
+      <c r="F19" s="3"/>
+      <c r="G19" s="4">
         <f t="shared" si="3"/>
         <v>1.6138675574871551E-12</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f t="shared" si="4"/>
         <v>-117.92132108655208</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>800</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>800</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <f t="shared" si="1"/>
         <v>21141212534003.422</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <f t="shared" si="2"/>
         <v>133.25129892229936</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5">
+      <c r="F20" s="3"/>
+      <c r="G20" s="4">
         <f t="shared" si="3"/>
         <v>9.46019532599282E-13</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <f t="shared" si="4"/>
         <v>-120.24099896565956</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>900</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>900</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <f t="shared" si="1"/>
         <v>33864134627831.164</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f t="shared" si="2"/>
         <v>135.29739982019461</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5">
+      <c r="F21" s="3"/>
+      <c r="G21" s="4">
         <f t="shared" si="3"/>
         <v>5.9059533691916771E-13</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <f t="shared" si="4"/>
         <v>-122.2870998635548</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>1000</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>1000</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <f t="shared" si="1"/>
         <v>51614288413094.289</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f t="shared" si="2"/>
         <v>137.1276994426216</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5">
+      <c r="F22" s="3"/>
+      <c r="G22" s="4">
         <f t="shared" si="3"/>
         <v>3.8748960055266592E-13</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <f t="shared" si="4"/>
         <v>-124.11739948598181</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>1100</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>1100</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <f t="shared" si="1"/>
         <v>75568479665611.344</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <f t="shared" si="2"/>
         <v>138.78340684895062</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5">
+      <c r="F23" s="3"/>
+      <c r="G23" s="4">
         <f t="shared" si="3"/>
         <v>2.6466061099150737E-13</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f t="shared" si="4"/>
         <v>-125.77310689231081</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>1200</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>1200</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <f t="shared" si="1"/>
         <v>107027388453392.33</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <f t="shared" si="2"/>
         <v>140.29494928452661</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5">
+      <c r="F24" s="3"/>
+      <c r="G24" s="4">
         <f t="shared" si="3"/>
         <v>1.868680558220804E-13</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <f t="shared" si="4"/>
         <v>-127.2846493278868</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>1300</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>1300</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <f t="shared" si="1"/>
         <v>147415569136638.59</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <f t="shared" si="2"/>
         <v>141.68543353489508</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5">
+      <c r="F25" s="3"/>
+      <c r="G25" s="4">
         <f t="shared" si="3"/>
         <v>1.3567088006465669E-13</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <f t="shared" si="4"/>
         <v>-128.67513357825527</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>1400</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>1400</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <f t="shared" si="1"/>
         <v>198281450367743.03</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <f t="shared" si="2"/>
         <v>142.97282086975113</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5">
+      <c r="F26" s="3"/>
+      <c r="G26" s="4">
         <f t="shared" si="3"/>
         <v>1.0086672234294719E-13</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <f t="shared" si="4"/>
         <v>-129.96252091311132</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>1500</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>1500</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" si="1"/>
         <v>261297335091289.91</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <f t="shared" si="2"/>
         <v>144.17134980484886</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5">
+      <c r="F27" s="3"/>
+      <c r="G27" s="4">
         <f t="shared" si="3"/>
         <v>7.654115566472412E-14</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f t="shared" si="4"/>
         <v>-131.16104984820905</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>1600</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>1600</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" si="1"/>
         <v>338259400544054.75</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <f t="shared" si="2"/>
         <v>145.29249874885861</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5">
+      <c r="F28" s="3"/>
+      <c r="G28" s="4">
         <f t="shared" si="3"/>
         <v>5.9126220787455125E-14</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <f t="shared" si="4"/>
         <v>-132.28219879221879</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>1700</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>1700</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <f t="shared" si="0"/>
         <v>3400</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f t="shared" si="1"/>
         <v>431087698255004.81</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <f t="shared" si="2"/>
         <v>146.34565629775258</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5">
+      <c r="F29" s="3"/>
+      <c r="G29" s="4">
         <f t="shared" si="3"/>
         <v>4.6394272165403425E-14</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <f t="shared" si="4"/>
         <v>-133.33535634111277</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>1800</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>1800</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <f t="shared" si="1"/>
         <v>541826154045298.63</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <f t="shared" si="2"/>
         <v>147.33859964675386</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5">
+      <c r="F30" s="3"/>
+      <c r="G30" s="4">
         <f t="shared" si="3"/>
         <v>3.6912208557447982E-14</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <f t="shared" si="4"/>
         <v>-134.32829969011405</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>1900</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>1900</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <f t="shared" si="0"/>
         <v>3800</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" si="1"/>
         <v>672642568028286.13</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <f t="shared" si="2"/>
         <v>148.27784348073476</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5">
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
         <f t="shared" si="3"/>
         <v>2.9733473542457926E-14</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <f t="shared" si="4"/>
         <v>-135.26754352409495</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>2000</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>2000</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <f t="shared" si="1"/>
         <v>825828614609508.63</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <f t="shared" si="2"/>
         <v>149.16889926918086</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5">
+      <c r="F32" s="3"/>
+      <c r="G32" s="4">
         <f t="shared" si="3"/>
         <v>2.421810003454162E-14</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <f t="shared" si="4"/>
         <v>-136.15859931254104</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>2100</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>2100</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f t="shared" si="1"/>
         <v>1003799842486699.1</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <f t="shared" si="2"/>
         <v>150.01647123197839</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5">
+      <c r="F33" s="3"/>
+      <c r="G33" s="4">
         <f t="shared" si="3"/>
         <v>1.9924290833174753E-14</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <f t="shared" si="4"/>
         <v>-137.00617127533857</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>2200</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>2200</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <f t="shared" si="0"/>
         <v>4400</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <f t="shared" si="1"/>
         <v>1209095674649781.5</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <f t="shared" si="2"/>
         <v>150.82460667550987</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5">
+      <c r="F34" s="3"/>
+      <c r="G34" s="4">
         <f t="shared" si="3"/>
         <v>1.654128818696921E-14</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <f t="shared" si="4"/>
         <v>-137.81430671887006</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>2300</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>2300</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <f t="shared" si="0"/>
         <v>4600</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <f t="shared" si="1"/>
         <v>1444379408380871.8</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <f t="shared" si="2"/>
         <v>151.59681288332533</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5">
+      <c r="F35" s="3"/>
+      <c r="G35" s="4">
         <f t="shared" si="3"/>
         <v>1.3846777296845921E-14</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <f t="shared" si="4"/>
         <v>-138.58651292668551</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>2400</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>2400</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <f t="shared" si="1"/>
         <v>1712438215254277.3</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <f t="shared" si="2"/>
         <v>152.33614911108586</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5">
+      <c r="F36" s="3"/>
+      <c r="G36" s="4">
         <f t="shared" si="3"/>
         <v>1.1679253488880025E-14</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <f t="shared" si="4"/>
         <v>-139.32584915444605</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>2500</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>2500</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <f t="shared" si="1"/>
         <v>2016183141136495.8</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <f t="shared" si="2"/>
         <v>153.0452997895031</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5">
+      <c r="F37" s="3"/>
+      <c r="G37" s="4">
         <f t="shared" si="3"/>
         <v>9.919733774148248E-15</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <f t="shared" si="4"/>
         <v>-140.03499983286329</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>2600</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>2600</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <f t="shared" si="0"/>
         <v>5200</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <f t="shared" si="1"/>
         <v>2358649106186217.5</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <f t="shared" si="2"/>
         <v>153.72663336145433</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5">
+      <c r="F38" s="3"/>
+      <c r="G38" s="4">
         <f t="shared" si="3"/>
         <v>8.4794300040410431E-15</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <f t="shared" si="4"/>
         <v>-140.71633340481452</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>2700</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>2700</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <f t="shared" si="0"/>
         <v>5400</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <f t="shared" si="1"/>
         <v>2742994904854324.5</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <f t="shared" si="2"/>
         <v>154.38225000898112</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5">
+      <c r="F39" s="3"/>
+      <c r="G39" s="4">
         <f t="shared" si="3"/>
         <v>7.2913004557921929E-15</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3">
         <f t="shared" si="4"/>
         <v>-141.3719500523413</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>2800</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>2800</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <f t="shared" si="0"/>
         <v>5600</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <f t="shared" si="1"/>
         <v>3172503205883888.5</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <f t="shared" si="2"/>
         <v>155.01402069631038</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5">
+      <c r="F40" s="3"/>
+      <c r="G40" s="4">
         <f t="shared" si="3"/>
         <v>6.3041701464341996E-15</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="3">
         <f t="shared" si="4"/>
         <v>-142.00372073967057</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>2900</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>2900</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <f t="shared" si="0"/>
         <v>5800</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <f t="shared" si="1"/>
         <v>3650580552310174.5</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <f t="shared" si="2"/>
         <v>155.62361935857984</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5">
+      <c r="F41" s="3"/>
+      <c r="G41" s="4">
         <f t="shared" si="3"/>
         <v>5.4785806568063596E-15</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="3">
         <f t="shared" si="4"/>
         <v>-142.61331940194003</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>3000</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>3000</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <f t="shared" si="1"/>
         <v>4180757361460638.5</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <f t="shared" si="2"/>
         <v>156.21254963140811</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5">
+      <c r="F42" s="3"/>
+      <c r="G42" s="4">
         <f t="shared" si="3"/>
         <v>4.7838222290452575E-15</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="3">
         <f t="shared" si="4"/>
         <v>-143.2022496747683</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>3100</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>3100</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <f t="shared" si="0"/>
         <v>6200</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <f t="shared" si="1"/>
         <v>4766687924954925</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <f t="shared" si="2"/>
         <v>156.78216719599251</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5">
+      <c r="F43" s="3"/>
+      <c r="G43" s="4">
         <f t="shared" si="3"/>
         <v>4.1957854835208506E-15</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="3">
         <f t="shared" si="4"/>
         <v>-143.7718672393527</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>3200</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>3200</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <f t="shared" si="1"/>
         <v>5412150408704876</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <f t="shared" si="2"/>
         <v>157.33369857541786</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5">
+      <c r="F44" s="3"/>
+      <c r="G44" s="4">
         <f t="shared" si="3"/>
         <v>3.6953887992159453E-15</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="3">
         <f t="shared" si="4"/>
         <v>-144.32339861877804</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>3300</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>3300</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <f t="shared" si="0"/>
         <v>6600</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <f t="shared" si="1"/>
         <v>6121046852914520</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <f t="shared" si="2"/>
         <v>157.86825703773712</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="5">
+      <c r="F45" s="3"/>
+      <c r="G45" s="4">
         <f t="shared" si="3"/>
         <v>3.2674149505124364E-15</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="3">
         <f t="shared" si="4"/>
         <v>-144.85795708109731</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>3400</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>3400</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <f t="shared" si="0"/>
         <v>6800</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <f t="shared" si="1"/>
         <v>6897403172080077</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <f t="shared" si="2"/>
         <v>158.38685612431181</v>
       </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="5">
+      <c r="F46" s="3"/>
+      <c r="G46" s="4">
         <f t="shared" si="3"/>
         <v>2.8996420103377141E-15</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="3">
         <f t="shared" si="4"/>
         <v>-145.37655616767199</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>3500</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>3500</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <f t="shared" si="1"/>
         <v>7745369154989961</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <f t="shared" si="2"/>
         <v>158.89042121663263</v>
       </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="5">
+      <c r="F47" s="3"/>
+      <c r="G47" s="4">
         <f t="shared" si="3"/>
         <v>2.5821880919794482E-15</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="3">
         <f t="shared" si="4"/>
         <v>-145.88012125999282</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>3600</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>3600</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <f t="shared" si="0"/>
         <v>7200</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <f t="shared" si="1"/>
         <v>8669218464724778</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <f t="shared" si="2"/>
         <v>159.37979947331311</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="5">
+      <c r="F48" s="3"/>
+      <c r="G48" s="4">
         <f t="shared" si="3"/>
         <v>2.3070130348404989E-15</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="3">
         <f t="shared" si="4"/>
         <v>-146.3694995166733</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>3700</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>3700</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <f t="shared" si="0"/>
         <v>7400</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <f t="shared" si="1"/>
         <v>9673348638657320</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <f t="shared" si="2"/>
         <v>159.8557684053014</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="5">
+      <c r="F49" s="3"/>
+      <c r="G49" s="4">
         <f t="shared" si="3"/>
         <v>2.0675363565492289E-15</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <f t="shared" si="4"/>
         <v>-146.84546844866159</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>3800</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>3800</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <f t="shared" si="0"/>
         <v>7600</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <f t="shared" si="1"/>
         <v>1.0762281088452578E+16</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <f t="shared" si="2"/>
         <v>160.31904330729404</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="5">
+      <c r="F50" s="3"/>
+      <c r="G50" s="4">
         <f t="shared" si="3"/>
         <v>1.8583420964036204E-15</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="3">
         <f t="shared" si="4"/>
         <v>-147.3087433506542</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>3900</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>3900</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <f t="shared" si="0"/>
         <v>7800</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <f t="shared" si="1"/>
         <v>1.1940661100067728E+16</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <f t="shared" si="2"/>
         <v>160.77028372368159</v>
       </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="5">
+      <c r="F51" s="3"/>
+      <c r="G51" s="4">
         <f t="shared" si="3"/>
         <v>1.6749491366006996E-15</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="3">
         <f t="shared" si="4"/>
         <v>-147.75998376704177</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>4000</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>4000</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <f t="shared" si="1"/>
         <v>1.3213257833752138E+16</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <f t="shared" si="2"/>
         <v>161.21009909574011</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="5">
+      <c r="F52" s="3"/>
+      <c r="G52" s="4">
         <f t="shared" si="3"/>
         <v>1.5136312521588513E-15</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="3">
         <f t="shared" si="4"/>
         <v>-148.19979913910029</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>4100</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>4100</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <f t="shared" si="0"/>
         <v>8200</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <f t="shared" si="1"/>
         <v>1.4584964324047374E+16</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <f t="shared" si="2"/>
         <v>161.63905371141107</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="5">
+      <c r="F53" s="3"/>
+      <c r="G53" s="4">
         <f t="shared" si="3"/>
         <v>1.3712752088823716E-15</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="3">
         <f t="shared" si="4"/>
         <v>-148.62875375477122</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>4200</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>4200</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <f t="shared" si="0"/>
         <v>8400</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <f t="shared" si="1"/>
         <v>1.6060797479787186E+16</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <f t="shared" si="2"/>
         <v>162.05767105853764</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5">
+      <c r="F54" s="3"/>
+      <c r="G54" s="4">
         <f t="shared" si="3"/>
         <v>1.245268177073422E-15</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="3">
         <f t="shared" si="4"/>
         <v>-149.04737110189782</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>4300</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>4300</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <f t="shared" si="0"/>
         <v>8600</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <f t="shared" si="1"/>
         <v>1.7645898084097516E+16</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <f t="shared" si="2"/>
         <v>162.46643766580507</v>
       </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="5">
+      <c r="F55" s="3"/>
+      <c r="G55" s="4">
         <f t="shared" si="3"/>
         <v>1.1334078835026254E-15</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="3">
         <f t="shared" si="4"/>
         <v>-149.45613770916526</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>4400</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>4400</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <f t="shared" si="1"/>
         <v>1.9345530794396504E+16</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <f t="shared" si="2"/>
         <v>162.86580650206912</v>
       </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5">
+      <c r="F56" s="3"/>
+      <c r="G56" s="4">
         <f t="shared" si="3"/>
         <v>1.0338305116855756E-15</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="3">
         <f t="shared" si="4"/>
         <v>-149.85550654542931</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>4500</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>4500</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <f t="shared" si="1"/>
         <v>2.116508414239448E+16</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <f t="shared" si="2"/>
         <v>163.25619999363536</v>
       </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="5">
+      <c r="F57" s="3"/>
+      <c r="G57" s="4">
         <f t="shared" si="3"/>
         <v>9.4495253907066825E-16</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="3">
         <f t="shared" si="4"/>
         <v>-150.24590003699555</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>4600</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>4600</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <f t="shared" si="0"/>
         <v>9200</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <f t="shared" si="1"/>
         <v>2.3110070534093948E+16</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <f t="shared" si="2"/>
         <v>163.63801270988458</v>
       </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="5">
+      <c r="F58" s="3"/>
+      <c r="G58" s="4">
         <f t="shared" si="3"/>
         <v>8.6542358105287008E-16</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="3">
         <f t="shared" si="4"/>
         <v>-150.62771275324477</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>4700</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>4700</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <f t="shared" si="0"/>
         <v>9400</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <f t="shared" si="1"/>
         <v>2.5186126249789636E+16</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <f t="shared" si="2"/>
         <v>164.01161376005032</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="5">
+      <c r="F59" s="3"/>
+      <c r="G59" s="4">
         <f t="shared" si="3"/>
         <v>7.9408797532598121E-16</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="3">
         <f t="shared" si="4"/>
         <v>-151.00131380341051</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>4800</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>4800</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <f t="shared" si="0"/>
         <v>9600</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <f t="shared" si="1"/>
         <v>2.7399011444068436E+16</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <f t="shared" si="2"/>
         <v>164.37734893764511</v>
       </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="5">
+      <c r="F60" s="3"/>
+      <c r="G60" s="4">
         <f t="shared" si="3"/>
         <v>7.2995334305500156E-16</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="3">
         <f t="shared" si="4"/>
         <v>-151.3670489810053</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>4900</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>4900</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <f t="shared" si="0"/>
         <v>9800</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <f t="shared" si="1"/>
         <v>2.975461014580944E+16</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <f t="shared" si="2"/>
         <v>164.73554264376216</v>
       </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="5">
+      <c r="F61" s="3"/>
+      <c r="G61" s="4">
         <f t="shared" si="3"/>
         <v>6.7216474697507499E-16</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="3">
         <f t="shared" si="4"/>
         <v>-151.72524268712235</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>5000</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>5000</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <f t="shared" si="1"/>
         <v>3.2258930258183932E+16</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <f t="shared" si="2"/>
         <v>165.08649961606238</v>
       </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="5">
+      <c r="F62" s="3"/>
+      <c r="G62" s="4">
         <f t="shared" si="3"/>
         <v>6.199833608842655E-16</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="3">
         <f t="shared" si="4"/>
         <v>-152.07619965942254</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>5100</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>5100</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <f t="shared" si="0"/>
         <v>10200</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <f t="shared" si="1"/>
         <v>3.4918103558655392E+16</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <f t="shared" si="2"/>
         <v>165.43050648653906</v>
       </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="5">
+      <c r="F63" s="3"/>
+      <c r="G63" s="4">
         <f t="shared" si="3"/>
         <v>5.7276879216547432E-16</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="3">
         <f t="shared" si="4"/>
         <v>-152.42020652989925</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>5200</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>5200</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <f t="shared" si="0"/>
         <v>10400</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <f t="shared" si="1"/>
         <v>3.773838569897948E+16</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <f t="shared" si="2"/>
         <v>165.76783318801358</v>
       </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="5">
+      <c r="F64" s="3"/>
+      <c r="G64" s="4">
         <f t="shared" si="3"/>
         <v>5.299643752525652E-16</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="3">
         <f t="shared" si="4"/>
         <v>-152.75753323137377</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>5300</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>5300</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <f t="shared" si="0"/>
         <v>10600</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <f t="shared" si="1"/>
         <v>4.0726156205204064E+16</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <f t="shared" si="2"/>
         <v>166.09873422665316</v>
       </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="5">
+      <c r="F65" s="3"/>
+      <c r="G65" s="4">
         <f t="shared" si="3"/>
         <v>4.9108489146943763E-16</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="3">
         <f t="shared" si="4"/>
         <v>-153.08843427001338</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>5400</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>5400</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <f t="shared" si="0"/>
         <v>10800</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <f t="shared" si="1"/>
         <v>4.3887918477669192E+16</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <f t="shared" si="2"/>
         <v>166.42344983554037</v>
       </c>
-      <c r="F66" s="4"/>
-      <c r="G66" s="5">
+      <c r="F66" s="3"/>
+      <c r="G66" s="4">
         <f t="shared" si="3"/>
         <v>4.5570627848701206E-16</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="3">
         <f t="shared" si="4"/>
         <v>-153.41314987890055</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>5500</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>5500</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <f t="shared" si="1"/>
         <v>4.7230299791007096E+16</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <f t="shared" si="2"/>
         <v>166.74220702239137</v>
       </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="5">
+      <c r="F67" s="3"/>
+      <c r="G67" s="4">
         <f t="shared" si="3"/>
         <v>4.2345697758641176E-16</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="3">
         <f t="shared" si="4"/>
         <v>-153.73190706575156</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>5600</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>5600</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <f t="shared" si="0"/>
         <v>11200</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <f t="shared" si="1"/>
         <v>5.0760051294142216E+16</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <f t="shared" si="2"/>
         <v>167.05522052286963</v>
       </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="5">
+      <c r="F68" s="3"/>
+      <c r="G68" s="4">
         <f t="shared" si="3"/>
         <v>3.9401063415213748E-16</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="3">
         <f t="shared" si="4"/>
         <v>-154.04492056622982</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>5700</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>5700</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <f t="shared" si="0"/>
         <v>11400</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <f t="shared" si="1"/>
         <v>5.4484048010291184E+16</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <f t="shared" si="2"/>
         <v>167.36269366952126</v>
       </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="5">
+      <c r="F69" s="3"/>
+      <c r="G69" s="4">
         <f t="shared" si="3"/>
         <v>3.6707992027725829E-16</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="3">
         <f t="shared" si="4"/>
         <v>-154.35239371288145</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>5800</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>5800</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <f t="shared" si="0"/>
         <v>11600</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <f t="shared" si="1"/>
         <v>5.8409288836962792E+16</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="5">
         <f t="shared" si="2"/>
         <v>167.66481918513909</v>
       </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="5">
+      <c r="F70" s="3"/>
+      <c r="G70" s="4">
         <f t="shared" si="3"/>
         <v>3.4241129105039747E-16</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="3">
         <f t="shared" si="4"/>
         <v>-154.65451922849928</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>5900</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>5900</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <f t="shared" si="0"/>
         <v>11800</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <f t="shared" si="1"/>
         <v>6.2542896545958072E+16</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="5">
         <f t="shared" si="2"/>
         <v>167.96177990830739</v>
       </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="5">
+      <c r="F71" s="3"/>
+      <c r="G71" s="4">
         <f t="shared" si="3"/>
         <v>3.1978052032341522E-16</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="3">
         <f t="shared" si="4"/>
         <v>-154.95147995166758</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>6000</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>6000</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <f t="shared" si="1"/>
         <v>6.6892117783370216E+16</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="5">
         <f t="shared" si="2"/>
         <v>168.25374945796736</v>
       </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="5">
+      <c r="F72" s="3"/>
+      <c r="G72" s="4">
         <f t="shared" si="3"/>
         <v>2.9898888931532859E-16</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="3">
         <f t="shared" si="4"/>
         <v>-155.24344950132755</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>6100</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>6100</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <f t="shared" si="0"/>
         <v>12200</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <f t="shared" si="1"/>
         <v>7.1464323069584584E+16</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <f t="shared" si="2"/>
         <v>168.54089284305229</v>
       </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="5">
+      <c r="F73" s="3"/>
+      <c r="G73" s="4">
         <f t="shared" si="3"/>
         <v>2.798599236786454E-16</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="3">
         <f t="shared" si="4"/>
         <v>-155.53059288641248</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>6200</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>6200</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <f t="shared" si="0"/>
         <v>12400</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <f t="shared" si="1"/>
         <v>7.62670067992788E+16</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="5">
         <f t="shared" si="2"/>
         <v>168.82336702255176</v>
       </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="5">
+      <c r="F74" s="3"/>
+      <c r="G74" s="4">
         <f t="shared" si="3"/>
         <v>2.6223659272005316E-16</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="3">
         <f t="shared" si="4"/>
         <v>-155.81306706591195</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>6300</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>6300</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <f t="shared" si="0"/>
         <v>12600</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <f t="shared" si="1"/>
         <v>8.1307787241422624E+16</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="5">
         <f t="shared" si="2"/>
         <v>169.10132142076489</v>
       </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="5">
+      <c r="F75" s="3"/>
+      <c r="G75" s="4">
         <f t="shared" si="3"/>
         <v>2.4597889917499695E-16</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="3">
         <f t="shared" si="4"/>
         <v>-156.09102146412508</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>6400</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>6400</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <f t="shared" si="0"/>
         <v>12800</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <f t="shared" si="1"/>
         <v>8.6594406539278016E+16</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="5">
         <f t="shared" si="2"/>
         <v>169.37489840197711</v>
       </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="5">
+      <c r="F76" s="3"/>
+      <c r="G76" s="4">
         <f t="shared" si="3"/>
         <v>2.3096179995099658E-16</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="3">
         <f t="shared" si="4"/>
         <v>-156.36459844533729</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>6500</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>6500</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <f t="shared" si="0"/>
         <v>13000</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <f t="shared" si="1"/>
         <v>9.213473071039912E+16</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="5">
         <f t="shared" si="2"/>
         <v>169.64423370833583</v>
       </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="5">
+      <c r="F77" s="3"/>
+      <c r="G77" s="4">
         <f t="shared" si="3"/>
         <v>2.1707340810345068E-16</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="3">
         <f t="shared" si="4"/>
         <v>-156.63393375169602</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>6600</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>6600</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <f t="shared" ref="C78:C112" si="5">B78+A78</f>
         <v>13200</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <f t="shared" ref="D78:D112" si="6">$B$4/G78</f>
         <v>9.793674964663232E+16</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="5">
         <f t="shared" ref="E78:E112" si="7">10*LOG(D78)</f>
         <v>169.90945686429637</v>
       </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="5">
+      <c r="F78" s="3"/>
+      <c r="G78" s="4">
         <f t="shared" ref="G78:G112" si="8">($B$4*$B$5*$B$6*$B$7*$B$8^2)/((4*PI())^3*B78^2*A78^2)</f>
         <v>2.0421343440702728E-16</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="3">
         <f t="shared" ref="H78:H112" si="9">10*LOG10(G78)</f>
         <v>-156.89915690765656</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>6700</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <v>6700</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <f t="shared" si="5"/>
         <v>13400</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <f t="shared" si="6"/>
         <v>1.040085771141161E+17</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="5">
         <f t="shared" si="7"/>
         <v>170.17069155065468</v>
       </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="5">
+      <c r="F79" s="3"/>
+      <c r="G79" s="4">
         <f t="shared" si="8"/>
         <v>1.9229183356730672E-16</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="3">
         <f t="shared" si="9"/>
         <v>-157.16039159401487</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>6800</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>6800</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <f t="shared" si="5"/>
         <v>13600</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <f t="shared" si="6"/>
         <v>1.1035845075328123E+17</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="5">
         <f t="shared" si="7"/>
         <v>170.42805595087106</v>
       </c>
-      <c r="F80" s="4"/>
-      <c r="G80" s="5">
+      <c r="F80" s="3"/>
+      <c r="G80" s="4">
         <f t="shared" si="8"/>
         <v>1.8122762564610713E-16</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="3">
         <f t="shared" si="9"/>
         <v>-157.41775599423124</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>6900</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>6900</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <f t="shared" si="5"/>
         <v>13800</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <f t="shared" si="6"/>
         <v>1.1699473207885062E+17</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="5">
         <f t="shared" si="7"/>
         <v>170.68166307211183</v>
       </c>
-      <c r="F81" s="4"/>
-      <c r="G81" s="5">
+      <c r="F81" s="3"/>
+      <c r="G81" s="4">
         <f t="shared" si="8"/>
         <v>1.7094786786229533E-16</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="3">
         <f t="shared" si="9"/>
         <v>-157.67136311547202</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>7000</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <v>7000</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <f t="shared" si="5"/>
         <v>14000</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <f t="shared" si="6"/>
         <v>1.2392590647983938E+17</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="5">
         <f t="shared" si="7"/>
         <v>170.93162104319188</v>
       </c>
-      <c r="F82" s="4"/>
-      <c r="G82" s="5">
+      <c r="F82" s="3"/>
+      <c r="G82" s="4">
         <f t="shared" si="8"/>
         <v>1.6138675574871552E-16</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="3">
         <f t="shared" si="9"/>
         <v>-157.92132108655207</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>7100</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>7100</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <f t="shared" si="5"/>
         <v>14200</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <f t="shared" si="6"/>
         <v>1.3116058321955485E+17</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="5">
         <f t="shared" si="7"/>
         <v>171.17803339138462</v>
       </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="5">
+      <c r="F83" s="3"/>
+      <c r="G83" s="4">
         <f t="shared" si="8"/>
         <v>1.5248483583304304E-16</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="3">
         <f t="shared" si="9"/>
         <v>-158.16773343474483</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>7200</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <v>7200</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <f t="shared" si="5"/>
         <v>14400</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <f t="shared" si="6"/>
         <v>1.3870749543559645E+17</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="5">
         <f t="shared" si="7"/>
         <v>171.42099929987236</v>
       </c>
-      <c r="F84" s="4"/>
-      <c r="G84" s="5">
+      <c r="F84" s="3"/>
+      <c r="G84" s="4">
         <f t="shared" si="8"/>
         <v>1.4418831467753118E-16</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="3">
         <f t="shared" si="9"/>
         <v>-158.41069934323255</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>7300</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <v>7300</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <f t="shared" si="5"/>
         <v>14600</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <f t="shared" si="6"/>
         <v>1.465755001398559E+17</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="5">
         <f t="shared" si="7"/>
         <v>171.66061384743983</v>
       </c>
-      <c r="F85" s="4"/>
-      <c r="G85" s="5">
+      <c r="F85" s="3"/>
+      <c r="G85" s="4">
         <f t="shared" si="8"/>
         <v>1.3644845135044313E-16</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="3">
         <f t="shared" si="9"/>
         <v>-158.65031389080005</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>7400</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="3">
         <v>7400</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <f t="shared" si="5"/>
         <v>14800</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <f t="shared" si="6"/>
         <v>1.5477357821851712E+17</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="5">
         <f t="shared" si="7"/>
         <v>171.89696823186065</v>
       </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="5">
+      <c r="F86" s="3"/>
+      <c r="G86" s="4">
         <f t="shared" si="8"/>
         <v>1.292210222843268E-16</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="3">
         <f t="shared" si="9"/>
         <v>-158.88666827522084</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>7500</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <v>7500</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <f t="shared" si="5"/>
         <v>15000</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <f t="shared" si="6"/>
         <v>1.6331083443205616E+17</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="5">
         <f t="shared" si="7"/>
         <v>172.13014997828961</v>
       </c>
-      <c r="F87" s="4"/>
-      <c r="G87" s="5">
+      <c r="F87" s="3"/>
+      <c r="G87" s="4">
         <f t="shared" si="8"/>
         <v>1.2246584906355861E-16</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="3">
         <f t="shared" si="9"/>
         <v>-159.1198500216498</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <v>7600</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <v>7600</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="3">
         <f t="shared" si="5"/>
         <v>15200</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <f t="shared" si="6"/>
         <v>1.7219649741524125E+17</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="5">
         <f t="shared" si="7"/>
         <v>172.36024313385326</v>
       </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="5">
+      <c r="F88" s="3"/>
+      <c r="G88" s="4">
         <f t="shared" si="8"/>
         <v>1.1614638102522627E-16</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="3">
         <f t="shared" si="9"/>
         <v>-159.34994317721345</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>7700</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="3">
         <v>7700</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="3">
         <f t="shared" si="5"/>
         <v>15400</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <f t="shared" si="6"/>
         <v>1.8143991967713286E+17</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="5">
         <f t="shared" si="7"/>
         <v>172.5873284495209</v>
       </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="5">
+      <c r="F89" s="3"/>
+      <c r="G89" s="4">
         <f t="shared" si="8"/>
         <v>1.1022932569408886E-16</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="3">
         <f t="shared" si="9"/>
         <v>-159.57702849288108</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>7800</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <v>7800</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="3">
         <f t="shared" si="5"/>
         <v>15600</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <f t="shared" si="6"/>
         <v>1.9105057760108365E+17</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="5">
         <f t="shared" si="7"/>
         <v>172.81148355024084</v>
       </c>
-      <c r="F90" s="4"/>
-      <c r="G90" s="5">
+      <c r="F90" s="3"/>
+      <c r="G90" s="4">
         <f t="shared" si="8"/>
         <v>1.0468432103754373E-16</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H90" s="3">
         <f t="shared" si="9"/>
         <v>-159.80118359360102</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>7900</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <v>7900</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="3">
         <f t="shared" si="5"/>
         <v>15800</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <f t="shared" si="6"/>
         <v>2.010380714447384E+17</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="5">
         <f t="shared" si="7"/>
         <v>173.03278309423928</v>
       </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="5">
+      <c r="F91" s="3"/>
+      <c r="G91" s="4">
         <f t="shared" si="8"/>
         <v>9.9483644347919565E-17</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="3">
         <f t="shared" si="9"/>
         <v>-160.02248313759947</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>8000</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <v>8000</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="3">
         <f t="shared" si="5"/>
         <v>16000</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <f t="shared" si="6"/>
         <v>2.1141212534003421E+17</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="5">
         <f t="shared" si="7"/>
         <v>173.25129892229936</v>
       </c>
-      <c r="F92" s="4"/>
-      <c r="G92" s="5">
+      <c r="F92" s="3"/>
+      <c r="G92" s="4">
         <f t="shared" si="8"/>
         <v>9.4601953259928204E-17</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H92" s="3">
         <f t="shared" si="9"/>
         <v>-160.24099896565954</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>8100</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="3">
         <v>8100</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="3">
         <f t="shared" si="5"/>
         <v>16200</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <f t="shared" si="6"/>
         <v>2.2218258729320026E+17</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="5">
         <f t="shared" si="7"/>
         <v>173.46710019776762</v>
       </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="5">
+      <c r="F93" s="3"/>
+      <c r="G93" s="4">
         <f t="shared" si="8"/>
         <v>9.0016055009780176E-17</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H93" s="3">
         <f t="shared" si="9"/>
         <v>-160.45680024112781</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>8200</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="3">
         <v>8200</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="3">
         <f t="shared" si="5"/>
         <v>16400</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <f t="shared" si="6"/>
         <v>2.3335942918475798E+17</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="5">
         <f t="shared" si="7"/>
         <v>173.68025353797026</v>
       </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="5">
+      <c r="F94" s="3"/>
+      <c r="G94" s="4">
         <f t="shared" si="8"/>
         <v>8.5704700555148225E-17</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="3">
         <f t="shared" si="9"/>
         <v>-160.66995358133045</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>8300</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <v>8300</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <f t="shared" si="5"/>
         <v>16600</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <f t="shared" si="6"/>
         <v>2.4495274676952099E+17</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="5">
         <f t="shared" si="7"/>
         <v>173.8908231376646</v>
       </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="5">
+      <c r="F95" s="3"/>
+      <c r="G95" s="4">
         <f t="shared" si="8"/>
         <v>8.1648400615071456E-17</v>
       </c>
-      <c r="H95" s="4">
+      <c r="H95" s="3">
         <f t="shared" si="9"/>
         <v>-160.88052318102478</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>8400</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <v>8400</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="3">
         <f t="shared" si="5"/>
         <v>16800</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <f t="shared" si="6"/>
         <v>2.5697275967659498E+17</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="5">
         <f t="shared" si="7"/>
         <v>174.09887088509689</v>
       </c>
-      <c r="F96" s="4"/>
-      <c r="G96" s="5">
+      <c r="F96" s="3"/>
+      <c r="G96" s="4">
         <f t="shared" si="8"/>
         <v>7.7829261067088877E-17</v>
       </c>
-      <c r="H96" s="4">
+      <c r="H96" s="3">
         <f t="shared" si="9"/>
         <v>-161.08857092845707</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>8500</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="3">
         <v>8500</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="3">
         <f t="shared" si="5"/>
         <v>17000</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <f t="shared" si="6"/>
         <v>2.6942981140937805E+17</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="5">
         <f t="shared" si="7"/>
         <v>174.3044564711933</v>
       </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="5">
+      <c r="F97" s="3"/>
+      <c r="G97" s="4">
         <f t="shared" si="8"/>
         <v>7.4230835464645468E-17</v>
       </c>
-      <c r="H97" s="4">
+      <c r="H97" s="3">
         <f t="shared" si="9"/>
         <v>-161.29415651455349</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>8600</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="3">
         <v>8600</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="3">
         <f t="shared" si="5"/>
         <v>17200</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <f t="shared" si="6"/>
         <v>2.8233436934556026E+17</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="5">
         <f t="shared" si="7"/>
         <v>174.50763749236432</v>
       </c>
-      <c r="F98" s="4"/>
-      <c r="G98" s="5">
+      <c r="F98" s="3"/>
+      <c r="G98" s="4">
         <f t="shared" si="8"/>
         <v>7.083799271891409E-17</v>
       </c>
-      <c r="H98" s="4">
+      <c r="H98" s="3">
         <f t="shared" si="9"/>
         <v>-161.49733753572451</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>8700</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="3">
         <v>8700</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="3">
         <f t="shared" si="5"/>
         <v>17400</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <f t="shared" si="6"/>
         <v>2.956970247371241E+17</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="5">
         <f t="shared" si="7"/>
         <v>174.70846954736635</v>
       </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="5">
+      <c r="F99" s="3"/>
+      <c r="G99" s="4">
         <f t="shared" si="8"/>
         <v>6.763679823217729E-17</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H99" s="3">
         <f t="shared" si="9"/>
         <v>-161.69816959072654</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <v>8800</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="3">
         <v>8800</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="3">
         <f t="shared" si="5"/>
         <v>17600</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="4">
         <f t="shared" si="6"/>
         <v>3.0952849271034406E+17</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="5">
         <f t="shared" si="7"/>
         <v>174.90700632862837</v>
       </c>
-      <c r="F100" s="4"/>
-      <c r="G100" s="5">
+      <c r="F100" s="3"/>
+      <c r="G100" s="4">
         <f t="shared" si="8"/>
         <v>6.4614406980348478E-17</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H100" s="3">
         <f t="shared" si="9"/>
         <v>-161.89670637198856</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <v>8900</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <v>8900</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="3">
         <f t="shared" si="5"/>
         <v>17800</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="4">
         <f t="shared" si="6"/>
         <v>3.2383961226578694E+17</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="5">
         <f t="shared" si="7"/>
         <v>175.10329970841812</v>
       </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="5">
+      <c r="F101" s="3"/>
+      <c r="G101" s="4">
         <f t="shared" si="8"/>
         <v>6.1758967224754676E-17</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H101" s="3">
         <f t="shared" si="9"/>
         <v>-162.09299975177831</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="4">
+      <c r="A102" s="3">
         <v>9000</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <v>9000</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="3">
         <f t="shared" si="5"/>
         <v>18000</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="4">
         <f t="shared" si="6"/>
         <v>3.3864134627831168E+17</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="5">
         <f t="shared" si="7"/>
         <v>175.29739982019461</v>
       </c>
-      <c r="F102" s="4"/>
-      <c r="G102" s="5">
+      <c r="F102" s="3"/>
+      <c r="G102" s="4">
         <f t="shared" si="8"/>
         <v>5.9059533691916766E-17</v>
       </c>
-      <c r="H102" s="4">
+      <c r="H102" s="3">
         <f t="shared" si="9"/>
         <v>-162.2870998635548</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="4">
+      <c r="A103" s="3">
         <v>9100</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="3">
         <v>9100</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="3">
         <f t="shared" si="5"/>
         <v>18200</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="4">
         <f t="shared" si="6"/>
         <v>3.5394478149706931E+17</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="5">
         <f t="shared" si="7"/>
         <v>175.48935513546536</v>
       </c>
-      <c r="F103" s="4"/>
-      <c r="G103" s="5">
+      <c r="F103" s="3"/>
+      <c r="G103" s="4">
         <f t="shared" si="8"/>
         <v>5.6505989198107729E-17</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="3">
         <f t="shared" si="9"/>
         <v>-162.47905517882555</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="4">
+      <c r="A104" s="3">
         <v>9200</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="3">
         <v>9200</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="3">
         <f t="shared" si="5"/>
         <v>18400</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="4">
         <f t="shared" si="6"/>
         <v>3.6976112854550317E+17</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="5">
         <f t="shared" si="7"/>
         <v>175.67921253644383</v>
       </c>
-      <c r="F104" s="4"/>
-      <c r="G104" s="5">
+      <c r="F104" s="3"/>
+      <c r="G104" s="4">
         <f t="shared" si="8"/>
         <v>5.408897381580438E-17</v>
       </c>
-      <c r="H104" s="4">
+      <c r="H104" s="3">
         <f t="shared" si="9"/>
         <v>-162.66891257980402</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="4">
+      <c r="A105" s="3">
         <v>9300</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="3">
         <v>9300</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="3">
         <f t="shared" si="5"/>
         <v>18600</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="4">
         <f t="shared" si="6"/>
         <v>3.8610172192134899E+17</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="5">
         <f t="shared" si="7"/>
         <v>175.86701738477902</v>
       </c>
-      <c r="F105" s="4"/>
-      <c r="G105" s="5">
+      <c r="F105" s="3"/>
+      <c r="G105" s="4">
         <f t="shared" si="8"/>
         <v>5.1799820784208025E-17</v>
       </c>
-      <c r="H105" s="4">
+      <c r="H105" s="3">
         <f t="shared" si="9"/>
         <v>-162.85671742813921</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="4">
+      <c r="A106" s="3">
         <v>9400</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <v>9400</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="3">
         <f t="shared" si="5"/>
         <v>18800</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="4">
         <f t="shared" si="6"/>
         <v>4.0297801999663418E+17</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="5">
         <f t="shared" si="7"/>
         <v>176.05281358660957</v>
       </c>
-      <c r="F106" s="4"/>
-      <c r="G106" s="5">
+      <c r="F106" s="3"/>
+      <c r="G106" s="4">
         <f t="shared" si="8"/>
         <v>4.9630498457873826E-17</v>
       </c>
-      <c r="H106" s="4">
+      <c r="H106" s="3">
         <f t="shared" si="9"/>
         <v>-163.04251362996976</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="4">
+      <c r="A107" s="3">
         <v>9500</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="3">
         <v>9500</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="3">
         <f t="shared" si="5"/>
         <v>19000</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <f t="shared" si="6"/>
         <v>4.2040160501767878E+17</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="5">
         <f t="shared" si="7"/>
         <v>176.23664365417554</v>
       </c>
-      <c r="F107" s="4"/>
-      <c r="G107" s="5">
+      <c r="F107" s="3"/>
+      <c r="G107" s="4">
         <f t="shared" si="8"/>
         <v>4.7573557667932681E-17</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H107" s="3">
         <f t="shared" si="9"/>
         <v>-163.22634369753573</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="4">
+      <c r="A108" s="3">
         <v>9600</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="3">
         <v>9600</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="3">
         <f t="shared" si="5"/>
         <v>19200</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="4">
         <f t="shared" si="6"/>
         <v>4.3838418310509498E+17</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="5">
         <f t="shared" si="7"/>
         <v>176.41854876420436</v>
       </c>
-      <c r="F108" s="4"/>
-      <c r="G108" s="5">
+      <c r="F108" s="3"/>
+      <c r="G108" s="4">
         <f t="shared" si="8"/>
         <v>4.5622083940937597E-17</v>
       </c>
-      <c r="H108" s="4">
+      <c r="H108" s="3">
         <f t="shared" si="9"/>
         <v>-163.40824880756455</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="4">
+      <c r="A109" s="3">
         <v>9700</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="3">
         <v>9700</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="3">
         <f t="shared" si="5"/>
         <v>19400</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="4">
         <f t="shared" si="6"/>
         <v>4.5693758425378688E+17</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="5">
         <f t="shared" si="7"/>
         <v>176.59856881327141</v>
       </c>
-      <c r="F109" s="4"/>
-      <c r="G109" s="5">
+      <c r="F109" s="3"/>
+      <c r="G109" s="4">
         <f t="shared" si="8"/>
         <v>4.3769654082321746E-17</v>
       </c>
-      <c r="H109" s="4">
+      <c r="H109" s="3">
         <f t="shared" si="9"/>
         <v>-163.5882688566316</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="4">
+      <c r="A110" s="3">
         <v>9800</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="3">
         <v>9800</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="3">
         <f t="shared" si="5"/>
         <v>19600</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="4">
         <f t="shared" si="6"/>
         <v>4.7607376233295104E+17</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="5">
         <f t="shared" si="7"/>
         <v>176.77674247032141</v>
       </c>
-      <c r="F110" s="4"/>
-      <c r="G110" s="5">
+      <c r="F110" s="3"/>
+      <c r="G110" s="4">
         <f t="shared" si="8"/>
         <v>4.2010296685942187E-17</v>
       </c>
-      <c r="H110" s="4">
+      <c r="H110" s="3">
         <f t="shared" si="9"/>
         <v>-163.7664425136816</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <v>9900</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="3">
         <v>9900</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="3">
         <f t="shared" si="5"/>
         <v>19800</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="4">
         <f t="shared" si="6"/>
         <v>4.958047950860761E+17</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="5">
         <f t="shared" si="7"/>
         <v>176.95310722652363</v>
       </c>
-      <c r="F111" s="4"/>
-      <c r="G111" s="5">
+      <c r="F111" s="3"/>
+      <c r="G111" s="4">
         <f t="shared" si="8"/>
         <v>4.0338456179165881E-17</v>
       </c>
-      <c r="H111" s="4">
+      <c r="H111" s="3">
         <f t="shared" si="9"/>
         <v>-163.94280726988382</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <v>10000</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="3">
         <v>10000</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="3">
         <f t="shared" si="5"/>
         <v>20000</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="4">
         <f t="shared" si="6"/>
         <v>5.1614288413094291E+17</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="5">
         <f t="shared" si="7"/>
         <v>177.1276994426216</v>
       </c>
-      <c r="F112" s="4"/>
-      <c r="G112" s="5">
+      <c r="F112" s="3"/>
+      <c r="G112" s="4">
         <f t="shared" si="8"/>
         <v>3.8748960055266594E-17</v>
       </c>
-      <c r="H112" s="4">
+      <c r="H112" s="3">
         <f t="shared" si="9"/>
         <v>-164.11739948598179</v>
       </c>

--- a/documentation/calculoPerdidas.xlsx
+++ b/documentation/calculoPerdidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raul\Documents\Github\TFGRaul\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CC1DED-7401-4CA2-A0D4-A3876AF4D44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A8F308-1A4E-4507-A000-081CF4B835F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92DAF7E3-0953-4B99-83BE-4E56EDBC23EF}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>Atenuacion (W)</t>
-  </si>
-  <si>
     <t>Atenuación (db)</t>
   </si>
   <si>
@@ -64,19 +61,22 @@
     <t>Potencia recibida (W)</t>
   </si>
   <si>
-    <t>Potencia recibida (dbW)</t>
-  </si>
-  <si>
-    <t>Ganancia antena emisora (W)</t>
-  </si>
-  <si>
-    <t>Ganacia antena receptora (W)</t>
-  </si>
-  <si>
     <t>Distancia total (m)</t>
   </si>
   <si>
     <t xml:space="preserve">Longitud de onda </t>
+  </si>
+  <si>
+    <t>Atenuacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganancia antena emisora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganacia antena receptora </t>
+  </si>
+  <si>
+    <t>Potencia recibida (dbm)</t>
   </si>
 </sst>
 </file>
@@ -112,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -127,6 +127,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -204,7 +207,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Atenuacion (W)</c:v>
+                  <c:v>Atenuacion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -228,7 +231,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>400</c:v>
@@ -537,304 +540,304 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>5161428841.3094292</c:v>
+                  <c:v>4.1578300802321556E+18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82582861460.950867</c:v>
+                  <c:v>131407963029.55949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>418075736146.06378</c:v>
+                  <c:v>665252812837.14502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1321325783375.2139</c:v>
+                  <c:v>2102527408472.9519</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3225893025818.3931</c:v>
+                  <c:v>5133123555842.168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6689211778337.0205</c:v>
+                  <c:v>10644045005394.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12392590647983.939</c:v>
+                  <c:v>19719407452123.27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21141212534003.422</c:v>
+                  <c:v>33640438535567.23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33864134627831.164</c:v>
+                  <c:v>53885477839808.734</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51614288413094.289</c:v>
+                  <c:v>82129976893474.688</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75568479665611.344</c:v>
+                  <c:v>120246499169736.28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>107027388453392.33</c:v>
+                  <c:v>170304720086309.13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>147415569136638.59</c:v>
+                  <c:v>234571427005453.03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>198281450367743.03</c:v>
+                  <c:v>315510519233972.31</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>261297335091289.91</c:v>
+                  <c:v>415783008023215.69</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>338259400544054.75</c:v>
+                  <c:v>538247016569075.69</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>431087698255004.81</c:v>
+                  <c:v>685957780011989.88</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>541826154045298.63</c:v>
+                  <c:v>862167645436939.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>672642568028286.13</c:v>
+                  <c:v>1070326071873451.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>825828614609508.63</c:v>
+                  <c:v>1314079630295595</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1003799842486699.1</c:v>
+                  <c:v>1597272003621985</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1209095674649781.5</c:v>
+                  <c:v>1923943986715780.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1444379408380871.8</c:v>
+                  <c:v>2298333486384685</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1712438215254277.3</c:v>
+                  <c:v>2724875521380946</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2016183141136495.8</c:v>
+                  <c:v>3208202222401355</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2358649106186217.5</c:v>
+                  <c:v>3753142832087248.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2742994904854324.5</c:v>
+                  <c:v>4364723705024508.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3172503205883888.5</c:v>
+                  <c:v>5048168307743557</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3650580552310174.5</c:v>
+                  <c:v>5808897218719367</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4180757361460638.5</c:v>
+                  <c:v>6652528128371451</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4766687924954925</c:v>
+                  <c:v>7584875839063864</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5412150408704876</c:v>
+                  <c:v>8611952265105211</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6121046852914520</c:v>
+                  <c:v>9739966432748640</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6897403172080077</c:v>
+                  <c:v>1.0975324480191838E+16</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7745369154989961</c:v>
+                  <c:v>1.2324629657577044E+16</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8669218464724778</c:v>
+                  <c:v>1.3794682326991036E+16</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9673348638657320</c:v>
+                  <c:v>1.539247996246514E+16</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0762281088452578E+16</c:v>
+                  <c:v>1.7125217149975222E+16</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1940661100067728E+16</c:v>
+                  <c:v>1.9000285587441696E+16</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3213257833752138E+16</c:v>
+                  <c:v>2.102527408472952E+16</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.4584964324047374E+16</c:v>
+                  <c:v>2.3207968563648192E+16</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.6060797479787186E+16</c:v>
+                  <c:v>2.555635205795176E+16</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.7645898084097516E+16</c:v>
+                  <c:v>2.8078604713338812E+16</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.9345530794396504E+16</c:v>
+                  <c:v>3.0783103787452488E+16</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.116508414239448E+16</c:v>
+                  <c:v>3.3678423649880468E+16</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.3110070534093948E+16</c:v>
+                  <c:v>3.677333578215496E+16</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.5186126249789636E+16</c:v>
+                  <c:v>4.0076808777752744E+16</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.7399011444068436E+16</c:v>
+                  <c:v>4.3598008342095136E+16</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.975461014580944E+16</c:v>
+                  <c:v>4.7346297292547976E+16</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.2258930258183932E+16</c:v>
+                  <c:v>5.133123555842168E+16</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.4918103558655392E+16</c:v>
+                  <c:v>5.5562580180971184E+16</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.773838569897948E+16</c:v>
+                  <c:v>6.0050285313395976E+16</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.0726156205204064E+16</c:v>
+                  <c:v>6.4804502220840096E+16</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.3887918477669192E+16</c:v>
+                  <c:v>6.9835579280392136E+16</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.7230299791007096E+16</c:v>
+                  <c:v>7.5154061981085184E+16</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.0760051294142216E+16</c:v>
+                  <c:v>8.0770692923896912E+16</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.4484048010291184E+16</c:v>
+                  <c:v>8.6696411821749568E+16</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.8409288836962792E+16</c:v>
+                  <c:v>9.2942355499509872E+16</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.2542896545958072E+16</c:v>
+                  <c:v>9.9519857893989136E+16</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.6892117783370216E+16</c:v>
+                  <c:v>1.0644045005394322E+17</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.1464323069584584E+16</c:v>
+                  <c:v>1.1371586014007243E+17</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.62670067992788E+16</c:v>
+                  <c:v>1.2135801342502182E+17</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.1307787241422624E+16</c:v>
+                  <c:v>1.2937903229338078E+17</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.6594406539278016E+16</c:v>
+                  <c:v>1.3779123624168338E+17</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.213473071039912E+16</c:v>
+                  <c:v>1.4660714187840816E+17</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9.793674964663232E+16</c:v>
+                  <c:v>1.5583946292397824E+17</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.040085771141161E+17</c:v>
+                  <c:v>1.6550111021076125E+17</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1035845075328123E+17</c:v>
+                  <c:v>1.7560519168306941E+17</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1699473207885062E+17</c:v>
+                  <c:v>1.8616501239715949E+17</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.2392590647983938E+17</c:v>
+                  <c:v>1.971940745212327E+17</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.3116058321955485E+17</c:v>
+                  <c:v>2.0870607733543498E+17</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3870749543559645E+17</c:v>
+                  <c:v>2.2071491723185658E+17</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.465755001398559E+17</c:v>
+                  <c:v>2.3323468771453254E+17</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.5477357821851712E+17</c:v>
+                  <c:v>2.4627967939944224E+17</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.6331083443205616E+17</c:v>
+                  <c:v>2.5986438001450973E+17</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.7219649741524125E+17</c:v>
+                  <c:v>2.7400347439960355E+17</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.8143991967713286E+17</c:v>
+                  <c:v>2.8871184450653683E+17</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.9105057760108365E+17</c:v>
+                  <c:v>3.0400456939906714E+17</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.010380714447384E+17</c:v>
+                  <c:v>3.198969252528967E+17</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.1141212534003421E+17</c:v>
+                  <c:v>3.3640438535567232E+17</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.2218258729320026E+17</c:v>
+                  <c:v>3.5354262010698515E+17</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.3335942918475798E+17</c:v>
+                  <c:v>3.7132749701837107E+17</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.4495274676952099E+17</c:v>
+                  <c:v>3.8977508071331046E+17</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.5697275967659498E+17</c:v>
+                  <c:v>4.0890163292722816E+17</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.6942981140937805E+17</c:v>
+                  <c:v>4.287236125074937E+17</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.8233436934556026E+17</c:v>
+                  <c:v>4.4925767541342099E+17</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.956970247371241E+17</c:v>
+                  <c:v>4.7052067471626861E+17</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.0952849271034406E+17</c:v>
+                  <c:v>4.9252966059923981E+17</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.2383961226578694E+17</c:v>
+                  <c:v>5.1530188035748205E+17</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.3864134627831168E+17</c:v>
+                  <c:v>5.3885477839808749E+17</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.5394478149706931E+17</c:v>
+                  <c:v>5.6320599624009286E+17</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.6976112854550317E+17</c:v>
+                  <c:v>5.8837337251447936E+17</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.8610172192134899E+17</c:v>
+                  <c:v>6.1437494296417293E+17</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.0297801999663418E+17</c:v>
+                  <c:v>6.412289404440439E+17</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.2040160501767878E+17</c:v>
+                  <c:v>6.6895379492090714E+17</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.3838418310509498E+17</c:v>
+                  <c:v>6.9756813347352218E+17</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.5693758425378688E+17</c:v>
+                  <c:v>7.2709078029259277E+17</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.7607376233295104E+17</c:v>
+                  <c:v>7.5754075668076762E+17</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.958047950860761E+17</c:v>
+                  <c:v>7.8893728105263987E+17</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.1614288413094291E+17</c:v>
+                  <c:v>8.2129976893474688E+17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,7 +1096,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>400</c:v>
@@ -1402,304 +1405,304 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>97.127699442621619</c:v>
+                  <c:v>186.18866736865237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.16889926918087</c:v>
+                  <c:v>111.18621683298436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>116.21254963140812</c:v>
+                  <c:v>118.22986719521161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121.21009909574012</c:v>
+                  <c:v>123.22741665954361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>125.08649961606237</c:v>
+                  <c:v>127.10381717986586</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.25374945796736</c:v>
+                  <c:v>130.27106702177088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130.93162104319188</c:v>
+                  <c:v>132.9489386069954</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>133.25129892229936</c:v>
+                  <c:v>135.26861648610287</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>135.29739982019461</c:v>
+                  <c:v>137.31471738399813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>137.1276994426216</c:v>
+                  <c:v>139.14501700642512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>138.78340684895062</c:v>
+                  <c:v>140.80072441275411</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>140.29494928452661</c:v>
+                  <c:v>142.31226684833013</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>141.68543353489508</c:v>
+                  <c:v>143.70275109869857</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>142.97282086975113</c:v>
+                  <c:v>144.99013843355465</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>144.17134980484886</c:v>
+                  <c:v>146.18866736865237</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>145.29249874885861</c:v>
+                  <c:v>147.30981631266212</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>146.34565629775258</c:v>
+                  <c:v>148.36297386155607</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>147.33859964675386</c:v>
+                  <c:v>149.35591721055735</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>148.27784348073476</c:v>
+                  <c:v>150.29516104453828</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>149.16889926918086</c:v>
+                  <c:v>151.18621683298437</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>150.01647123197839</c:v>
+                  <c:v>152.0337887957819</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150.82460667550987</c:v>
+                  <c:v>152.84192423931336</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>151.59681288332533</c:v>
+                  <c:v>153.61413044712884</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>152.33614911108586</c:v>
+                  <c:v>154.35346667488938</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>153.0452997895031</c:v>
+                  <c:v>155.06261735330662</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>153.72663336145433</c:v>
+                  <c:v>155.74395092525782</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>154.38225000898112</c:v>
+                  <c:v>156.3995675727846</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>155.01402069631038</c:v>
+                  <c:v>157.0313382601139</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>155.62361935857984</c:v>
+                  <c:v>157.64093692238336</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>156.21254963140811</c:v>
+                  <c:v>158.22986719521163</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>156.78216719599251</c:v>
+                  <c:v>158.799484759796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>157.33369857541786</c:v>
+                  <c:v>159.35101613922137</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>157.86825703773712</c:v>
+                  <c:v>159.88557460154061</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>158.38685612431181</c:v>
+                  <c:v>160.40417368811532</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>158.89042121663263</c:v>
+                  <c:v>160.90773878043615</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>159.37979947331311</c:v>
+                  <c:v>161.39711703711663</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>159.8557684053014</c:v>
+                  <c:v>161.87308596910492</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>160.31904330729404</c:v>
+                  <c:v>162.3363608710975</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>160.77028372368159</c:v>
+                  <c:v>162.78760128748507</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>161.21009909574011</c:v>
+                  <c:v>163.22741665954362</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>161.63905371141107</c:v>
+                  <c:v>163.65637127521452</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>162.05767105853764</c:v>
+                  <c:v>164.07498862234115</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>162.46643766580507</c:v>
+                  <c:v>164.48375522960859</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>162.86580650206912</c:v>
+                  <c:v>164.88312406587261</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>163.25619999363536</c:v>
+                  <c:v>165.27351755743888</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>163.63801270988458</c:v>
+                  <c:v>165.65533027368809</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>164.01161376005032</c:v>
+                  <c:v>166.02893132385384</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>164.37734893764511</c:v>
+                  <c:v>166.39466650144863</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>164.73554264376216</c:v>
+                  <c:v>166.75286020756567</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>165.08649961606238</c:v>
+                  <c:v>167.10381717986587</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>165.43050648653906</c:v>
+                  <c:v>167.44782405034258</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>165.76783318801358</c:v>
+                  <c:v>167.78515075181707</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>166.09873422665316</c:v>
+                  <c:v>168.11605179045668</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>166.42344983554037</c:v>
+                  <c:v>168.44076739934388</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>166.74220702239137</c:v>
+                  <c:v>168.75952458619486</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>167.05522052286963</c:v>
+                  <c:v>169.07253808667315</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>167.36269366952126</c:v>
+                  <c:v>169.38001123332475</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>167.66481918513909</c:v>
+                  <c:v>169.68213674894261</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>167.96177990830739</c:v>
+                  <c:v>169.97909747211088</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>168.25374945796736</c:v>
+                  <c:v>170.27106702177088</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>168.54089284305229</c:v>
+                  <c:v>170.55821040685578</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>168.82336702255176</c:v>
+                  <c:v>170.84068458635528</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>169.10132142076489</c:v>
+                  <c:v>171.11863898456841</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>169.37489840197711</c:v>
+                  <c:v>171.39221596578062</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>169.64423370833583</c:v>
+                  <c:v>171.66155127213932</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>169.90945686429637</c:v>
+                  <c:v>171.92677442809986</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>170.17069155065468</c:v>
+                  <c:v>172.18800911445817</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>170.42805595087106</c:v>
+                  <c:v>172.44537351467457</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>170.68166307211183</c:v>
+                  <c:v>172.69898063591535</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>170.93162104319188</c:v>
+                  <c:v>172.9489386069954</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>171.17803339138462</c:v>
+                  <c:v>173.19535095518813</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>171.42099929987236</c:v>
+                  <c:v>173.43831686367588</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>171.66061384743983</c:v>
+                  <c:v>173.67793141124335</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>171.89696823186065</c:v>
+                  <c:v>173.91428579566417</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>172.13014997828961</c:v>
+                  <c:v>174.14746754209312</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>172.36024313385326</c:v>
+                  <c:v>174.37756069765675</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>172.5873284495209</c:v>
+                  <c:v>174.60464601332438</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>172.81148355024084</c:v>
+                  <c:v>174.82880111404432</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>173.03278309423928</c:v>
+                  <c:v>175.05010065804277</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>173.25129892229936</c:v>
+                  <c:v>175.26861648610287</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>173.46710019776762</c:v>
+                  <c:v>175.48441776157108</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>173.68025353797026</c:v>
+                  <c:v>175.69757110177378</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>173.8908231376646</c:v>
+                  <c:v>175.90814070146806</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>174.09887088509689</c:v>
+                  <c:v>176.1161884489004</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>174.3044564711933</c:v>
+                  <c:v>176.32177403499682</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>174.50763749236432</c:v>
+                  <c:v>176.52495505616781</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>174.70846954736635</c:v>
+                  <c:v>176.72578711116984</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>174.90700632862837</c:v>
+                  <c:v>176.92432389243186</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>175.10329970841812</c:v>
+                  <c:v>177.12061727222164</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>175.29739982019461</c:v>
+                  <c:v>177.31471738399813</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>175.48935513546536</c:v>
+                  <c:v>177.50667269926885</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>175.67921253644383</c:v>
+                  <c:v>177.69653010024734</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>175.86701738477902</c:v>
+                  <c:v>177.88433494858253</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>176.05281358660957</c:v>
+                  <c:v>178.07013115041309</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>176.23664365417554</c:v>
+                  <c:v>178.253961217979</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>176.41854876420436</c:v>
+                  <c:v>178.43586632800788</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>176.59856881327141</c:v>
+                  <c:v>178.6158863770749</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>176.77674247032141</c:v>
+                  <c:v>178.79406003412493</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>176.95310722652363</c:v>
+                  <c:v>178.97042479032709</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>177.1276994426216</c:v>
+                  <c:v>179.14501700642512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1958,7 +1961,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>400</c:v>
@@ -2267,304 +2270,304 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>3.8748960055266591E-9</c:v>
+                  <c:v>4.8102013824680598E-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4218100034541619E-10</c:v>
+                  <c:v>1.5219777811715346E-10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7838222290452582E-11</c:v>
+                  <c:v>3.0063758640425372E-11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5136312521588512E-11</c:v>
+                  <c:v>9.5123611323220912E-12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1998336088426548E-12</c:v>
+                  <c:v>3.8962631197991281E-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9898888931532864E-12</c:v>
+                  <c:v>1.8789849150265858E-12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6138675574871551E-12</c:v>
+                  <c:v>1.0142292585899439E-12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.46019532599282E-13</c:v>
+                  <c:v>5.945225707701307E-13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9059533691916771E-13</c:v>
+                  <c:v>3.7115751407932562E-13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8748960055266592E-13</c:v>
+                  <c:v>2.4351644498744551E-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6466061099150737E-13</c:v>
+                  <c:v>1.6632500852909332E-13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.868680558220804E-13</c:v>
+                  <c:v>1.1743655718916161E-13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3567088006465669E-13</c:v>
+                  <c:v>8.5261876330466554E-14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0086672234294719E-13</c:v>
+                  <c:v>6.3389328661871493E-14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.654115566472412E-14</c:v>
+                  <c:v>4.8102013824680588E-14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9126220787455125E-14</c:v>
+                  <c:v>3.7157660673133169E-14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.6394272165403425E-14</c:v>
+                  <c:v>2.9156313380759992E-14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.6912208557447982E-14</c:v>
+                  <c:v>2.3197344629957851E-14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9733473542457926E-14</c:v>
+                  <c:v>1.8685894444291061E-14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.421810003454162E-14</c:v>
+                  <c:v>1.5219777811715344E-14</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9924290833174753E-14</c:v>
+                  <c:v>1.2521348871480788E-14</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.654128818696921E-14</c:v>
+                  <c:v>1.0395313033068333E-14</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3846777296845921E-14</c:v>
+                  <c:v>8.7019573610530816E-15</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1679253488880025E-14</c:v>
+                  <c:v>7.3397848243226006E-15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.919733774148248E-15</c:v>
+                  <c:v>6.2340209916786054E-15</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.4794300040410431E-15</c:v>
+                  <c:v>5.3288672706541596E-15</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.2913004557921929E-15</c:v>
+                  <c:v>4.5821915318435255E-15</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.3041701464341996E-15</c:v>
+                  <c:v>3.9618330413669683E-15</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.4785806568063596E-15</c:v>
+                  <c:v>3.4429942977041024E-15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.7838222290452575E-15</c:v>
+                  <c:v>3.0063758640425367E-15</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.1957854835208506E-15</c:v>
+                  <c:v>2.6368262875175066E-15</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.6953887992159453E-15</c:v>
+                  <c:v>2.3223537920708231E-15</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2674149505124364E-15</c:v>
+                  <c:v>2.0533951670258432E-15</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.8996420103377141E-15</c:v>
+                  <c:v>1.8222695862974995E-15</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.5821880919794482E-15</c:v>
+                  <c:v>1.6227668137439103E-15</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.3070130348404989E-15</c:v>
+                  <c:v>1.4498340393723657E-15</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.0675363565492289E-15</c:v>
+                  <c:v>1.2993357827179497E-15</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.8583420964036204E-15</c:v>
+                  <c:v>1.1678684027681913E-15</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.6749491366006996E-15</c:v>
+                  <c:v>1.0526157571662538E-15</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5136312521588513E-15</c:v>
+                  <c:v>9.5123611323220902E-16</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.3712752088823716E-15</c:v>
+                  <c:v>8.6177297013953239E-16</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.245268177073422E-15</c:v>
+                  <c:v>7.8258430446754926E-16</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.1334078835026254E-15</c:v>
+                  <c:v>7.1228610553069789E-16</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0338305116855756E-15</c:v>
+                  <c:v>6.497070645667708E-16</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.4495253907066825E-16</c:v>
+                  <c:v>5.9385202252692087E-16</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.6542358105287008E-16</c:v>
+                  <c:v>5.438723350658176E-16</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.9408797532598121E-16</c:v>
+                  <c:v>4.9904173036607416E-16</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.2995334305500156E-16</c:v>
+                  <c:v>4.5873655152016254E-16</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.7216474697507499E-16</c:v>
+                  <c:v>4.2241951628069301E-16</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.199833608842655E-16</c:v>
+                  <c:v>3.8962631197991284E-16</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.7276879216547432E-16</c:v>
+                  <c:v>3.599544861822221E-16</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.299643752525652E-16</c:v>
+                  <c:v>3.3305420441588498E-16</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.9108489146943763E-16</c:v>
+                  <c:v>3.0862053275008905E-16</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.5570627848701206E-16</c:v>
+                  <c:v>2.8638697074022034E-16</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.2345697758641176E-16</c:v>
+                  <c:v>2.6612001364654929E-16</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.9401063415213748E-16</c:v>
+                  <c:v>2.4761456508543552E-16</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.6707992027725829E-16</c:v>
+                  <c:v>2.3069005486779085E-16</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.4241129105039747E-16</c:v>
+                  <c:v>2.151871436065064E-16</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.1978052032341522E-16</c:v>
+                  <c:v>2.009649171857185E-16</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.9898888931532859E-16</c:v>
+                  <c:v>1.8789849150265855E-16</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.798599236786454E-16</c:v>
+                  <c:v>1.758769618887329E-16</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.6223659272005316E-16</c:v>
+                  <c:v>1.6480164296984416E-16</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.4597889917499695E-16</c:v>
+                  <c:v>1.5458455396889863E-16</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.3096179995099658E-16</c:v>
+                  <c:v>1.4514711200442644E-16</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.1707340810345068E-16</c:v>
+                  <c:v>1.3641900212874649E-16</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.0421343440702728E-16</c:v>
+                  <c:v>1.283371979391152E-16</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.9229183356730672E-16</c:v>
+                  <c:v>1.2084511079430545E-16</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.8122762564610713E-16</c:v>
+                  <c:v>1.1389184914359372E-16</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.7094786786229533E-16</c:v>
+                  <c:v>1.0743157235868001E-16</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.6138675574871552E-16</c:v>
+                  <c:v>1.0142292585899439E-16</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.5248483583304304E-16</c:v>
+                  <c:v>9.5828546323812864E-17</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.4418831467753118E-16</c:v>
+                  <c:v>9.0614627460772856E-17</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.3644845135044313E-16</c:v>
+                  <c:v>8.5750538206731021E-17</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.292210222843268E-16</c:v>
+                  <c:v>8.1208486419871859E-17</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.2246584906355861E-16</c:v>
+                  <c:v>7.6963222119488957E-17</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.1614638102522627E-16</c:v>
+                  <c:v>7.2991775173011955E-17</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.1022932569408886E-16</c:v>
+                  <c:v>6.927322304418713E-17</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.0468432103754373E-16</c:v>
+                  <c:v>6.578848482289086E-17</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.9483644347919565E-17</c:v>
+                  <c:v>6.2520138273254306E-17</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.4601953259928204E-17</c:v>
+                  <c:v>5.9452257077013064E-17</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.0016055009780176E-17</c:v>
+                  <c:v>5.6570265825228714E-17</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.5704700555148225E-17</c:v>
+                  <c:v>5.3860810633720775E-17</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.1648400615071456E-17</c:v>
+                  <c:v>5.1311643534006503E-17</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.7829261067088877E-17</c:v>
+                  <c:v>4.8911519029221829E-17</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7.4230835464645468E-17</c:v>
+                  <c:v>4.6650101409215985E-17</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7.083799271891409E-17</c:v>
+                  <c:v>4.4517881595668618E-17</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.763679823217729E-17</c:v>
+                  <c:v>4.2506102440791396E-17</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.4614406980348478E-17</c:v>
+                  <c:v>4.0606691535423175E-17</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6.1758967224754676E-17</c:v>
+                  <c:v>3.8812200697046427E-17</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.9059533691916766E-17</c:v>
+                  <c:v>3.7115751407932554E-17</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.6505989198107729E-17</c:v>
+                  <c:v>3.5510985560377566E-17</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.408897381580438E-17</c:v>
+                  <c:v>3.39920209416136E-17</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.1799820784208025E-17</c:v>
+                  <c:v>3.2553410957006252E-17</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.9630498457873826E-17</c:v>
+                  <c:v>3.1190108147879635E-17</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.7573557667932681E-17</c:v>
+                  <c:v>2.9897431110865696E-17</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.5622083940937597E-17</c:v>
+                  <c:v>2.8671034470010159E-17</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.3769654082321746E-17</c:v>
+                  <c:v>2.7506881591803002E-17</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.2010296685942187E-17</c:v>
+                  <c:v>2.6401219767543313E-17</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.0338456179165881E-17</c:v>
+                  <c:v>2.5350557617603001E-17</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.8748960055266594E-17</c:v>
+                  <c:v>2.4351644498744552E-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2799,7 +2802,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Potencia recibida (dbW)</c:v>
+                  <c:v>Potencia recibida (dbm)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2823,7 +2826,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>400</c:v>
@@ -3132,304 +3135,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-84.117399485981807</c:v>
+                  <c:v>-143.17836741201256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-96.158599312541057</c:v>
+                  <c:v>-68.175916876344544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-103.20224967476831</c:v>
+                  <c:v>-75.219567238571798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-108.19979913910031</c:v>
+                  <c:v>-80.217116702903795</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-112.07619965942256</c:v>
+                  <c:v>-84.093517223226058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-115.24344950132755</c:v>
+                  <c:v>-87.260767065131049</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-117.92132108655208</c:v>
+                  <c:v>-89.938638650355571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-120.24099896565956</c:v>
+                  <c:v>-92.258316529463045</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-122.2870998635548</c:v>
+                  <c:v>-94.304417427358302</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-124.11739948598181</c:v>
+                  <c:v>-96.134717049785294</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-125.77310689231081</c:v>
+                  <c:v>-97.790424456114309</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-127.2846493278868</c:v>
+                  <c:v>-99.301966891690299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-128.67513357825527</c:v>
+                  <c:v>-100.69245114205877</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-129.96252091311132</c:v>
+                  <c:v>-101.97983847691482</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-131.16104984820905</c:v>
+                  <c:v>-103.17836741201255</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-132.28219879221879</c:v>
+                  <c:v>-104.29951635602229</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-133.33535634111277</c:v>
+                  <c:v>-105.35267390491626</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-134.32829969011405</c:v>
+                  <c:v>-106.34561725391754</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-135.26754352409495</c:v>
+                  <c:v>-107.28486108789846</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-136.15859931254104</c:v>
+                  <c:v>-108.17591687634454</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-137.00617127533857</c:v>
+                  <c:v>-109.02348883914208</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-137.81430671887006</c:v>
+                  <c:v>-109.83162428267354</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-138.58651292668551</c:v>
+                  <c:v>-110.60383049048902</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-139.32584915444605</c:v>
+                  <c:v>-111.34316671824955</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-140.03499983286329</c:v>
+                  <c:v>-112.05231739666681</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-140.71633340481452</c:v>
+                  <c:v>-112.73365096861802</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-141.3719500523413</c:v>
+                  <c:v>-113.38926761614479</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-142.00372073967057</c:v>
+                  <c:v>-114.02103830347407</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-142.61331940194003</c:v>
+                  <c:v>-114.63063696574353</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-143.2022496747683</c:v>
+                  <c:v>-115.2195672385718</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-143.7718672393527</c:v>
+                  <c:v>-115.7891848031562</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-144.32339861877804</c:v>
+                  <c:v>-116.34071618258155</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-144.85795708109731</c:v>
+                  <c:v>-116.8752746449008</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-145.37655616767199</c:v>
+                  <c:v>-117.39387373147551</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-145.88012125999282</c:v>
+                  <c:v>-117.89743882379632</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-146.3694995166733</c:v>
+                  <c:v>-118.38681708047679</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-146.84546844866159</c:v>
+                  <c:v>-118.86278601246509</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-147.3087433506542</c:v>
+                  <c:v>-119.3260609144577</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-147.75998376704177</c:v>
+                  <c:v>-119.77730133084528</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-148.19979913910029</c:v>
+                  <c:v>-120.21711670290379</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-148.62875375477122</c:v>
+                  <c:v>-120.64607131857471</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-149.04737110189782</c:v>
+                  <c:v>-121.06468866570133</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-149.45613770916526</c:v>
+                  <c:v>-121.47345527296876</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-149.85550654542931</c:v>
+                  <c:v>-121.87282410923279</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-150.24590003699555</c:v>
+                  <c:v>-122.26321760079905</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-150.62771275324477</c:v>
+                  <c:v>-122.64503031704827</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-151.00131380341051</c:v>
+                  <c:v>-123.018631367214</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-151.3670489810053</c:v>
+                  <c:v>-123.38436654480878</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-151.72524268712235</c:v>
+                  <c:v>-123.74256025092585</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-152.07619965942254</c:v>
+                  <c:v>-124.09351722322606</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-152.42020652989925</c:v>
+                  <c:v>-124.43752409370276</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-152.75753323137377</c:v>
+                  <c:v>-124.77485079517727</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-153.08843427001338</c:v>
+                  <c:v>-125.10575183381687</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-153.41314987890055</c:v>
+                  <c:v>-125.43046744270404</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-153.73190706575156</c:v>
+                  <c:v>-125.74922462955506</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-154.04492056622982</c:v>
+                  <c:v>-126.06223813003332</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-154.35239371288145</c:v>
+                  <c:v>-126.36971127668495</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-154.65451922849928</c:v>
+                  <c:v>-126.67183679230278</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-154.95147995166758</c:v>
+                  <c:v>-126.96879751547107</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-155.24344950132755</c:v>
+                  <c:v>-127.26076706513105</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-155.53059288641248</c:v>
+                  <c:v>-127.54791045021598</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-155.81306706591195</c:v>
+                  <c:v>-127.83038462971545</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-156.09102146412508</c:v>
+                  <c:v>-128.10833902792857</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-156.36459844533729</c:v>
+                  <c:v>-128.38191600914081</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-156.63393375169602</c:v>
+                  <c:v>-128.65125131549951</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-156.89915690765656</c:v>
+                  <c:v>-128.91647447146005</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-157.16039159401487</c:v>
+                  <c:v>-129.17770915781836</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-157.41775599423124</c:v>
+                  <c:v>-129.43507355803476</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-157.67136311547202</c:v>
+                  <c:v>-129.68868067927554</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-157.92132108655207</c:v>
+                  <c:v>-129.93863865035559</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-158.16773343474483</c:v>
+                  <c:v>-130.18505099854832</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-158.41069934323255</c:v>
+                  <c:v>-130.42801690703604</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-158.65031389080005</c:v>
+                  <c:v>-130.66763145460354</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-158.88666827522084</c:v>
+                  <c:v>-130.90398583902436</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-159.1198500216498</c:v>
+                  <c:v>-131.13716758545331</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-159.34994317721345</c:v>
+                  <c:v>-131.36726074101693</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-159.57702849288108</c:v>
+                  <c:v>-131.59434605668457</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-159.80118359360102</c:v>
+                  <c:v>-131.81850115740451</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-160.02248313759947</c:v>
+                  <c:v>-132.03980070140295</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-160.24099896565954</c:v>
+                  <c:v>-132.25831652946306</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-160.45680024112781</c:v>
+                  <c:v>-132.4741178049313</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-160.66995358133045</c:v>
+                  <c:v>-132.68727114513396</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-160.88052318102478</c:v>
+                  <c:v>-132.89784074482827</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-161.08857092845707</c:v>
+                  <c:v>-133.10588849226059</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-161.29415651455349</c:v>
+                  <c:v>-133.31147407835701</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-161.49733753572451</c:v>
+                  <c:v>-133.514655099528</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-161.69816959072654</c:v>
+                  <c:v>-133.71548715453005</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-161.89670637198856</c:v>
+                  <c:v>-133.91402393579204</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-162.09299975177831</c:v>
+                  <c:v>-134.1103173155818</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-162.2870998635548</c:v>
+                  <c:v>-134.30441742735832</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-162.47905517882555</c:v>
+                  <c:v>-134.49637274262903</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-162.66891257980402</c:v>
+                  <c:v>-134.68623014360753</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-162.85671742813921</c:v>
+                  <c:v>-134.87403499194269</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-163.04251362996976</c:v>
+                  <c:v>-135.05983119377325</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-163.22634369753573</c:v>
+                  <c:v>-135.24366126133921</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-163.40824880756455</c:v>
+                  <c:v>-135.42556637136803</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-163.5882688566316</c:v>
+                  <c:v>-135.60558642043509</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-163.7664425136816</c:v>
+                  <c:v>-135.78376007748511</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-163.94280726988382</c:v>
+                  <c:v>-135.9601248336873</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-164.11739948598179</c:v>
+                  <c:v>-136.13471704978531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6277,8 +6280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D925E85-375D-42F6-B196-03066D5C9F63}">
   <dimension ref="A3:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6296,24 +6299,28 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>306000000</v>
+        <v>386000000</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
+      <c r="C4">
+        <f>10*LOG10(B4*1000)</f>
+        <v>43.010299956639813</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <f>40</f>
@@ -6322,7 +6329,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6330,7 +6337,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6338,11 +6345,11 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <f>300000000/B3</f>
-        <v>0.98039215686274506</v>
+        <v>0.77720207253886009</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -6350,7 +6357,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6360,54 +6367,54 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="B13" s="3">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="C13" s="3">
         <f>B13+A13</f>
-        <v>200</v>
+        <v>30000</v>
       </c>
       <c r="D13" s="4">
         <f>$B$4/G13</f>
-        <v>5161428841.3094292</v>
+        <v>4.1578300802321556E+18</v>
       </c>
       <c r="E13" s="5">
         <f>10*LOG(D13)</f>
-        <v>97.127699442621619</v>
+        <v>186.18866736865237</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4">
-        <f>($B$4*$B$5*$B$6*$B$7*$B$8^2)/((4*PI())^3*B13^2*A13^2)</f>
-        <v>3.8748960055266591E-9</v>
-      </c>
-      <c r="H13" s="3">
-        <f>10*LOG10(G13)</f>
-        <v>-84.117399485981807</v>
+        <f>($B$4*$B$5*$B$6*$B$7*($B$8^2))/(((4*PI())^3)*(B13^2)*(A13^2))</f>
+        <v>4.8102013824680598E-18</v>
+      </c>
+      <c r="H13" s="7">
+        <f>10*LOG10(G13*1000)</f>
+        <v>-143.17836741201256</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -6423,20 +6430,20 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D77" si="1">$B$4/G14</f>
-        <v>82582861460.950867</v>
+        <v>131407963029.55949</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E77" si="2">10*LOG(D14)</f>
-        <v>109.16889926918087</v>
+        <v>111.18621683298436</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="4">
-        <f t="shared" ref="G14:G77" si="3">($B$4*$B$5*$B$6*$B$7*$B$8^2)/((4*PI())^3*B14^2*A14^2)</f>
-        <v>2.4218100034541619E-10</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" ref="H14:H77" si="4">10*LOG10(G14)</f>
-        <v>-96.158599312541057</v>
+        <f t="shared" ref="G14:G77" si="3">($B$4*$B$5*$B$6*$B$7*($B$8^2))/(((4*PI())^3)*(B14^2)*(A14^2))</f>
+        <v>1.5219777811715346E-10</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" ref="H14:H77" si="4">10*LOG10(G14*1000)</f>
+        <v>-68.175916876344544</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -6452,20 +6459,20 @@
       </c>
       <c r="D15" s="4">
         <f t="shared" si="1"/>
-        <v>418075736146.06378</v>
+        <v>665252812837.14502</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="2"/>
-        <v>116.21254963140812</v>
+        <v>118.22986719521161</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="4">
         <f t="shared" si="3"/>
-        <v>4.7838222290452582E-11</v>
-      </c>
-      <c r="H15" s="3">
+        <v>3.0063758640425372E-11</v>
+      </c>
+      <c r="H15" s="7">
         <f t="shared" si="4"/>
-        <v>-103.20224967476831</v>
+        <v>-75.219567238571798</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -6481,20 +6488,20 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" si="1"/>
-        <v>1321325783375.2139</v>
+        <v>2102527408472.9519</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="2"/>
-        <v>121.21009909574012</v>
+        <v>123.22741665954361</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="4">
         <f t="shared" si="3"/>
-        <v>1.5136312521588512E-11</v>
-      </c>
-      <c r="H16" s="3">
+        <v>9.5123611323220912E-12</v>
+      </c>
+      <c r="H16" s="7">
         <f t="shared" si="4"/>
-        <v>-108.19979913910031</v>
+        <v>-80.217116702903795</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -6510,20 +6517,20 @@
       </c>
       <c r="D17" s="4">
         <f t="shared" si="1"/>
-        <v>3225893025818.3931</v>
+        <v>5133123555842.168</v>
       </c>
       <c r="E17" s="5">
         <f>10*LOG(D17)</f>
-        <v>125.08649961606237</v>
+        <v>127.10381717986586</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="4">
         <f t="shared" si="3"/>
-        <v>6.1998336088426548E-12</v>
-      </c>
-      <c r="H17" s="3">
+        <v>3.8962631197991281E-12</v>
+      </c>
+      <c r="H17" s="7">
         <f t="shared" si="4"/>
-        <v>-112.07619965942256</v>
+        <v>-84.093517223226058</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -6539,20 +6546,20 @@
       </c>
       <c r="D18" s="4">
         <f t="shared" si="1"/>
-        <v>6689211778337.0205</v>
+        <v>10644045005394.32</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="2"/>
-        <v>128.25374945796736</v>
+        <v>130.27106702177088</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4">
         <f t="shared" si="3"/>
-        <v>2.9898888931532864E-12</v>
-      </c>
-      <c r="H18" s="3">
+        <v>1.8789849150265858E-12</v>
+      </c>
+      <c r="H18" s="7">
         <f t="shared" si="4"/>
-        <v>-115.24344950132755</v>
+        <v>-87.260767065131049</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -6568,20 +6575,20 @@
       </c>
       <c r="D19" s="4">
         <f t="shared" si="1"/>
-        <v>12392590647983.939</v>
+        <v>19719407452123.27</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="2"/>
-        <v>130.93162104319188</v>
+        <v>132.9489386069954</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="4">
         <f t="shared" si="3"/>
-        <v>1.6138675574871551E-12</v>
-      </c>
-      <c r="H19" s="3">
+        <v>1.0142292585899439E-12</v>
+      </c>
+      <c r="H19" s="7">
         <f t="shared" si="4"/>
-        <v>-117.92132108655208</v>
+        <v>-89.938638650355571</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -6597,20 +6604,20 @@
       </c>
       <c r="D20" s="4">
         <f t="shared" si="1"/>
-        <v>21141212534003.422</v>
+        <v>33640438535567.23</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="2"/>
-        <v>133.25129892229936</v>
+        <v>135.26861648610287</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="4">
         <f t="shared" si="3"/>
-        <v>9.46019532599282E-13</v>
-      </c>
-      <c r="H20" s="3">
+        <v>5.945225707701307E-13</v>
+      </c>
+      <c r="H20" s="7">
         <f t="shared" si="4"/>
-        <v>-120.24099896565956</v>
+        <v>-92.258316529463045</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -6626,20 +6633,20 @@
       </c>
       <c r="D21" s="4">
         <f t="shared" si="1"/>
-        <v>33864134627831.164</v>
+        <v>53885477839808.734</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="2"/>
-        <v>135.29739982019461</v>
+        <v>137.31471738399813</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="4">
         <f t="shared" si="3"/>
-        <v>5.9059533691916771E-13</v>
-      </c>
-      <c r="H21" s="3">
+        <v>3.7115751407932562E-13</v>
+      </c>
+      <c r="H21" s="7">
         <f t="shared" si="4"/>
-        <v>-122.2870998635548</v>
+        <v>-94.304417427358302</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -6655,20 +6662,20 @@
       </c>
       <c r="D22" s="4">
         <f t="shared" si="1"/>
-        <v>51614288413094.289</v>
+        <v>82129976893474.688</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="2"/>
-        <v>137.1276994426216</v>
+        <v>139.14501700642512</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="4">
         <f t="shared" si="3"/>
-        <v>3.8748960055266592E-13</v>
-      </c>
-      <c r="H22" s="3">
+        <v>2.4351644498744551E-13</v>
+      </c>
+      <c r="H22" s="7">
         <f t="shared" si="4"/>
-        <v>-124.11739948598181</v>
+        <v>-96.134717049785294</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -6684,20 +6691,20 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" si="1"/>
-        <v>75568479665611.344</v>
+        <v>120246499169736.28</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="2"/>
-        <v>138.78340684895062</v>
+        <v>140.80072441275411</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="4">
         <f t="shared" si="3"/>
-        <v>2.6466061099150737E-13</v>
-      </c>
-      <c r="H23" s="3">
+        <v>1.6632500852909332E-13</v>
+      </c>
+      <c r="H23" s="7">
         <f t="shared" si="4"/>
-        <v>-125.77310689231081</v>
+        <v>-97.790424456114309</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -6713,20 +6720,20 @@
       </c>
       <c r="D24" s="4">
         <f t="shared" si="1"/>
-        <v>107027388453392.33</v>
+        <v>170304720086309.13</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="2"/>
-        <v>140.29494928452661</v>
+        <v>142.31226684833013</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="4">
         <f t="shared" si="3"/>
-        <v>1.868680558220804E-13</v>
-      </c>
-      <c r="H24" s="3">
+        <v>1.1743655718916161E-13</v>
+      </c>
+      <c r="H24" s="7">
         <f t="shared" si="4"/>
-        <v>-127.2846493278868</v>
+        <v>-99.301966891690299</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -6742,20 +6749,20 @@
       </c>
       <c r="D25" s="4">
         <f t="shared" si="1"/>
-        <v>147415569136638.59</v>
+        <v>234571427005453.03</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="2"/>
-        <v>141.68543353489508</v>
+        <v>143.70275109869857</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="4">
         <f t="shared" si="3"/>
-        <v>1.3567088006465669E-13</v>
-      </c>
-      <c r="H25" s="3">
+        <v>8.5261876330466554E-14</v>
+      </c>
+      <c r="H25" s="7">
         <f t="shared" si="4"/>
-        <v>-128.67513357825527</v>
+        <v>-100.69245114205877</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -6771,20 +6778,20 @@
       </c>
       <c r="D26" s="4">
         <f t="shared" si="1"/>
-        <v>198281450367743.03</v>
+        <v>315510519233972.31</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="2"/>
-        <v>142.97282086975113</v>
+        <v>144.99013843355465</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="4">
         <f t="shared" si="3"/>
-        <v>1.0086672234294719E-13</v>
-      </c>
-      <c r="H26" s="3">
+        <v>6.3389328661871493E-14</v>
+      </c>
+      <c r="H26" s="7">
         <f t="shared" si="4"/>
-        <v>-129.96252091311132</v>
+        <v>-101.97983847691482</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -6800,20 +6807,20 @@
       </c>
       <c r="D27" s="4">
         <f t="shared" si="1"/>
-        <v>261297335091289.91</v>
+        <v>415783008023215.69</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="2"/>
-        <v>144.17134980484886</v>
+        <v>146.18866736865237</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="4">
         <f t="shared" si="3"/>
-        <v>7.654115566472412E-14</v>
-      </c>
-      <c r="H27" s="3">
+        <v>4.8102013824680588E-14</v>
+      </c>
+      <c r="H27" s="7">
         <f t="shared" si="4"/>
-        <v>-131.16104984820905</v>
+        <v>-103.17836741201255</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -6829,20 +6836,20 @@
       </c>
       <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>338259400544054.75</v>
+        <v>538247016569075.69</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="2"/>
-        <v>145.29249874885861</v>
+        <v>147.30981631266212</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="4">
         <f t="shared" si="3"/>
-        <v>5.9126220787455125E-14</v>
-      </c>
-      <c r="H28" s="3">
+        <v>3.7157660673133169E-14</v>
+      </c>
+      <c r="H28" s="7">
         <f t="shared" si="4"/>
-        <v>-132.28219879221879</v>
+        <v>-104.29951635602229</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -6858,20 +6865,20 @@
       </c>
       <c r="D29" s="4">
         <f t="shared" si="1"/>
-        <v>431087698255004.81</v>
+        <v>685957780011989.88</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="2"/>
-        <v>146.34565629775258</v>
+        <v>148.36297386155607</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="4">
         <f t="shared" si="3"/>
-        <v>4.6394272165403425E-14</v>
-      </c>
-      <c r="H29" s="3">
+        <v>2.9156313380759992E-14</v>
+      </c>
+      <c r="H29" s="7">
         <f t="shared" si="4"/>
-        <v>-133.33535634111277</v>
+        <v>-105.35267390491626</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -6887,20 +6894,20 @@
       </c>
       <c r="D30" s="4">
         <f t="shared" si="1"/>
-        <v>541826154045298.63</v>
+        <v>862167645436939.75</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="2"/>
-        <v>147.33859964675386</v>
+        <v>149.35591721055735</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
-        <v>3.6912208557447982E-14</v>
-      </c>
-      <c r="H30" s="3">
+        <v>2.3197344629957851E-14</v>
+      </c>
+      <c r="H30" s="7">
         <f t="shared" si="4"/>
-        <v>-134.32829969011405</v>
+        <v>-106.34561725391754</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -6916,20 +6923,20 @@
       </c>
       <c r="D31" s="4">
         <f t="shared" si="1"/>
-        <v>672642568028286.13</v>
+        <v>1070326071873451.4</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="2"/>
-        <v>148.27784348073476</v>
+        <v>150.29516104453828</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="4">
         <f t="shared" si="3"/>
-        <v>2.9733473542457926E-14</v>
-      </c>
-      <c r="H31" s="3">
+        <v>1.8685894444291061E-14</v>
+      </c>
+      <c r="H31" s="7">
         <f t="shared" si="4"/>
-        <v>-135.26754352409495</v>
+        <v>-107.28486108789846</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -6945,20 +6952,20 @@
       </c>
       <c r="D32" s="4">
         <f t="shared" si="1"/>
-        <v>825828614609508.63</v>
+        <v>1314079630295595</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="2"/>
-        <v>149.16889926918086</v>
+        <v>151.18621683298437</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="4">
         <f t="shared" si="3"/>
-        <v>2.421810003454162E-14</v>
-      </c>
-      <c r="H32" s="3">
+        <v>1.5219777811715344E-14</v>
+      </c>
+      <c r="H32" s="7">
         <f t="shared" si="4"/>
-        <v>-136.15859931254104</v>
+        <v>-108.17591687634454</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -6974,20 +6981,20 @@
       </c>
       <c r="D33" s="4">
         <f t="shared" si="1"/>
-        <v>1003799842486699.1</v>
+        <v>1597272003621985</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="2"/>
-        <v>150.01647123197839</v>
+        <v>152.0337887957819</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="4">
         <f t="shared" si="3"/>
-        <v>1.9924290833174753E-14</v>
-      </c>
-      <c r="H33" s="3">
+        <v>1.2521348871480788E-14</v>
+      </c>
+      <c r="H33" s="7">
         <f t="shared" si="4"/>
-        <v>-137.00617127533857</v>
+        <v>-109.02348883914208</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -7003,20 +7010,20 @@
       </c>
       <c r="D34" s="4">
         <f t="shared" si="1"/>
-        <v>1209095674649781.5</v>
+        <v>1923943986715780.5</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="2"/>
-        <v>150.82460667550987</v>
+        <v>152.84192423931336</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="4">
         <f t="shared" si="3"/>
-        <v>1.654128818696921E-14</v>
-      </c>
-      <c r="H34" s="3">
+        <v>1.0395313033068333E-14</v>
+      </c>
+      <c r="H34" s="7">
         <f t="shared" si="4"/>
-        <v>-137.81430671887006</v>
+        <v>-109.83162428267354</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -7032,20 +7039,20 @@
       </c>
       <c r="D35" s="4">
         <f t="shared" si="1"/>
-        <v>1444379408380871.8</v>
+        <v>2298333486384685</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="2"/>
-        <v>151.59681288332533</v>
+        <v>153.61413044712884</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="4">
         <f t="shared" si="3"/>
-        <v>1.3846777296845921E-14</v>
-      </c>
-      <c r="H35" s="3">
+        <v>8.7019573610530816E-15</v>
+      </c>
+      <c r="H35" s="7">
         <f t="shared" si="4"/>
-        <v>-138.58651292668551</v>
+        <v>-110.60383049048902</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -7061,20 +7068,20 @@
       </c>
       <c r="D36" s="4">
         <f t="shared" si="1"/>
-        <v>1712438215254277.3</v>
+        <v>2724875521380946</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="2"/>
-        <v>152.33614911108586</v>
+        <v>154.35346667488938</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="4">
         <f t="shared" si="3"/>
-        <v>1.1679253488880025E-14</v>
-      </c>
-      <c r="H36" s="3">
+        <v>7.3397848243226006E-15</v>
+      </c>
+      <c r="H36" s="7">
         <f t="shared" si="4"/>
-        <v>-139.32584915444605</v>
+        <v>-111.34316671824955</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -7090,20 +7097,20 @@
       </c>
       <c r="D37" s="4">
         <f t="shared" si="1"/>
-        <v>2016183141136495.8</v>
+        <v>3208202222401355</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="2"/>
-        <v>153.0452997895031</v>
+        <v>155.06261735330662</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
-        <v>9.919733774148248E-15</v>
-      </c>
-      <c r="H37" s="3">
+        <v>6.2340209916786054E-15</v>
+      </c>
+      <c r="H37" s="7">
         <f t="shared" si="4"/>
-        <v>-140.03499983286329</v>
+        <v>-112.05231739666681</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -7119,20 +7126,20 @@
       </c>
       <c r="D38" s="4">
         <f t="shared" si="1"/>
-        <v>2358649106186217.5</v>
+        <v>3753142832087248.5</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="2"/>
-        <v>153.72663336145433</v>
+        <v>155.74395092525782</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
-        <v>8.4794300040410431E-15</v>
-      </c>
-      <c r="H38" s="3">
+        <v>5.3288672706541596E-15</v>
+      </c>
+      <c r="H38" s="7">
         <f t="shared" si="4"/>
-        <v>-140.71633340481452</v>
+        <v>-112.73365096861802</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -7148,20 +7155,20 @@
       </c>
       <c r="D39" s="4">
         <f t="shared" si="1"/>
-        <v>2742994904854324.5</v>
+        <v>4364723705024508.5</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="2"/>
-        <v>154.38225000898112</v>
+        <v>156.3995675727846</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
-        <v>7.2913004557921929E-15</v>
-      </c>
-      <c r="H39" s="3">
+        <v>4.5821915318435255E-15</v>
+      </c>
+      <c r="H39" s="7">
         <f t="shared" si="4"/>
-        <v>-141.3719500523413</v>
+        <v>-113.38926761614479</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -7177,20 +7184,20 @@
       </c>
       <c r="D40" s="4">
         <f t="shared" si="1"/>
-        <v>3172503205883888.5</v>
+        <v>5048168307743557</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="2"/>
-        <v>155.01402069631038</v>
+        <v>157.0313382601139</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
-        <v>6.3041701464341996E-15</v>
-      </c>
-      <c r="H40" s="3">
+        <v>3.9618330413669683E-15</v>
+      </c>
+      <c r="H40" s="7">
         <f t="shared" si="4"/>
-        <v>-142.00372073967057</v>
+        <v>-114.02103830347407</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -7206,20 +7213,20 @@
       </c>
       <c r="D41" s="4">
         <f t="shared" si="1"/>
-        <v>3650580552310174.5</v>
+        <v>5808897218719367</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="2"/>
-        <v>155.62361935857984</v>
+        <v>157.64093692238336</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="4">
         <f t="shared" si="3"/>
-        <v>5.4785806568063596E-15</v>
-      </c>
-      <c r="H41" s="3">
+        <v>3.4429942977041024E-15</v>
+      </c>
+      <c r="H41" s="7">
         <f t="shared" si="4"/>
-        <v>-142.61331940194003</v>
+        <v>-114.63063696574353</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -7235,20 +7242,20 @@
       </c>
       <c r="D42" s="4">
         <f t="shared" si="1"/>
-        <v>4180757361460638.5</v>
+        <v>6652528128371451</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="2"/>
-        <v>156.21254963140811</v>
+        <v>158.22986719521163</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="4">
         <f t="shared" si="3"/>
-        <v>4.7838222290452575E-15</v>
-      </c>
-      <c r="H42" s="3">
+        <v>3.0063758640425367E-15</v>
+      </c>
+      <c r="H42" s="7">
         <f t="shared" si="4"/>
-        <v>-143.2022496747683</v>
+        <v>-115.2195672385718</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -7264,20 +7271,20 @@
       </c>
       <c r="D43" s="4">
         <f t="shared" si="1"/>
-        <v>4766687924954925</v>
+        <v>7584875839063864</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="2"/>
-        <v>156.78216719599251</v>
+        <v>158.799484759796</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="4">
         <f t="shared" si="3"/>
-        <v>4.1957854835208506E-15</v>
-      </c>
-      <c r="H43" s="3">
+        <v>2.6368262875175066E-15</v>
+      </c>
+      <c r="H43" s="7">
         <f t="shared" si="4"/>
-        <v>-143.7718672393527</v>
+        <v>-115.7891848031562</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -7293,20 +7300,20 @@
       </c>
       <c r="D44" s="4">
         <f t="shared" si="1"/>
-        <v>5412150408704876</v>
+        <v>8611952265105211</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="2"/>
-        <v>157.33369857541786</v>
+        <v>159.35101613922137</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="4">
         <f t="shared" si="3"/>
-        <v>3.6953887992159453E-15</v>
-      </c>
-      <c r="H44" s="3">
+        <v>2.3223537920708231E-15</v>
+      </c>
+      <c r="H44" s="7">
         <f t="shared" si="4"/>
-        <v>-144.32339861877804</v>
+        <v>-116.34071618258155</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -7322,20 +7329,20 @@
       </c>
       <c r="D45" s="4">
         <f t="shared" si="1"/>
-        <v>6121046852914520</v>
+        <v>9739966432748640</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="2"/>
-        <v>157.86825703773712</v>
+        <v>159.88557460154061</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
-        <v>3.2674149505124364E-15</v>
-      </c>
-      <c r="H45" s="3">
+        <v>2.0533951670258432E-15</v>
+      </c>
+      <c r="H45" s="7">
         <f t="shared" si="4"/>
-        <v>-144.85795708109731</v>
+        <v>-116.8752746449008</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -7351,20 +7358,20 @@
       </c>
       <c r="D46" s="4">
         <f t="shared" si="1"/>
-        <v>6897403172080077</v>
+        <v>1.0975324480191838E+16</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="2"/>
-        <v>158.38685612431181</v>
+        <v>160.40417368811532</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="4">
         <f t="shared" si="3"/>
-        <v>2.8996420103377141E-15</v>
-      </c>
-      <c r="H46" s="3">
+        <v>1.8222695862974995E-15</v>
+      </c>
+      <c r="H46" s="7">
         <f t="shared" si="4"/>
-        <v>-145.37655616767199</v>
+        <v>-117.39387373147551</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -7380,20 +7387,20 @@
       </c>
       <c r="D47" s="4">
         <f t="shared" si="1"/>
-        <v>7745369154989961</v>
+        <v>1.2324629657577044E+16</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="2"/>
-        <v>158.89042121663263</v>
+        <v>160.90773878043615</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="4">
         <f t="shared" si="3"/>
-        <v>2.5821880919794482E-15</v>
-      </c>
-      <c r="H47" s="3">
+        <v>1.6227668137439103E-15</v>
+      </c>
+      <c r="H47" s="7">
         <f t="shared" si="4"/>
-        <v>-145.88012125999282</v>
+        <v>-117.89743882379632</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -7409,20 +7416,20 @@
       </c>
       <c r="D48" s="4">
         <f t="shared" si="1"/>
-        <v>8669218464724778</v>
+        <v>1.3794682326991036E+16</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="2"/>
-        <v>159.37979947331311</v>
+        <v>161.39711703711663</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="4">
         <f t="shared" si="3"/>
-        <v>2.3070130348404989E-15</v>
-      </c>
-      <c r="H48" s="3">
+        <v>1.4498340393723657E-15</v>
+      </c>
+      <c r="H48" s="7">
         <f t="shared" si="4"/>
-        <v>-146.3694995166733</v>
+        <v>-118.38681708047679</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -7438,20 +7445,20 @@
       </c>
       <c r="D49" s="4">
         <f t="shared" si="1"/>
-        <v>9673348638657320</v>
+        <v>1.539247996246514E+16</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="2"/>
-        <v>159.8557684053014</v>
+        <v>161.87308596910492</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="4">
         <f t="shared" si="3"/>
-        <v>2.0675363565492289E-15</v>
-      </c>
-      <c r="H49" s="3">
+        <v>1.2993357827179497E-15</v>
+      </c>
+      <c r="H49" s="7">
         <f t="shared" si="4"/>
-        <v>-146.84546844866159</v>
+        <v>-118.86278601246509</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -7467,20 +7474,20 @@
       </c>
       <c r="D50" s="4">
         <f t="shared" si="1"/>
-        <v>1.0762281088452578E+16</v>
+        <v>1.7125217149975222E+16</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="2"/>
-        <v>160.31904330729404</v>
+        <v>162.3363608710975</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="4">
         <f t="shared" si="3"/>
-        <v>1.8583420964036204E-15</v>
-      </c>
-      <c r="H50" s="3">
+        <v>1.1678684027681913E-15</v>
+      </c>
+      <c r="H50" s="7">
         <f t="shared" si="4"/>
-        <v>-147.3087433506542</v>
+        <v>-119.3260609144577</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -7496,20 +7503,20 @@
       </c>
       <c r="D51" s="4">
         <f t="shared" si="1"/>
-        <v>1.1940661100067728E+16</v>
+        <v>1.9000285587441696E+16</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="2"/>
-        <v>160.77028372368159</v>
+        <v>162.78760128748507</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="4">
         <f t="shared" si="3"/>
-        <v>1.6749491366006996E-15</v>
-      </c>
-      <c r="H51" s="3">
+        <v>1.0526157571662538E-15</v>
+      </c>
+      <c r="H51" s="7">
         <f t="shared" si="4"/>
-        <v>-147.75998376704177</v>
+        <v>-119.77730133084528</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -7525,20 +7532,20 @@
       </c>
       <c r="D52" s="4">
         <f t="shared" si="1"/>
-        <v>1.3213257833752138E+16</v>
+        <v>2.102527408472952E+16</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="2"/>
-        <v>161.21009909574011</v>
+        <v>163.22741665954362</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="4">
         <f t="shared" si="3"/>
-        <v>1.5136312521588513E-15</v>
-      </c>
-      <c r="H52" s="3">
+        <v>9.5123611323220902E-16</v>
+      </c>
+      <c r="H52" s="7">
         <f t="shared" si="4"/>
-        <v>-148.19979913910029</v>
+        <v>-120.21711670290379</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -7554,20 +7561,20 @@
       </c>
       <c r="D53" s="4">
         <f t="shared" si="1"/>
-        <v>1.4584964324047374E+16</v>
+        <v>2.3207968563648192E+16</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="2"/>
-        <v>161.63905371141107</v>
+        <v>163.65637127521452</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="4">
         <f t="shared" si="3"/>
-        <v>1.3712752088823716E-15</v>
-      </c>
-      <c r="H53" s="3">
+        <v>8.6177297013953239E-16</v>
+      </c>
+      <c r="H53" s="7">
         <f t="shared" si="4"/>
-        <v>-148.62875375477122</v>
+        <v>-120.64607131857471</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -7583,20 +7590,20 @@
       </c>
       <c r="D54" s="4">
         <f t="shared" si="1"/>
-        <v>1.6060797479787186E+16</v>
+        <v>2.555635205795176E+16</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="2"/>
-        <v>162.05767105853764</v>
+        <v>164.07498862234115</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="4">
         <f t="shared" si="3"/>
-        <v>1.245268177073422E-15</v>
-      </c>
-      <c r="H54" s="3">
+        <v>7.8258430446754926E-16</v>
+      </c>
+      <c r="H54" s="7">
         <f t="shared" si="4"/>
-        <v>-149.04737110189782</v>
+        <v>-121.06468866570133</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -7612,20 +7619,20 @@
       </c>
       <c r="D55" s="4">
         <f t="shared" si="1"/>
-        <v>1.7645898084097516E+16</v>
+        <v>2.8078604713338812E+16</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" si="2"/>
-        <v>162.46643766580507</v>
+        <v>164.48375522960859</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="4">
         <f t="shared" si="3"/>
-        <v>1.1334078835026254E-15</v>
-      </c>
-      <c r="H55" s="3">
+        <v>7.1228610553069789E-16</v>
+      </c>
+      <c r="H55" s="7">
         <f t="shared" si="4"/>
-        <v>-149.45613770916526</v>
+        <v>-121.47345527296876</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -7641,20 +7648,20 @@
       </c>
       <c r="D56" s="4">
         <f t="shared" si="1"/>
-        <v>1.9345530794396504E+16</v>
+        <v>3.0783103787452488E+16</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" si="2"/>
-        <v>162.86580650206912</v>
+        <v>164.88312406587261</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="4">
         <f t="shared" si="3"/>
-        <v>1.0338305116855756E-15</v>
-      </c>
-      <c r="H56" s="3">
+        <v>6.497070645667708E-16</v>
+      </c>
+      <c r="H56" s="7">
         <f t="shared" si="4"/>
-        <v>-149.85550654542931</v>
+        <v>-121.87282410923279</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -7670,20 +7677,20 @@
       </c>
       <c r="D57" s="4">
         <f t="shared" si="1"/>
-        <v>2.116508414239448E+16</v>
+        <v>3.3678423649880468E+16</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" si="2"/>
-        <v>163.25619999363536</v>
+        <v>165.27351755743888</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="4">
         <f t="shared" si="3"/>
-        <v>9.4495253907066825E-16</v>
-      </c>
-      <c r="H57" s="3">
+        <v>5.9385202252692087E-16</v>
+      </c>
+      <c r="H57" s="7">
         <f t="shared" si="4"/>
-        <v>-150.24590003699555</v>
+        <v>-122.26321760079905</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -7699,20 +7706,20 @@
       </c>
       <c r="D58" s="4">
         <f t="shared" si="1"/>
-        <v>2.3110070534093948E+16</v>
+        <v>3.677333578215496E+16</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="2"/>
-        <v>163.63801270988458</v>
+        <v>165.65533027368809</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="4">
         <f t="shared" si="3"/>
-        <v>8.6542358105287008E-16</v>
-      </c>
-      <c r="H58" s="3">
+        <v>5.438723350658176E-16</v>
+      </c>
+      <c r="H58" s="7">
         <f t="shared" si="4"/>
-        <v>-150.62771275324477</v>
+        <v>-122.64503031704827</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -7728,20 +7735,20 @@
       </c>
       <c r="D59" s="4">
         <f t="shared" si="1"/>
-        <v>2.5186126249789636E+16</v>
+        <v>4.0076808777752744E+16</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="2"/>
-        <v>164.01161376005032</v>
+        <v>166.02893132385384</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="4">
         <f t="shared" si="3"/>
-        <v>7.9408797532598121E-16</v>
-      </c>
-      <c r="H59" s="3">
+        <v>4.9904173036607416E-16</v>
+      </c>
+      <c r="H59" s="7">
         <f t="shared" si="4"/>
-        <v>-151.00131380341051</v>
+        <v>-123.018631367214</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -7757,20 +7764,20 @@
       </c>
       <c r="D60" s="4">
         <f t="shared" si="1"/>
-        <v>2.7399011444068436E+16</v>
+        <v>4.3598008342095136E+16</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" si="2"/>
-        <v>164.37734893764511</v>
+        <v>166.39466650144863</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="4">
         <f t="shared" si="3"/>
-        <v>7.2995334305500156E-16</v>
-      </c>
-      <c r="H60" s="3">
+        <v>4.5873655152016254E-16</v>
+      </c>
+      <c r="H60" s="7">
         <f t="shared" si="4"/>
-        <v>-151.3670489810053</v>
+        <v>-123.38436654480878</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -7786,20 +7793,20 @@
       </c>
       <c r="D61" s="4">
         <f t="shared" si="1"/>
-        <v>2.975461014580944E+16</v>
+        <v>4.7346297292547976E+16</v>
       </c>
       <c r="E61" s="5">
         <f t="shared" si="2"/>
-        <v>164.73554264376216</v>
+        <v>166.75286020756567</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="4">
         <f t="shared" si="3"/>
-        <v>6.7216474697507499E-16</v>
-      </c>
-      <c r="H61" s="3">
+        <v>4.2241951628069301E-16</v>
+      </c>
+      <c r="H61" s="7">
         <f t="shared" si="4"/>
-        <v>-151.72524268712235</v>
+        <v>-123.74256025092585</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -7815,20 +7822,20 @@
       </c>
       <c r="D62" s="4">
         <f t="shared" si="1"/>
-        <v>3.2258930258183932E+16</v>
+        <v>5.133123555842168E+16</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" si="2"/>
-        <v>165.08649961606238</v>
+        <v>167.10381717986587</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="4">
         <f t="shared" si="3"/>
-        <v>6.199833608842655E-16</v>
-      </c>
-      <c r="H62" s="3">
+        <v>3.8962631197991284E-16</v>
+      </c>
+      <c r="H62" s="7">
         <f t="shared" si="4"/>
-        <v>-152.07619965942254</v>
+        <v>-124.09351722322606</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -7844,20 +7851,20 @@
       </c>
       <c r="D63" s="4">
         <f t="shared" si="1"/>
-        <v>3.4918103558655392E+16</v>
+        <v>5.5562580180971184E+16</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" si="2"/>
-        <v>165.43050648653906</v>
+        <v>167.44782405034258</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="4">
         <f t="shared" si="3"/>
-        <v>5.7276879216547432E-16</v>
-      </c>
-      <c r="H63" s="3">
+        <v>3.599544861822221E-16</v>
+      </c>
+      <c r="H63" s="7">
         <f t="shared" si="4"/>
-        <v>-152.42020652989925</v>
+        <v>-124.43752409370276</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -7873,20 +7880,20 @@
       </c>
       <c r="D64" s="4">
         <f t="shared" si="1"/>
-        <v>3.773838569897948E+16</v>
+        <v>6.0050285313395976E+16</v>
       </c>
       <c r="E64" s="5">
         <f t="shared" si="2"/>
-        <v>165.76783318801358</v>
+        <v>167.78515075181707</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="4">
         <f t="shared" si="3"/>
-        <v>5.299643752525652E-16</v>
-      </c>
-      <c r="H64" s="3">
+        <v>3.3305420441588498E-16</v>
+      </c>
+      <c r="H64" s="7">
         <f t="shared" si="4"/>
-        <v>-152.75753323137377</v>
+        <v>-124.77485079517727</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -7902,20 +7909,20 @@
       </c>
       <c r="D65" s="4">
         <f t="shared" si="1"/>
-        <v>4.0726156205204064E+16</v>
+        <v>6.4804502220840096E+16</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" si="2"/>
-        <v>166.09873422665316</v>
+        <v>168.11605179045668</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="4">
         <f t="shared" si="3"/>
-        <v>4.9108489146943763E-16</v>
-      </c>
-      <c r="H65" s="3">
+        <v>3.0862053275008905E-16</v>
+      </c>
+      <c r="H65" s="7">
         <f t="shared" si="4"/>
-        <v>-153.08843427001338</v>
+        <v>-125.10575183381687</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -7931,20 +7938,20 @@
       </c>
       <c r="D66" s="4">
         <f t="shared" si="1"/>
-        <v>4.3887918477669192E+16</v>
+        <v>6.9835579280392136E+16</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" si="2"/>
-        <v>166.42344983554037</v>
+        <v>168.44076739934388</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="4">
         <f t="shared" si="3"/>
-        <v>4.5570627848701206E-16</v>
-      </c>
-      <c r="H66" s="3">
+        <v>2.8638697074022034E-16</v>
+      </c>
+      <c r="H66" s="7">
         <f t="shared" si="4"/>
-        <v>-153.41314987890055</v>
+        <v>-125.43046744270404</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -7960,20 +7967,20 @@
       </c>
       <c r="D67" s="4">
         <f t="shared" si="1"/>
-        <v>4.7230299791007096E+16</v>
+        <v>7.5154061981085184E+16</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" si="2"/>
-        <v>166.74220702239137</v>
+        <v>168.75952458619486</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="4">
         <f t="shared" si="3"/>
-        <v>4.2345697758641176E-16</v>
-      </c>
-      <c r="H67" s="3">
+        <v>2.6612001364654929E-16</v>
+      </c>
+      <c r="H67" s="7">
         <f t="shared" si="4"/>
-        <v>-153.73190706575156</v>
+        <v>-125.74922462955506</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -7989,20 +7996,20 @@
       </c>
       <c r="D68" s="4">
         <f t="shared" si="1"/>
-        <v>5.0760051294142216E+16</v>
+        <v>8.0770692923896912E+16</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" si="2"/>
-        <v>167.05522052286963</v>
+        <v>169.07253808667315</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="4">
         <f t="shared" si="3"/>
-        <v>3.9401063415213748E-16</v>
-      </c>
-      <c r="H68" s="3">
+        <v>2.4761456508543552E-16</v>
+      </c>
+      <c r="H68" s="7">
         <f t="shared" si="4"/>
-        <v>-154.04492056622982</v>
+        <v>-126.06223813003332</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -8018,20 +8025,20 @@
       </c>
       <c r="D69" s="4">
         <f t="shared" si="1"/>
-        <v>5.4484048010291184E+16</v>
+        <v>8.6696411821749568E+16</v>
       </c>
       <c r="E69" s="5">
         <f t="shared" si="2"/>
-        <v>167.36269366952126</v>
+        <v>169.38001123332475</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="4">
         <f t="shared" si="3"/>
-        <v>3.6707992027725829E-16</v>
-      </c>
-      <c r="H69" s="3">
+        <v>2.3069005486779085E-16</v>
+      </c>
+      <c r="H69" s="7">
         <f t="shared" si="4"/>
-        <v>-154.35239371288145</v>
+        <v>-126.36971127668495</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -8047,20 +8054,20 @@
       </c>
       <c r="D70" s="4">
         <f t="shared" si="1"/>
-        <v>5.8409288836962792E+16</v>
+        <v>9.2942355499509872E+16</v>
       </c>
       <c r="E70" s="5">
         <f t="shared" si="2"/>
-        <v>167.66481918513909</v>
+        <v>169.68213674894261</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="4">
         <f t="shared" si="3"/>
-        <v>3.4241129105039747E-16</v>
-      </c>
-      <c r="H70" s="3">
+        <v>2.151871436065064E-16</v>
+      </c>
+      <c r="H70" s="7">
         <f t="shared" si="4"/>
-        <v>-154.65451922849928</v>
+        <v>-126.67183679230278</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -8076,20 +8083,20 @@
       </c>
       <c r="D71" s="4">
         <f t="shared" si="1"/>
-        <v>6.2542896545958072E+16</v>
+        <v>9.9519857893989136E+16</v>
       </c>
       <c r="E71" s="5">
         <f t="shared" si="2"/>
-        <v>167.96177990830739</v>
+        <v>169.97909747211088</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="4">
         <f t="shared" si="3"/>
-        <v>3.1978052032341522E-16</v>
-      </c>
-      <c r="H71" s="3">
+        <v>2.009649171857185E-16</v>
+      </c>
+      <c r="H71" s="7">
         <f t="shared" si="4"/>
-        <v>-154.95147995166758</v>
+        <v>-126.96879751547107</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -8105,20 +8112,20 @@
       </c>
       <c r="D72" s="4">
         <f t="shared" si="1"/>
-        <v>6.6892117783370216E+16</v>
+        <v>1.0644045005394322E+17</v>
       </c>
       <c r="E72" s="5">
         <f t="shared" si="2"/>
-        <v>168.25374945796736</v>
+        <v>170.27106702177088</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="4">
         <f t="shared" si="3"/>
-        <v>2.9898888931532859E-16</v>
-      </c>
-      <c r="H72" s="3">
+        <v>1.8789849150265855E-16</v>
+      </c>
+      <c r="H72" s="7">
         <f t="shared" si="4"/>
-        <v>-155.24344950132755</v>
+        <v>-127.26076706513105</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -8134,20 +8141,20 @@
       </c>
       <c r="D73" s="4">
         <f t="shared" si="1"/>
-        <v>7.1464323069584584E+16</v>
+        <v>1.1371586014007243E+17</v>
       </c>
       <c r="E73" s="5">
         <f t="shared" si="2"/>
-        <v>168.54089284305229</v>
+        <v>170.55821040685578</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="4">
         <f t="shared" si="3"/>
-        <v>2.798599236786454E-16</v>
-      </c>
-      <c r="H73" s="3">
+        <v>1.758769618887329E-16</v>
+      </c>
+      <c r="H73" s="7">
         <f t="shared" si="4"/>
-        <v>-155.53059288641248</v>
+        <v>-127.54791045021598</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -8163,20 +8170,20 @@
       </c>
       <c r="D74" s="4">
         <f t="shared" si="1"/>
-        <v>7.62670067992788E+16</v>
+        <v>1.2135801342502182E+17</v>
       </c>
       <c r="E74" s="5">
         <f t="shared" si="2"/>
-        <v>168.82336702255176</v>
+        <v>170.84068458635528</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="4">
         <f t="shared" si="3"/>
-        <v>2.6223659272005316E-16</v>
-      </c>
-      <c r="H74" s="3">
+        <v>1.6480164296984416E-16</v>
+      </c>
+      <c r="H74" s="7">
         <f t="shared" si="4"/>
-        <v>-155.81306706591195</v>
+        <v>-127.83038462971545</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -8192,20 +8199,20 @@
       </c>
       <c r="D75" s="4">
         <f t="shared" si="1"/>
-        <v>8.1307787241422624E+16</v>
+        <v>1.2937903229338078E+17</v>
       </c>
       <c r="E75" s="5">
         <f t="shared" si="2"/>
-        <v>169.10132142076489</v>
+        <v>171.11863898456841</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="4">
         <f t="shared" si="3"/>
-        <v>2.4597889917499695E-16</v>
-      </c>
-      <c r="H75" s="3">
+        <v>1.5458455396889863E-16</v>
+      </c>
+      <c r="H75" s="7">
         <f t="shared" si="4"/>
-        <v>-156.09102146412508</v>
+        <v>-128.10833902792857</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -8221,20 +8228,20 @@
       </c>
       <c r="D76" s="4">
         <f t="shared" si="1"/>
-        <v>8.6594406539278016E+16</v>
+        <v>1.3779123624168338E+17</v>
       </c>
       <c r="E76" s="5">
         <f t="shared" si="2"/>
-        <v>169.37489840197711</v>
+        <v>171.39221596578062</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="4">
         <f t="shared" si="3"/>
-        <v>2.3096179995099658E-16</v>
-      </c>
-      <c r="H76" s="3">
+        <v>1.4514711200442644E-16</v>
+      </c>
+      <c r="H76" s="7">
         <f t="shared" si="4"/>
-        <v>-156.36459844533729</v>
+        <v>-128.38191600914081</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -8250,20 +8257,20 @@
       </c>
       <c r="D77" s="4">
         <f t="shared" si="1"/>
-        <v>9.213473071039912E+16</v>
+        <v>1.4660714187840816E+17</v>
       </c>
       <c r="E77" s="5">
         <f t="shared" si="2"/>
-        <v>169.64423370833583</v>
+        <v>171.66155127213932</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="4">
         <f t="shared" si="3"/>
-        <v>2.1707340810345068E-16</v>
-      </c>
-      <c r="H77" s="3">
+        <v>1.3641900212874649E-16</v>
+      </c>
+      <c r="H77" s="7">
         <f t="shared" si="4"/>
-        <v>-156.63393375169602</v>
+        <v>-128.65125131549951</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -8279,20 +8286,20 @@
       </c>
       <c r="D78" s="4">
         <f t="shared" ref="D78:D112" si="6">$B$4/G78</f>
-        <v>9.793674964663232E+16</v>
+        <v>1.5583946292397824E+17</v>
       </c>
       <c r="E78" s="5">
         <f t="shared" ref="E78:E112" si="7">10*LOG(D78)</f>
-        <v>169.90945686429637</v>
+        <v>171.92677442809986</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="4">
-        <f t="shared" ref="G78:G112" si="8">($B$4*$B$5*$B$6*$B$7*$B$8^2)/((4*PI())^3*B78^2*A78^2)</f>
-        <v>2.0421343440702728E-16</v>
-      </c>
-      <c r="H78" s="3">
-        <f t="shared" ref="H78:H112" si="9">10*LOG10(G78)</f>
-        <v>-156.89915690765656</v>
+        <f t="shared" ref="G78:G112" si="8">($B$4*$B$5*$B$6*$B$7*($B$8^2))/(((4*PI())^3)*(B78^2)*(A78^2))</f>
+        <v>1.283371979391152E-16</v>
+      </c>
+      <c r="H78" s="7">
+        <f t="shared" ref="H78:H112" si="9">10*LOG10(G78*1000)</f>
+        <v>-128.91647447146005</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -8308,20 +8315,20 @@
       </c>
       <c r="D79" s="4">
         <f t="shared" si="6"/>
-        <v>1.040085771141161E+17</v>
+        <v>1.6550111021076125E+17</v>
       </c>
       <c r="E79" s="5">
         <f t="shared" si="7"/>
-        <v>170.17069155065468</v>
+        <v>172.18800911445817</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="4">
         <f t="shared" si="8"/>
-        <v>1.9229183356730672E-16</v>
-      </c>
-      <c r="H79" s="3">
+        <v>1.2084511079430545E-16</v>
+      </c>
+      <c r="H79" s="7">
         <f t="shared" si="9"/>
-        <v>-157.16039159401487</v>
+        <v>-129.17770915781836</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -8337,20 +8344,20 @@
       </c>
       <c r="D80" s="4">
         <f t="shared" si="6"/>
-        <v>1.1035845075328123E+17</v>
+        <v>1.7560519168306941E+17</v>
       </c>
       <c r="E80" s="5">
         <f t="shared" si="7"/>
-        <v>170.42805595087106</v>
+        <v>172.44537351467457</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="4">
         <f t="shared" si="8"/>
-        <v>1.8122762564610713E-16</v>
-      </c>
-      <c r="H80" s="3">
+        <v>1.1389184914359372E-16</v>
+      </c>
+      <c r="H80" s="7">
         <f t="shared" si="9"/>
-        <v>-157.41775599423124</v>
+        <v>-129.43507355803476</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -8366,20 +8373,20 @@
       </c>
       <c r="D81" s="4">
         <f t="shared" si="6"/>
-        <v>1.1699473207885062E+17</v>
+        <v>1.8616501239715949E+17</v>
       </c>
       <c r="E81" s="5">
         <f t="shared" si="7"/>
-        <v>170.68166307211183</v>
+        <v>172.69898063591535</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="4">
         <f t="shared" si="8"/>
-        <v>1.7094786786229533E-16</v>
-      </c>
-      <c r="H81" s="3">
+        <v>1.0743157235868001E-16</v>
+      </c>
+      <c r="H81" s="7">
         <f t="shared" si="9"/>
-        <v>-157.67136311547202</v>
+        <v>-129.68868067927554</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -8395,20 +8402,20 @@
       </c>
       <c r="D82" s="4">
         <f t="shared" si="6"/>
-        <v>1.2392590647983938E+17</v>
+        <v>1.971940745212327E+17</v>
       </c>
       <c r="E82" s="5">
         <f t="shared" si="7"/>
-        <v>170.93162104319188</v>
+        <v>172.9489386069954</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="4">
         <f t="shared" si="8"/>
-        <v>1.6138675574871552E-16</v>
-      </c>
-      <c r="H82" s="3">
+        <v>1.0142292585899439E-16</v>
+      </c>
+      <c r="H82" s="7">
         <f t="shared" si="9"/>
-        <v>-157.92132108655207</v>
+        <v>-129.93863865035559</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -8424,20 +8431,20 @@
       </c>
       <c r="D83" s="4">
         <f t="shared" si="6"/>
-        <v>1.3116058321955485E+17</v>
+        <v>2.0870607733543498E+17</v>
       </c>
       <c r="E83" s="5">
         <f t="shared" si="7"/>
-        <v>171.17803339138462</v>
+        <v>173.19535095518813</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="4">
         <f t="shared" si="8"/>
-        <v>1.5248483583304304E-16</v>
-      </c>
-      <c r="H83" s="3">
+        <v>9.5828546323812864E-17</v>
+      </c>
+      <c r="H83" s="7">
         <f t="shared" si="9"/>
-        <v>-158.16773343474483</v>
+        <v>-130.18505099854832</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -8453,20 +8460,20 @@
       </c>
       <c r="D84" s="4">
         <f t="shared" si="6"/>
-        <v>1.3870749543559645E+17</v>
+        <v>2.2071491723185658E+17</v>
       </c>
       <c r="E84" s="5">
         <f t="shared" si="7"/>
-        <v>171.42099929987236</v>
+        <v>173.43831686367588</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="4">
         <f t="shared" si="8"/>
-        <v>1.4418831467753118E-16</v>
-      </c>
-      <c r="H84" s="3">
+        <v>9.0614627460772856E-17</v>
+      </c>
+      <c r="H84" s="7">
         <f t="shared" si="9"/>
-        <v>-158.41069934323255</v>
+        <v>-130.42801690703604</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -8482,20 +8489,20 @@
       </c>
       <c r="D85" s="4">
         <f t="shared" si="6"/>
-        <v>1.465755001398559E+17</v>
+        <v>2.3323468771453254E+17</v>
       </c>
       <c r="E85" s="5">
         <f t="shared" si="7"/>
-        <v>171.66061384743983</v>
+        <v>173.67793141124335</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="4">
         <f t="shared" si="8"/>
-        <v>1.3644845135044313E-16</v>
-      </c>
-      <c r="H85" s="3">
+        <v>8.5750538206731021E-17</v>
+      </c>
+      <c r="H85" s="7">
         <f t="shared" si="9"/>
-        <v>-158.65031389080005</v>
+        <v>-130.66763145460354</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -8511,20 +8518,20 @@
       </c>
       <c r="D86" s="4">
         <f t="shared" si="6"/>
-        <v>1.5477357821851712E+17</v>
+        <v>2.4627967939944224E+17</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="7"/>
-        <v>171.89696823186065</v>
+        <v>173.91428579566417</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="4">
         <f t="shared" si="8"/>
-        <v>1.292210222843268E-16</v>
-      </c>
-      <c r="H86" s="3">
+        <v>8.1208486419871859E-17</v>
+      </c>
+      <c r="H86" s="7">
         <f t="shared" si="9"/>
-        <v>-158.88666827522084</v>
+        <v>-130.90398583902436</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -8540,20 +8547,20 @@
       </c>
       <c r="D87" s="4">
         <f t="shared" si="6"/>
-        <v>1.6331083443205616E+17</v>
+        <v>2.5986438001450973E+17</v>
       </c>
       <c r="E87" s="5">
         <f t="shared" si="7"/>
-        <v>172.13014997828961</v>
+        <v>174.14746754209312</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="4">
         <f t="shared" si="8"/>
-        <v>1.2246584906355861E-16</v>
-      </c>
-      <c r="H87" s="3">
+        <v>7.6963222119488957E-17</v>
+      </c>
+      <c r="H87" s="7">
         <f t="shared" si="9"/>
-        <v>-159.1198500216498</v>
+        <v>-131.13716758545331</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -8569,20 +8576,20 @@
       </c>
       <c r="D88" s="4">
         <f t="shared" si="6"/>
-        <v>1.7219649741524125E+17</v>
+        <v>2.7400347439960355E+17</v>
       </c>
       <c r="E88" s="5">
         <f t="shared" si="7"/>
-        <v>172.36024313385326</v>
+        <v>174.37756069765675</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="4">
         <f t="shared" si="8"/>
-        <v>1.1614638102522627E-16</v>
-      </c>
-      <c r="H88" s="3">
+        <v>7.2991775173011955E-17</v>
+      </c>
+      <c r="H88" s="7">
         <f t="shared" si="9"/>
-        <v>-159.34994317721345</v>
+        <v>-131.36726074101693</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -8598,20 +8605,20 @@
       </c>
       <c r="D89" s="4">
         <f t="shared" si="6"/>
-        <v>1.8143991967713286E+17</v>
+        <v>2.8871184450653683E+17</v>
       </c>
       <c r="E89" s="5">
         <f t="shared" si="7"/>
-        <v>172.5873284495209</v>
+        <v>174.60464601332438</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="4">
         <f t="shared" si="8"/>
-        <v>1.1022932569408886E-16</v>
-      </c>
-      <c r="H89" s="3">
+        <v>6.927322304418713E-17</v>
+      </c>
+      <c r="H89" s="7">
         <f t="shared" si="9"/>
-        <v>-159.57702849288108</v>
+        <v>-131.59434605668457</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -8627,20 +8634,20 @@
       </c>
       <c r="D90" s="4">
         <f t="shared" si="6"/>
-        <v>1.9105057760108365E+17</v>
+        <v>3.0400456939906714E+17</v>
       </c>
       <c r="E90" s="5">
         <f t="shared" si="7"/>
-        <v>172.81148355024084</v>
+        <v>174.82880111404432</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="4">
         <f t="shared" si="8"/>
-        <v>1.0468432103754373E-16</v>
-      </c>
-      <c r="H90" s="3">
+        <v>6.578848482289086E-17</v>
+      </c>
+      <c r="H90" s="7">
         <f t="shared" si="9"/>
-        <v>-159.80118359360102</v>
+        <v>-131.81850115740451</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -8656,20 +8663,20 @@
       </c>
       <c r="D91" s="4">
         <f t="shared" si="6"/>
-        <v>2.010380714447384E+17</v>
+        <v>3.198969252528967E+17</v>
       </c>
       <c r="E91" s="5">
         <f t="shared" si="7"/>
-        <v>173.03278309423928</v>
+        <v>175.05010065804277</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="4">
         <f t="shared" si="8"/>
-        <v>9.9483644347919565E-17</v>
-      </c>
-      <c r="H91" s="3">
+        <v>6.2520138273254306E-17</v>
+      </c>
+      <c r="H91" s="7">
         <f t="shared" si="9"/>
-        <v>-160.02248313759947</v>
+        <v>-132.03980070140295</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -8685,20 +8692,20 @@
       </c>
       <c r="D92" s="4">
         <f t="shared" si="6"/>
-        <v>2.1141212534003421E+17</v>
+        <v>3.3640438535567232E+17</v>
       </c>
       <c r="E92" s="5">
         <f t="shared" si="7"/>
-        <v>173.25129892229936</v>
+        <v>175.26861648610287</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="4">
         <f t="shared" si="8"/>
-        <v>9.4601953259928204E-17</v>
-      </c>
-      <c r="H92" s="3">
+        <v>5.9452257077013064E-17</v>
+      </c>
+      <c r="H92" s="7">
         <f t="shared" si="9"/>
-        <v>-160.24099896565954</v>
+        <v>-132.25831652946306</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -8714,20 +8721,20 @@
       </c>
       <c r="D93" s="4">
         <f t="shared" si="6"/>
-        <v>2.2218258729320026E+17</v>
+        <v>3.5354262010698515E+17</v>
       </c>
       <c r="E93" s="5">
         <f t="shared" si="7"/>
-        <v>173.46710019776762</v>
+        <v>175.48441776157108</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="4">
         <f t="shared" si="8"/>
-        <v>9.0016055009780176E-17</v>
-      </c>
-      <c r="H93" s="3">
+        <v>5.6570265825228714E-17</v>
+      </c>
+      <c r="H93" s="7">
         <f t="shared" si="9"/>
-        <v>-160.45680024112781</v>
+        <v>-132.4741178049313</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -8743,20 +8750,20 @@
       </c>
       <c r="D94" s="4">
         <f t="shared" si="6"/>
-        <v>2.3335942918475798E+17</v>
+        <v>3.7132749701837107E+17</v>
       </c>
       <c r="E94" s="5">
         <f t="shared" si="7"/>
-        <v>173.68025353797026</v>
+        <v>175.69757110177378</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="4">
         <f t="shared" si="8"/>
-        <v>8.5704700555148225E-17</v>
-      </c>
-      <c r="H94" s="3">
+        <v>5.3860810633720775E-17</v>
+      </c>
+      <c r="H94" s="7">
         <f t="shared" si="9"/>
-        <v>-160.66995358133045</v>
+        <v>-132.68727114513396</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -8772,20 +8779,20 @@
       </c>
       <c r="D95" s="4">
         <f t="shared" si="6"/>
-        <v>2.4495274676952099E+17</v>
+        <v>3.8977508071331046E+17</v>
       </c>
       <c r="E95" s="5">
         <f t="shared" si="7"/>
-        <v>173.8908231376646</v>
+        <v>175.90814070146806</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="4">
         <f t="shared" si="8"/>
-        <v>8.1648400615071456E-17</v>
-      </c>
-      <c r="H95" s="3">
+        <v>5.1311643534006503E-17</v>
+      </c>
+      <c r="H95" s="7">
         <f t="shared" si="9"/>
-        <v>-160.88052318102478</v>
+        <v>-132.89784074482827</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -8801,20 +8808,20 @@
       </c>
       <c r="D96" s="4">
         <f t="shared" si="6"/>
-        <v>2.5697275967659498E+17</v>
+        <v>4.0890163292722816E+17</v>
       </c>
       <c r="E96" s="5">
         <f t="shared" si="7"/>
-        <v>174.09887088509689</v>
+        <v>176.1161884489004</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="4">
         <f t="shared" si="8"/>
-        <v>7.7829261067088877E-17</v>
-      </c>
-      <c r="H96" s="3">
+        <v>4.8911519029221829E-17</v>
+      </c>
+      <c r="H96" s="7">
         <f t="shared" si="9"/>
-        <v>-161.08857092845707</v>
+        <v>-133.10588849226059</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -8830,20 +8837,20 @@
       </c>
       <c r="D97" s="4">
         <f t="shared" si="6"/>
-        <v>2.6942981140937805E+17</v>
+        <v>4.287236125074937E+17</v>
       </c>
       <c r="E97" s="5">
         <f t="shared" si="7"/>
-        <v>174.3044564711933</v>
+        <v>176.32177403499682</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="4">
         <f t="shared" si="8"/>
-        <v>7.4230835464645468E-17</v>
-      </c>
-      <c r="H97" s="3">
+        <v>4.6650101409215985E-17</v>
+      </c>
+      <c r="H97" s="7">
         <f t="shared" si="9"/>
-        <v>-161.29415651455349</v>
+        <v>-133.31147407835701</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -8859,20 +8866,20 @@
       </c>
       <c r="D98" s="4">
         <f t="shared" si="6"/>
-        <v>2.8233436934556026E+17</v>
+        <v>4.4925767541342099E+17</v>
       </c>
       <c r="E98" s="5">
         <f t="shared" si="7"/>
-        <v>174.50763749236432</v>
+        <v>176.52495505616781</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="4">
         <f t="shared" si="8"/>
-        <v>7.083799271891409E-17</v>
-      </c>
-      <c r="H98" s="3">
+        <v>4.4517881595668618E-17</v>
+      </c>
+      <c r="H98" s="7">
         <f t="shared" si="9"/>
-        <v>-161.49733753572451</v>
+        <v>-133.514655099528</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -8888,20 +8895,20 @@
       </c>
       <c r="D99" s="4">
         <f t="shared" si="6"/>
-        <v>2.956970247371241E+17</v>
+        <v>4.7052067471626861E+17</v>
       </c>
       <c r="E99" s="5">
         <f t="shared" si="7"/>
-        <v>174.70846954736635</v>
+        <v>176.72578711116984</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="4">
         <f t="shared" si="8"/>
-        <v>6.763679823217729E-17</v>
-      </c>
-      <c r="H99" s="3">
+        <v>4.2506102440791396E-17</v>
+      </c>
+      <c r="H99" s="7">
         <f t="shared" si="9"/>
-        <v>-161.69816959072654</v>
+        <v>-133.71548715453005</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -8917,20 +8924,20 @@
       </c>
       <c r="D100" s="4">
         <f t="shared" si="6"/>
-        <v>3.0952849271034406E+17</v>
+        <v>4.9252966059923981E+17</v>
       </c>
       <c r="E100" s="5">
         <f t="shared" si="7"/>
-        <v>174.90700632862837</v>
+        <v>176.92432389243186</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="4">
         <f t="shared" si="8"/>
-        <v>6.4614406980348478E-17</v>
-      </c>
-      <c r="H100" s="3">
+        <v>4.0606691535423175E-17</v>
+      </c>
+      <c r="H100" s="7">
         <f t="shared" si="9"/>
-        <v>-161.89670637198856</v>
+        <v>-133.91402393579204</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -8946,20 +8953,20 @@
       </c>
       <c r="D101" s="4">
         <f t="shared" si="6"/>
-        <v>3.2383961226578694E+17</v>
+        <v>5.1530188035748205E+17</v>
       </c>
       <c r="E101" s="5">
         <f t="shared" si="7"/>
-        <v>175.10329970841812</v>
+        <v>177.12061727222164</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="4">
         <f t="shared" si="8"/>
-        <v>6.1758967224754676E-17</v>
-      </c>
-      <c r="H101" s="3">
+        <v>3.8812200697046427E-17</v>
+      </c>
+      <c r="H101" s="7">
         <f t="shared" si="9"/>
-        <v>-162.09299975177831</v>
+        <v>-134.1103173155818</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -8975,20 +8982,20 @@
       </c>
       <c r="D102" s="4">
         <f t="shared" si="6"/>
-        <v>3.3864134627831168E+17</v>
+        <v>5.3885477839808749E+17</v>
       </c>
       <c r="E102" s="5">
         <f t="shared" si="7"/>
-        <v>175.29739982019461</v>
+        <v>177.31471738399813</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="4">
         <f t="shared" si="8"/>
-        <v>5.9059533691916766E-17</v>
-      </c>
-      <c r="H102" s="3">
+        <v>3.7115751407932554E-17</v>
+      </c>
+      <c r="H102" s="7">
         <f t="shared" si="9"/>
-        <v>-162.2870998635548</v>
+        <v>-134.30441742735832</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -9004,20 +9011,20 @@
       </c>
       <c r="D103" s="4">
         <f t="shared" si="6"/>
-        <v>3.5394478149706931E+17</v>
+        <v>5.6320599624009286E+17</v>
       </c>
       <c r="E103" s="5">
         <f t="shared" si="7"/>
-        <v>175.48935513546536</v>
+        <v>177.50667269926885</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="4">
         <f t="shared" si="8"/>
-        <v>5.6505989198107729E-17</v>
-      </c>
-      <c r="H103" s="3">
+        <v>3.5510985560377566E-17</v>
+      </c>
+      <c r="H103" s="7">
         <f t="shared" si="9"/>
-        <v>-162.47905517882555</v>
+        <v>-134.49637274262903</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -9033,20 +9040,20 @@
       </c>
       <c r="D104" s="4">
         <f t="shared" si="6"/>
-        <v>3.6976112854550317E+17</v>
+        <v>5.8837337251447936E+17</v>
       </c>
       <c r="E104" s="5">
         <f t="shared" si="7"/>
-        <v>175.67921253644383</v>
+        <v>177.69653010024734</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="4">
         <f t="shared" si="8"/>
-        <v>5.408897381580438E-17</v>
-      </c>
-      <c r="H104" s="3">
+        <v>3.39920209416136E-17</v>
+      </c>
+      <c r="H104" s="7">
         <f t="shared" si="9"/>
-        <v>-162.66891257980402</v>
+        <v>-134.68623014360753</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -9062,20 +9069,20 @@
       </c>
       <c r="D105" s="4">
         <f t="shared" si="6"/>
-        <v>3.8610172192134899E+17</v>
+        <v>6.1437494296417293E+17</v>
       </c>
       <c r="E105" s="5">
         <f t="shared" si="7"/>
-        <v>175.86701738477902</v>
+        <v>177.88433494858253</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="4">
         <f t="shared" si="8"/>
-        <v>5.1799820784208025E-17</v>
-      </c>
-      <c r="H105" s="3">
+        <v>3.2553410957006252E-17</v>
+      </c>
+      <c r="H105" s="7">
         <f t="shared" si="9"/>
-        <v>-162.85671742813921</v>
+        <v>-134.87403499194269</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -9091,20 +9098,20 @@
       </c>
       <c r="D106" s="4">
         <f t="shared" si="6"/>
-        <v>4.0297801999663418E+17</v>
+        <v>6.412289404440439E+17</v>
       </c>
       <c r="E106" s="5">
         <f t="shared" si="7"/>
-        <v>176.05281358660957</v>
+        <v>178.07013115041309</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="4">
         <f t="shared" si="8"/>
-        <v>4.9630498457873826E-17</v>
-      </c>
-      <c r="H106" s="3">
+        <v>3.1190108147879635E-17</v>
+      </c>
+      <c r="H106" s="7">
         <f t="shared" si="9"/>
-        <v>-163.04251362996976</v>
+        <v>-135.05983119377325</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -9120,20 +9127,20 @@
       </c>
       <c r="D107" s="4">
         <f t="shared" si="6"/>
-        <v>4.2040160501767878E+17</v>
+        <v>6.6895379492090714E+17</v>
       </c>
       <c r="E107" s="5">
         <f t="shared" si="7"/>
-        <v>176.23664365417554</v>
+        <v>178.253961217979</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="4">
         <f t="shared" si="8"/>
-        <v>4.7573557667932681E-17</v>
-      </c>
-      <c r="H107" s="3">
+        <v>2.9897431110865696E-17</v>
+      </c>
+      <c r="H107" s="7">
         <f t="shared" si="9"/>
-        <v>-163.22634369753573</v>
+        <v>-135.24366126133921</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -9149,20 +9156,20 @@
       </c>
       <c r="D108" s="4">
         <f t="shared" si="6"/>
-        <v>4.3838418310509498E+17</v>
+        <v>6.9756813347352218E+17</v>
       </c>
       <c r="E108" s="5">
         <f t="shared" si="7"/>
-        <v>176.41854876420436</v>
+        <v>178.43586632800788</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="4">
         <f t="shared" si="8"/>
-        <v>4.5622083940937597E-17</v>
-      </c>
-      <c r="H108" s="3">
+        <v>2.8671034470010159E-17</v>
+      </c>
+      <c r="H108" s="7">
         <f t="shared" si="9"/>
-        <v>-163.40824880756455</v>
+        <v>-135.42556637136803</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -9178,20 +9185,20 @@
       </c>
       <c r="D109" s="4">
         <f t="shared" si="6"/>
-        <v>4.5693758425378688E+17</v>
+        <v>7.2709078029259277E+17</v>
       </c>
       <c r="E109" s="5">
         <f t="shared" si="7"/>
-        <v>176.59856881327141</v>
+        <v>178.6158863770749</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="4">
         <f t="shared" si="8"/>
-        <v>4.3769654082321746E-17</v>
-      </c>
-      <c r="H109" s="3">
+        <v>2.7506881591803002E-17</v>
+      </c>
+      <c r="H109" s="7">
         <f t="shared" si="9"/>
-        <v>-163.5882688566316</v>
+        <v>-135.60558642043509</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -9207,20 +9214,20 @@
       </c>
       <c r="D110" s="4">
         <f t="shared" si="6"/>
-        <v>4.7607376233295104E+17</v>
+        <v>7.5754075668076762E+17</v>
       </c>
       <c r="E110" s="5">
         <f t="shared" si="7"/>
-        <v>176.77674247032141</v>
+        <v>178.79406003412493</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="4">
         <f t="shared" si="8"/>
-        <v>4.2010296685942187E-17</v>
-      </c>
-      <c r="H110" s="3">
+        <v>2.6401219767543313E-17</v>
+      </c>
+      <c r="H110" s="7">
         <f t="shared" si="9"/>
-        <v>-163.7664425136816</v>
+        <v>-135.78376007748511</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -9236,20 +9243,20 @@
       </c>
       <c r="D111" s="4">
         <f t="shared" si="6"/>
-        <v>4.958047950860761E+17</v>
+        <v>7.8893728105263987E+17</v>
       </c>
       <c r="E111" s="5">
         <f t="shared" si="7"/>
-        <v>176.95310722652363</v>
+        <v>178.97042479032709</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="4">
         <f t="shared" si="8"/>
-        <v>4.0338456179165881E-17</v>
-      </c>
-      <c r="H111" s="3">
+        <v>2.5350557617603001E-17</v>
+      </c>
+      <c r="H111" s="7">
         <f t="shared" si="9"/>
-        <v>-163.94280726988382</v>
+        <v>-135.9601248336873</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -9265,20 +9272,20 @@
       </c>
       <c r="D112" s="4">
         <f t="shared" si="6"/>
-        <v>5.1614288413094291E+17</v>
+        <v>8.2129976893474688E+17</v>
       </c>
       <c r="E112" s="5">
         <f t="shared" si="7"/>
-        <v>177.1276994426216</v>
+        <v>179.14501700642512</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="4">
         <f t="shared" si="8"/>
-        <v>3.8748960055266594E-17</v>
-      </c>
-      <c r="H112" s="3">
+        <v>2.4351644498744552E-17</v>
+      </c>
+      <c r="H112" s="7">
         <f t="shared" si="9"/>
-        <v>-164.11739948598179</v>
+        <v>-136.13471704978531</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/calculoPerdidas.xlsx
+++ b/documentation/calculoPerdidas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raul\Documents\Github\TFGRaul\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A8F308-1A4E-4507-A000-081CF4B835F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C65B4C3-B9D9-4196-94FB-5245C79557A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92DAF7E3-0953-4B99-83BE-4E56EDBC23EF}"/>
   </bookViews>
@@ -73,10 +73,10 @@
     <t xml:space="preserve">Ganancia antena emisora </t>
   </si>
   <si>
-    <t xml:space="preserve">Ganacia antena receptora </t>
+    <t>Potencia recibida (dbm)</t>
   </si>
   <si>
-    <t>Potencia recibida (dbm)</t>
+    <t xml:space="preserve">Ganancia antena receptora </t>
   </si>
 </sst>
 </file>
@@ -125,11 +125,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -231,7 +231,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>30000</c:v>
+                  <c:v>11500</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>400</c:v>
@@ -540,304 +540,304 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>4.1578300802321556E+18</c:v>
+                  <c:v>874987806310103.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131407963029.55949</c:v>
+                  <c:v>1314079630.2955949</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>665252812837.14502</c:v>
+                  <c:v>6652528128.3714504</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2102527408472.9519</c:v>
+                  <c:v>21025274084.729519</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5133123555842.168</c:v>
+                  <c:v>51331235558.421684</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10644045005394.32</c:v>
+                  <c:v>106440450053.94321</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19719407452123.27</c:v>
+                  <c:v>197194074521.23273</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33640438535567.23</c:v>
+                  <c:v>336404385355.6723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53885477839808.734</c:v>
+                  <c:v>538854778398.0874</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82129976893474.688</c:v>
+                  <c:v>821299768934.74695</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>120246499169736.28</c:v>
+                  <c:v>1202464991697.363</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>170304720086309.13</c:v>
+                  <c:v>1703047200863.0913</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>234571427005453.03</c:v>
+                  <c:v>2345714270054.5303</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>315510519233972.31</c:v>
+                  <c:v>3155105192339.7236</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>415783008023215.69</c:v>
+                  <c:v>4157830080232.1567</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>538247016569075.69</c:v>
+                  <c:v>5382470165690.7568</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>685957780011989.88</c:v>
+                  <c:v>6859577800119.8994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>862167645436939.75</c:v>
+                  <c:v>8621676454369.3984</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1070326071873451.4</c:v>
+                  <c:v>10703260718734.516</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1314079630295595</c:v>
+                  <c:v>13140796302955.951</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1597272003621985</c:v>
+                  <c:v>15972720036219.852</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1923943986715780.5</c:v>
+                  <c:v>19239439867157.809</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2298333486384685</c:v>
+                  <c:v>22983334863846.848</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2724875521380946</c:v>
+                  <c:v>27248755213809.461</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3208202222401355</c:v>
+                  <c:v>32082022224013.551</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3753142832087248.5</c:v>
+                  <c:v>37531428320872.484</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4364723705024508.5</c:v>
+                  <c:v>43647237050245.086</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5048168307743557</c:v>
+                  <c:v>50481683077435.578</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5808897218719367</c:v>
+                  <c:v>58088972187193.672</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6652528128371451</c:v>
+                  <c:v>66525281283714.508</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7584875839063864</c:v>
+                  <c:v>75848758390638.641</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8611952265105211</c:v>
+                  <c:v>86119522651052.109</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9739966432748640</c:v>
+                  <c:v>97399664327486.406</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0975324480191838E+16</c:v>
+                  <c:v>109753244801918.39</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.2324629657577044E+16</c:v>
+                  <c:v>123246296575770.45</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3794682326991036E+16</c:v>
+                  <c:v>137946823269910.38</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.539247996246514E+16</c:v>
+                  <c:v>153924799624651.44</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.7125217149975222E+16</c:v>
+                  <c:v>171252171499752.25</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.9000285587441696E+16</c:v>
+                  <c:v>190002855874417</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.102527408472952E+16</c:v>
+                  <c:v>210252740847295.22</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.3207968563648192E+16</c:v>
+                  <c:v>232079685636481.97</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.555635205795176E+16</c:v>
+                  <c:v>255563520579517.63</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.8078604713338812E+16</c:v>
+                  <c:v>280786047133388.16</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.0783103787452488E+16</c:v>
+                  <c:v>307831037874524.94</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.3678423649880468E+16</c:v>
+                  <c:v>336784236498804.69</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.677333578215496E+16</c:v>
+                  <c:v>367733357821549.56</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.0076808777752744E+16</c:v>
+                  <c:v>400768087777527.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.3598008342095136E+16</c:v>
+                  <c:v>435980083420951.38</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.7346297292547976E+16</c:v>
+                  <c:v>473462972925479.81</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.133123555842168E+16</c:v>
+                  <c:v>513312355584216.81</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.5562580180971184E+16</c:v>
+                  <c:v>555625801809711.94</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.0050285313395976E+16</c:v>
+                  <c:v>600502853133959.75</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.4804502220840096E+16</c:v>
+                  <c:v>648045022208401.13</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.9835579280392136E+16</c:v>
+                  <c:v>698355792803921.38</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.5154061981085184E+16</c:v>
+                  <c:v>751540619810851.88</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.0770692923896912E+16</c:v>
+                  <c:v>807706929238969.25</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.6696411821749568E+16</c:v>
+                  <c:v>866964118217495.88</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.2942355499509872E+16</c:v>
+                  <c:v>929423554995098.75</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.9519857893989136E+16</c:v>
+                  <c:v>995198578939891.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.0644045005394322E+17</c:v>
+                  <c:v>1064404500539432.1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.1371586014007243E+17</c:v>
+                  <c:v>1137158601400724.3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2135801342502182E+17</c:v>
+                  <c:v>1213580134250218.3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.2937903229338078E+17</c:v>
+                  <c:v>1293790322933808</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.3779123624168338E+17</c:v>
+                  <c:v>1377912362416833.8</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.4660714187840816E+17</c:v>
+                  <c:v>1466071418784081.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.5583946292397824E+17</c:v>
+                  <c:v>1558394629239782.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.6550111021076125E+17</c:v>
+                  <c:v>1655011102107612.8</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.7560519168306941E+17</c:v>
+                  <c:v>1756051916830694.3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.8616501239715949E+17</c:v>
+                  <c:v>1861650123971595</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.971940745212327E+17</c:v>
+                  <c:v>1971940745212327.3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.0870607733543498E+17</c:v>
+                  <c:v>2087060773354350</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.2071491723185658E+17</c:v>
+                  <c:v>2207149172318566</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.3323468771453254E+17</c:v>
+                  <c:v>2332346877145325.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.4627967939944224E+17</c:v>
+                  <c:v>2462796793994423</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.5986438001450973E+17</c:v>
+                  <c:v>2598643800145098</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.7400347439960355E+17</c:v>
+                  <c:v>2740034743996036</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.8871184450653683E+17</c:v>
+                  <c:v>2887118445065369</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.0400456939906714E+17</c:v>
+                  <c:v>3040045693990672</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.198969252528967E+17</c:v>
+                  <c:v>3198969252528968</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.3640438535567232E+17</c:v>
+                  <c:v>3364043853556723.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.5354262010698515E+17</c:v>
+                  <c:v>3535426201069851.5</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.7132749701837107E+17</c:v>
+                  <c:v>3713274970183711.5</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.8977508071331046E+17</c:v>
+                  <c:v>3897750807133105.5</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.0890163292722816E+17</c:v>
+                  <c:v>4089016329272282</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.287236125074937E+17</c:v>
+                  <c:v>4287236125074938</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.4925767541342099E+17</c:v>
+                  <c:v>4492576754134210.5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.7052067471626861E+17</c:v>
+                  <c:v>4705206747162687</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.9252966059923981E+17</c:v>
+                  <c:v>4925296605992399</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.1530188035748205E+17</c:v>
+                  <c:v>5153018803574821</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.3885477839808749E+17</c:v>
+                  <c:v>5388547783980875</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.6320599624009286E+17</c:v>
+                  <c:v>5632059962400929</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.8837337251447936E+17</c:v>
+                  <c:v>5883733725144793</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.1437494296417293E+17</c:v>
+                  <c:v>6143749429641731</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.412289404440439E+17</c:v>
+                  <c:v>6412289404440440</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.6895379492090714E+17</c:v>
+                  <c:v>6689537949209072</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.9756813347352218E+17</c:v>
+                  <c:v>6975681334735222</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.2709078029259277E+17</c:v>
+                  <c:v>7270907802925928</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.5754075668076762E+17</c:v>
+                  <c:v>7575407566807677</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.8893728105263987E+17</c:v>
+                  <c:v>7889372810526400</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.2129976893474688E+17</c:v>
+                  <c:v>8212997689347469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,7 +1096,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>30000</c:v>
+                  <c:v>11500</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>400</c:v>
@@ -1405,304 +1405,304 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>186.18866736865237</c:v>
+                  <c:v>149.42002000806158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.18621683298436</c:v>
+                  <c:v>91.186216832984357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118.22986719521161</c:v>
+                  <c:v>98.229867195211611</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123.22741665954361</c:v>
+                  <c:v>103.22741665954361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>127.10381717986586</c:v>
+                  <c:v>107.10381717986587</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130.27106702177088</c:v>
+                  <c:v>110.27106702177086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>132.9489386069954</c:v>
+                  <c:v>112.94893860699538</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135.26861648610287</c:v>
+                  <c:v>115.26861648610286</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137.31471738399813</c:v>
+                  <c:v>117.31471738399811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>139.14501700642512</c:v>
+                  <c:v>119.14501700642511</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>140.80072441275411</c:v>
+                  <c:v>120.80072441275412</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>142.31226684833013</c:v>
+                  <c:v>122.31226684833011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>143.70275109869857</c:v>
+                  <c:v>123.70275109869858</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>144.99013843355465</c:v>
+                  <c:v>124.99013843355463</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>146.18866736865237</c:v>
+                  <c:v>126.18866736865236</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>147.30981631266212</c:v>
+                  <c:v>127.30981631266211</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>148.36297386155607</c:v>
+                  <c:v>128.36297386155607</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>149.35591721055735</c:v>
+                  <c:v>129.35591721055735</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>150.29516104453828</c:v>
+                  <c:v>130.29516104453828</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>151.18621683298437</c:v>
+                  <c:v>131.18621683298437</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>152.0337887957819</c:v>
+                  <c:v>132.0337887957819</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>152.84192423931336</c:v>
+                  <c:v>132.84192423931336</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>153.61413044712884</c:v>
+                  <c:v>133.61413044712884</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>154.35346667488938</c:v>
+                  <c:v>134.35346667488938</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>155.06261735330662</c:v>
+                  <c:v>135.06261735330662</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>155.74395092525782</c:v>
+                  <c:v>135.74395092525782</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>156.3995675727846</c:v>
+                  <c:v>136.3995675727846</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>157.0313382601139</c:v>
+                  <c:v>137.0313382601139</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>157.64093692238336</c:v>
+                  <c:v>137.64093692238336</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>158.22986719521163</c:v>
+                  <c:v>138.22986719521163</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>158.799484759796</c:v>
+                  <c:v>138.799484759796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>159.35101613922137</c:v>
+                  <c:v>139.35101613922137</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>159.88557460154061</c:v>
+                  <c:v>139.88557460154061</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>160.40417368811532</c:v>
+                  <c:v>140.40417368811532</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>160.90773878043615</c:v>
+                  <c:v>140.90773878043615</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>161.39711703711663</c:v>
+                  <c:v>141.3971170371166</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>161.87308596910492</c:v>
+                  <c:v>141.87308596910492</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>162.3363608710975</c:v>
+                  <c:v>142.3363608710975</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>162.78760128748507</c:v>
+                  <c:v>142.78760128748507</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>163.22741665954362</c:v>
+                  <c:v>143.22741665954362</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>163.65637127521452</c:v>
+                  <c:v>143.65637127521452</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>164.07498862234115</c:v>
+                  <c:v>144.07498862234115</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>164.48375522960859</c:v>
+                  <c:v>144.48375522960856</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>164.88312406587261</c:v>
+                  <c:v>144.88312406587261</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>165.27351755743888</c:v>
+                  <c:v>145.27351755743888</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>165.65533027368809</c:v>
+                  <c:v>145.65533027368809</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>166.02893132385384</c:v>
+                  <c:v>146.02893132385381</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>166.39466650144863</c:v>
+                  <c:v>146.3946665014486</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>166.75286020756567</c:v>
+                  <c:v>146.75286020756567</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>167.10381717986587</c:v>
+                  <c:v>147.10381717986587</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>167.44782405034258</c:v>
+                  <c:v>147.44782405034258</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>167.78515075181707</c:v>
+                  <c:v>147.78515075181707</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>168.11605179045668</c:v>
+                  <c:v>148.11605179045668</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>168.44076739934388</c:v>
+                  <c:v>148.44076739934386</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>168.75952458619486</c:v>
+                  <c:v>148.75952458619486</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>169.07253808667315</c:v>
+                  <c:v>149.07253808667315</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>169.38001123332475</c:v>
+                  <c:v>149.38001123332475</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>169.68213674894261</c:v>
+                  <c:v>149.68213674894261</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>169.97909747211088</c:v>
+                  <c:v>149.97909747211088</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>170.27106702177088</c:v>
+                  <c:v>150.27106702177088</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>170.55821040685578</c:v>
+                  <c:v>150.55821040685578</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>170.84068458635528</c:v>
+                  <c:v>150.84068458635525</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>171.11863898456841</c:v>
+                  <c:v>151.11863898456838</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>171.39221596578062</c:v>
+                  <c:v>151.39221596578062</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>171.66155127213932</c:v>
+                  <c:v>151.66155127213932</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>171.92677442809986</c:v>
+                  <c:v>151.92677442809986</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>172.18800911445817</c:v>
+                  <c:v>152.18800911445817</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>172.44537351467457</c:v>
+                  <c:v>152.44537351467457</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>172.69898063591535</c:v>
+                  <c:v>152.69898063591535</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>172.9489386069954</c:v>
+                  <c:v>152.9489386069954</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>173.19535095518813</c:v>
+                  <c:v>153.19535095518813</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>173.43831686367588</c:v>
+                  <c:v>153.43831686367585</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>173.67793141124335</c:v>
+                  <c:v>153.67793141124335</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>173.91428579566417</c:v>
+                  <c:v>153.91428579566417</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>174.14746754209312</c:v>
+                  <c:v>154.14746754209312</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>174.37756069765675</c:v>
+                  <c:v>154.37756069765675</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>174.60464601332438</c:v>
+                  <c:v>154.60464601332438</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>174.82880111404432</c:v>
+                  <c:v>154.82880111404432</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>175.05010065804277</c:v>
+                  <c:v>155.05010065804277</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>175.26861648610287</c:v>
+                  <c:v>155.26861648610287</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>175.48441776157108</c:v>
+                  <c:v>155.48441776157111</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>175.69757110177378</c:v>
+                  <c:v>155.69757110177378</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>175.90814070146806</c:v>
+                  <c:v>155.90814070146808</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>176.1161884489004</c:v>
+                  <c:v>156.1161884489004</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>176.32177403499682</c:v>
+                  <c:v>156.32177403499682</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>176.52495505616781</c:v>
+                  <c:v>156.52495505616781</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>176.72578711116984</c:v>
+                  <c:v>156.72578711116986</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>176.92432389243186</c:v>
+                  <c:v>156.92432389243186</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>177.12061727222164</c:v>
+                  <c:v>157.12061727222161</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>177.31471738399813</c:v>
+                  <c:v>157.31471738399813</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>177.50667269926885</c:v>
+                  <c:v>157.50667269926885</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>177.69653010024734</c:v>
+                  <c:v>157.69653010024734</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>177.88433494858253</c:v>
+                  <c:v>157.88433494858251</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>178.07013115041309</c:v>
+                  <c:v>158.07013115041306</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>178.253961217979</c:v>
+                  <c:v>158.25396121797903</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>178.43586632800788</c:v>
+                  <c:v>158.43586632800785</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>178.6158863770749</c:v>
+                  <c:v>158.6158863770749</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>178.79406003412493</c:v>
+                  <c:v>158.79406003412493</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>178.97042479032709</c:v>
+                  <c:v>158.97042479032712</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>179.14501700642512</c:v>
+                  <c:v>159.14501700642512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,7 +1961,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>30000</c:v>
+                  <c:v>11500</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>400</c:v>
@@ -2270,304 +2270,304 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>4.8102013824680598E-18</c:v>
+                  <c:v>5.7143653476560038E-15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5219777811715346E-10</c:v>
+                  <c:v>3.8049444529288361E-9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0063758640425372E-11</c:v>
+                  <c:v>7.5159396601063425E-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5123611323220912E-12</c:v>
+                  <c:v>2.3780902830805226E-10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8962631197991281E-12</c:v>
+                  <c:v>9.7406577994978191E-11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8789849150265858E-12</c:v>
+                  <c:v>4.697462287566464E-11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0142292585899439E-12</c:v>
+                  <c:v>2.5355731464748595E-11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.945225707701307E-13</c:v>
+                  <c:v>1.4863064269253266E-11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7115751407932562E-13</c:v>
+                  <c:v>9.2789378519831397E-12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4351644498744551E-13</c:v>
+                  <c:v>6.087911124686137E-12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6632500852909332E-13</c:v>
+                  <c:v>4.1581252132273323E-12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1743655718916161E-13</c:v>
+                  <c:v>2.93591392972904E-12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5261876330466554E-14</c:v>
+                  <c:v>2.1315469082616638E-12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.3389328661871493E-14</c:v>
+                  <c:v>1.5847332165467872E-12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8102013824680588E-14</c:v>
+                  <c:v>1.2025503456170147E-12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.7157660673133169E-14</c:v>
+                  <c:v>9.2894151682832913E-13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.9156313380759992E-14</c:v>
+                  <c:v>7.2890783451899974E-13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3197344629957851E-14</c:v>
+                  <c:v>5.7993361574894623E-13</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8685894444291061E-14</c:v>
+                  <c:v>4.6714736110727642E-13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5219777811715344E-14</c:v>
+                  <c:v>3.8049444529288356E-13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2521348871480788E-14</c:v>
+                  <c:v>3.1303372178701968E-13</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0395313033068333E-14</c:v>
+                  <c:v>2.5988282582670827E-13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.7019573610530816E-15</c:v>
+                  <c:v>2.1754893402632702E-13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.3397848243226006E-15</c:v>
+                  <c:v>1.83494620608065E-13</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.2340209916786054E-15</c:v>
+                  <c:v>1.5585052479196512E-13</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.3288672706541596E-15</c:v>
+                  <c:v>1.3322168176635399E-13</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.5821915318435255E-15</c:v>
+                  <c:v>1.1455478829608812E-13</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.9618330413669683E-15</c:v>
+                  <c:v>9.9045826034174198E-14</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.4429942977041024E-15</c:v>
+                  <c:v>8.6074857442602549E-14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.0063758640425367E-15</c:v>
+                  <c:v>7.5159396601063416E-14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.6368262875175066E-15</c:v>
+                  <c:v>6.5920657187937667E-14</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.3223537920708231E-15</c:v>
+                  <c:v>5.805884480177057E-14</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0533951670258432E-15</c:v>
+                  <c:v>5.1334879175646077E-14</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.8222695862974995E-15</c:v>
+                  <c:v>4.5556739657437484E-14</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.6227668137439103E-15</c:v>
+                  <c:v>4.0569170343597754E-14</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.4498340393723657E-15</c:v>
+                  <c:v>3.6245850984309139E-14</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.2993357827179497E-15</c:v>
+                  <c:v>3.2483394567948738E-14</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1678684027681913E-15</c:v>
+                  <c:v>2.9196710069204776E-14</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0526157571662538E-15</c:v>
+                  <c:v>2.6315393929156338E-14</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.5123611323220902E-16</c:v>
+                  <c:v>2.3780902830805222E-14</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.6177297013953239E-16</c:v>
+                  <c:v>2.1544324253488306E-14</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.8258430446754926E-16</c:v>
+                  <c:v>1.956460761168873E-14</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.1228610553069789E-16</c:v>
+                  <c:v>1.7807152638267444E-14</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.497070645667708E-16</c:v>
+                  <c:v>1.6242676614169267E-14</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.9385202252692087E-16</c:v>
+                  <c:v>1.4846300563173021E-14</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.438723350658176E-16</c:v>
+                  <c:v>1.3596808376645439E-14</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.9904173036607416E-16</c:v>
+                  <c:v>1.2476043259151853E-14</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.5873655152016254E-16</c:v>
+                  <c:v>1.1468413788004063E-14</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.2241951628069301E-16</c:v>
+                  <c:v>1.0560487907017323E-14</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.8962631197991284E-16</c:v>
+                  <c:v>9.7406577994978202E-15</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.599544861822221E-16</c:v>
+                  <c:v>8.9988621545555511E-15</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.3305420441588498E-16</c:v>
+                  <c:v>8.3263551103971244E-15</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.0862053275008905E-16</c:v>
+                  <c:v>7.7155133187522248E-15</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.8638697074022034E-16</c:v>
+                  <c:v>7.1596742685055076E-15</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.6612001364654929E-16</c:v>
+                  <c:v>6.6530003411637313E-15</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4761456508543552E-16</c:v>
+                  <c:v>6.1903641271358874E-15</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.3069005486779085E-16</c:v>
+                  <c:v>5.7672513716947704E-15</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.151871436065064E-16</c:v>
+                  <c:v>5.3796785901626593E-15</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.009649171857185E-16</c:v>
+                  <c:v>5.0241229296429619E-15</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8789849150265855E-16</c:v>
+                  <c:v>4.6974622875664635E-15</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.758769618887329E-16</c:v>
+                  <c:v>4.3969240472183223E-15</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.6480164296984416E-16</c:v>
+                  <c:v>4.1200410742461042E-15</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.5458455396889863E-16</c:v>
+                  <c:v>3.8646138492224652E-15</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.4514711200442644E-16</c:v>
+                  <c:v>3.6286778001106606E-15</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3641900212874649E-16</c:v>
+                  <c:v>3.410475053218662E-15</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.283371979391152E-16</c:v>
+                  <c:v>3.2084299484778798E-15</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2084511079430545E-16</c:v>
+                  <c:v>3.0211277698576357E-15</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1389184914359372E-16</c:v>
+                  <c:v>2.8472962285898427E-15</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.0743157235868001E-16</c:v>
+                  <c:v>2.685789308967E-15</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.0142292585899439E-16</c:v>
+                  <c:v>2.5355731464748596E-15</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.5828546323812864E-17</c:v>
+                  <c:v>2.3957136580953211E-15</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.0614627460772856E-17</c:v>
+                  <c:v>2.2653656865193212E-15</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>8.5750538206731021E-17</c:v>
+                  <c:v>2.1437634551682752E-15</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.1208486419871859E-17</c:v>
+                  <c:v>2.0302121604967961E-15</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.6963222119488957E-17</c:v>
+                  <c:v>1.9240805529872236E-15</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.2991775173011955E-17</c:v>
+                  <c:v>1.8247943793252985E-15</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.927322304418713E-17</c:v>
+                  <c:v>1.7318305761046781E-15</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.578848482289086E-17</c:v>
+                  <c:v>1.6447121205722711E-15</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.2520138273254306E-17</c:v>
+                  <c:v>1.5630034568313573E-15</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.9452257077013064E-17</c:v>
+                  <c:v>1.4863064269253264E-15</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.6570265825228714E-17</c:v>
+                  <c:v>1.4142566456307178E-15</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.3860810633720775E-17</c:v>
+                  <c:v>1.3465202658430192E-15</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.1311643534006503E-17</c:v>
+                  <c:v>1.2827910883501624E-15</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.8911519029221829E-17</c:v>
+                  <c:v>1.2227879757305456E-15</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.6650101409215985E-17</c:v>
+                  <c:v>1.1662525352303994E-15</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.4517881595668618E-17</c:v>
+                  <c:v>1.1129470398917152E-15</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.2506102440791396E-17</c:v>
+                  <c:v>1.0626525610197847E-15</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.0606691535423175E-17</c:v>
+                  <c:v>1.0151672883855792E-15</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.8812200697046427E-17</c:v>
+                  <c:v>9.7030501742616054E-16</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.7115751407932554E-17</c:v>
+                  <c:v>9.278937851983138E-16</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.5510985560377566E-17</c:v>
+                  <c:v>8.8777463900943908E-16</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.39920209416136E-17</c:v>
+                  <c:v>8.4980052354033993E-16</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.2553410957006252E-17</c:v>
+                  <c:v>8.138352739251562E-16</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.1190108147879635E-17</c:v>
+                  <c:v>7.7975270369699082E-16</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.9897431110865696E-17</c:v>
+                  <c:v>7.4743577777164232E-16</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.8671034470010159E-17</c:v>
+                  <c:v>7.1677586175025391E-16</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.7506881591803002E-17</c:v>
+                  <c:v>6.8767203979507496E-16</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.6401219767543313E-17</c:v>
+                  <c:v>6.6003049418858271E-16</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.5350557617603001E-17</c:v>
+                  <c:v>6.3376394044007498E-16</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.4351644498744552E-17</c:v>
+                  <c:v>6.0879111246861376E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2826,7 +2826,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>30000</c:v>
+                  <c:v>11500</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>400</c:v>
@@ -3135,304 +3135,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-143.17836741201256</c:v>
+                  <c:v>-112.4303199647014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-68.175916876344544</c:v>
+                  <c:v>-54.19651678962417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-75.219567238571798</c:v>
+                  <c:v>-61.240167151851423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-80.217116702903795</c:v>
+                  <c:v>-66.23771661618342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-84.093517223226058</c:v>
+                  <c:v>-70.114117136505683</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-87.260767065131049</c:v>
+                  <c:v>-73.281366978410674</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-89.938638650355571</c:v>
+                  <c:v>-75.959238563635196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-92.258316529463045</c:v>
+                  <c:v>-78.27891644274267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-94.304417427358302</c:v>
+                  <c:v>-80.325017340637928</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-96.134717049785294</c:v>
+                  <c:v>-82.155316963064919</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-97.790424456114309</c:v>
+                  <c:v>-83.811024369393934</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-99.301966891690299</c:v>
+                  <c:v>-85.322566804969924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-100.69245114205877</c:v>
+                  <c:v>-86.713051055338397</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-101.97983847691482</c:v>
+                  <c:v>-88.000438390194446</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-103.17836741201255</c:v>
+                  <c:v>-89.198967325292173</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-104.29951635602229</c:v>
+                  <c:v>-90.32011626930192</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-105.35267390491626</c:v>
+                  <c:v>-91.373273818195884</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-106.34561725391754</c:v>
+                  <c:v>-92.366217167197163</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-107.28486108789846</c:v>
+                  <c:v>-93.305461001178088</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-108.17591687634454</c:v>
+                  <c:v>-94.19651678962417</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-109.02348883914208</c:v>
+                  <c:v>-95.0440887524217</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-109.83162428267354</c:v>
+                  <c:v>-95.852224195953184</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-110.60383049048902</c:v>
+                  <c:v>-96.624430403768642</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-111.34316671824955</c:v>
+                  <c:v>-97.363766631529174</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-112.05231739666681</c:v>
+                  <c:v>-98.072917309946433</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-112.73365096861802</c:v>
+                  <c:v>-98.754250881897647</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-113.38926761614479</c:v>
+                  <c:v>-99.409867529424417</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-114.02103830347407</c:v>
+                  <c:v>-100.0416382167537</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-114.63063696574353</c:v>
+                  <c:v>-100.65123687902316</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-115.2195672385718</c:v>
+                  <c:v>-101.24016715185142</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-115.7891848031562</c:v>
+                  <c:v>-101.80978471643583</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-116.34071618258155</c:v>
+                  <c:v>-102.36131609586117</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-116.8752746449008</c:v>
+                  <c:v>-102.89587455818042</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-117.39387373147551</c:v>
+                  <c:v>-103.41447364475513</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-117.89743882379632</c:v>
+                  <c:v>-103.91803873707595</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-118.38681708047679</c:v>
+                  <c:v>-104.40741699375641</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-118.86278601246509</c:v>
+                  <c:v>-104.88338592574472</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-119.3260609144577</c:v>
+                  <c:v>-105.34666082773732</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-119.77730133084528</c:v>
+                  <c:v>-105.7979012441249</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-120.21711670290379</c:v>
+                  <c:v>-106.23771661618342</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-120.64607131857471</c:v>
+                  <c:v>-106.66667123185434</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-121.06468866570133</c:v>
+                  <c:v>-107.08528857898095</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-121.47345527296876</c:v>
+                  <c:v>-107.49405518624839</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-121.87282410923279</c:v>
+                  <c:v>-107.89342402251242</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-122.26321760079905</c:v>
+                  <c:v>-108.28381751407868</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-122.64503031704827</c:v>
+                  <c:v>-108.66563023032789</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-123.018631367214</c:v>
+                  <c:v>-109.03923128049362</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-123.38436654480878</c:v>
+                  <c:v>-109.40496645808841</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-123.74256025092585</c:v>
+                  <c:v>-109.76316016420547</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-124.09351722322606</c:v>
+                  <c:v>-110.11411713650567</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-124.43752409370276</c:v>
+                  <c:v>-110.45812400698239</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-124.77485079517727</c:v>
+                  <c:v>-110.7954507084569</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-125.10575183381687</c:v>
+                  <c:v>-111.12635174709649</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-125.43046744270404</c:v>
+                  <c:v>-111.45106735598367</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-125.74922462955506</c:v>
+                  <c:v>-111.76982454283468</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-126.06223813003332</c:v>
+                  <c:v>-112.08283804331295</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-126.36971127668495</c:v>
+                  <c:v>-112.39031118996458</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-126.67183679230278</c:v>
+                  <c:v>-112.69243670558241</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-126.96879751547107</c:v>
+                  <c:v>-112.98939742875069</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-127.26076706513105</c:v>
+                  <c:v>-113.28136697841067</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-127.54791045021598</c:v>
+                  <c:v>-113.56851036349561</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-127.83038462971545</c:v>
+                  <c:v>-113.85098454299508</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-128.10833902792857</c:v>
+                  <c:v>-114.12893894120819</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-128.38191600914081</c:v>
+                  <c:v>-114.40251592242042</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-128.65125131549951</c:v>
+                  <c:v>-114.67185122877915</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-128.91647447146005</c:v>
+                  <c:v>-114.93707438473967</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-129.17770915781836</c:v>
+                  <c:v>-115.19830907109798</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-129.43507355803476</c:v>
+                  <c:v>-115.45567347131438</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-129.68868067927554</c:v>
+                  <c:v>-115.70928059255515</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-129.93863865035559</c:v>
+                  <c:v>-115.9592385636352</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-130.18505099854832</c:v>
+                  <c:v>-116.20565091182795</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-130.42801690703604</c:v>
+                  <c:v>-116.44861682031566</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-130.66763145460354</c:v>
+                  <c:v>-116.68823136788316</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-130.90398583902436</c:v>
+                  <c:v>-116.92458575230397</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-131.13716758545331</c:v>
+                  <c:v>-117.15776749873292</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-131.36726074101693</c:v>
+                  <c:v>-117.38786065429657</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-131.59434605668457</c:v>
+                  <c:v>-117.6149459699642</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-131.81850115740451</c:v>
+                  <c:v>-117.83910107068414</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-132.03980070140295</c:v>
+                  <c:v>-118.06040061468258</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-132.25831652946306</c:v>
+                  <c:v>-118.27891644274267</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-132.4741178049313</c:v>
+                  <c:v>-118.49471771821092</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-132.68727114513396</c:v>
+                  <c:v>-118.70787105841359</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-132.89784074482827</c:v>
+                  <c:v>-118.91844065810788</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-133.10588849226059</c:v>
+                  <c:v>-119.12648840554019</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-133.31147407835701</c:v>
+                  <c:v>-119.33207399163663</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-133.514655099528</c:v>
+                  <c:v>-119.53525501280764</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-133.71548715453005</c:v>
+                  <c:v>-119.73608706780966</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-133.91402393579204</c:v>
+                  <c:v>-119.93462384907167</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-134.1103173155818</c:v>
+                  <c:v>-120.13091722886143</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-134.30441742735832</c:v>
+                  <c:v>-120.32501734063793</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-134.49637274262903</c:v>
+                  <c:v>-120.51697265590867</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-134.68623014360753</c:v>
+                  <c:v>-120.70683005688714</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-134.87403499194269</c:v>
+                  <c:v>-120.89463490522233</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-135.05983119377325</c:v>
+                  <c:v>-121.08043110705287</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-135.24366126133921</c:v>
+                  <c:v>-121.26426117461884</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-135.42556637136803</c:v>
+                  <c:v>-121.44616628464766</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-135.60558642043509</c:v>
+                  <c:v>-121.62618633371473</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-135.78376007748511</c:v>
+                  <c:v>-121.80435999076472</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-135.9601248336873</c:v>
+                  <c:v>-121.98072474696693</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-136.13471704978531</c:v>
+                  <c:v>-122.15531696306492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5836,16 +5836,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>689387</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>102647</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
+      <xdr:rowOff>91888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>520851</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>726591</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6278,10 +6278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D925E85-375D-42F6-B196-03066D5C9F63}">
-  <dimension ref="A3:H112"/>
+  <dimension ref="A3:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6297,7 +6297,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -6306,44 +6306,43 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <f>10*LOG10(B4*1000)</f>
-        <v>43.010299956639813</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36.989700043360187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <f>40</f>
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -6352,20 +6351,20 @@
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -6385,39 +6384,47 @@
         <v>7</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>15000</v>
+        <v>6400</v>
       </c>
       <c r="B13" s="3">
-        <v>15000</v>
+        <v>5100</v>
       </c>
       <c r="C13" s="3">
         <f>B13+A13</f>
-        <v>30000</v>
+        <v>11500</v>
       </c>
       <c r="D13" s="4">
         <f>$B$4/G13</f>
-        <v>4.1578300802321556E+18</v>
+        <v>874987806310103.75</v>
       </c>
       <c r="E13" s="5">
         <f>10*LOG(D13)</f>
-        <v>186.18866736865237</v>
+        <v>149.42002000806158</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4">
         <f>($B$4*$B$5*$B$6*$B$7*($B$8^2))/(((4*PI())^3)*(B13^2)*(A13^2))</f>
-        <v>4.8102013824680598E-18</v>
-      </c>
-      <c r="H13" s="7">
+        <v>5.7143653476560038E-15</v>
+      </c>
+      <c r="H13" s="6">
         <f>10*LOG10(G13*1000)</f>
-        <v>-143.17836741201256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-112.4303199647014</v>
+      </c>
+      <c r="J13" s="1">
+        <f>($B$5*$B$6*$B$7*($B$8^2))/(((4*PI())^3)*(B13^2)*(A13^2))</f>
+        <v>1.1428730695312009E-15</v>
+      </c>
+      <c r="K13" s="1">
+        <f>J13^-1</f>
+        <v>874987806310103.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>200</v>
       </c>
@@ -6430,23 +6437,23 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D77" si="1">$B$4/G14</f>
-        <v>131407963029.55949</v>
+        <v>1314079630.2955949</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E77" si="2">10*LOG(D14)</f>
-        <v>111.18621683298436</v>
+        <v>91.186216832984357</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="4">
         <f t="shared" ref="G14:G77" si="3">($B$4*$B$5*$B$6*$B$7*($B$8^2))/(((4*PI())^3)*(B14^2)*(A14^2))</f>
-        <v>1.5219777811715346E-10</v>
-      </c>
-      <c r="H14" s="7">
+        <v>3.8049444529288361E-9</v>
+      </c>
+      <c r="H14" s="6">
         <f t="shared" ref="H14:H77" si="4">10*LOG10(G14*1000)</f>
-        <v>-68.175916876344544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-54.19651678962417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>300</v>
       </c>
@@ -6459,23 +6466,23 @@
       </c>
       <c r="D15" s="4">
         <f t="shared" si="1"/>
-        <v>665252812837.14502</v>
+        <v>6652528128.3714504</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="2"/>
-        <v>118.22986719521161</v>
+        <v>98.229867195211611</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="4">
         <f t="shared" si="3"/>
-        <v>3.0063758640425372E-11</v>
-      </c>
-      <c r="H15" s="7">
+        <v>7.5159396601063425E-10</v>
+      </c>
+      <c r="H15" s="6">
         <f t="shared" si="4"/>
-        <v>-75.219567238571798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-61.240167151851423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>400</v>
       </c>
@@ -6488,20 +6495,20 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" si="1"/>
-        <v>2102527408472.9519</v>
+        <v>21025274084.729519</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="2"/>
-        <v>123.22741665954361</v>
+        <v>103.22741665954361</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="4">
         <f t="shared" si="3"/>
-        <v>9.5123611323220912E-12</v>
-      </c>
-      <c r="H16" s="7">
+        <v>2.3780902830805226E-10</v>
+      </c>
+      <c r="H16" s="6">
         <f t="shared" si="4"/>
-        <v>-80.217116702903795</v>
+        <v>-66.23771661618342</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -6517,20 +6524,20 @@
       </c>
       <c r="D17" s="4">
         <f t="shared" si="1"/>
-        <v>5133123555842.168</v>
+        <v>51331235558.421684</v>
       </c>
       <c r="E17" s="5">
         <f>10*LOG(D17)</f>
-        <v>127.10381717986586</v>
+        <v>107.10381717986587</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="4">
         <f t="shared" si="3"/>
-        <v>3.8962631197991281E-12</v>
-      </c>
-      <c r="H17" s="7">
+        <v>9.7406577994978191E-11</v>
+      </c>
+      <c r="H17" s="6">
         <f t="shared" si="4"/>
-        <v>-84.093517223226058</v>
+        <v>-70.114117136505683</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -6546,20 +6553,20 @@
       </c>
       <c r="D18" s="4">
         <f t="shared" si="1"/>
-        <v>10644045005394.32</v>
+        <v>106440450053.94321</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="2"/>
-        <v>130.27106702177088</v>
+        <v>110.27106702177086</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4">
         <f t="shared" si="3"/>
-        <v>1.8789849150265858E-12</v>
-      </c>
-      <c r="H18" s="7">
+        <v>4.697462287566464E-11</v>
+      </c>
+      <c r="H18" s="6">
         <f t="shared" si="4"/>
-        <v>-87.260767065131049</v>
+        <v>-73.281366978410674</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -6575,20 +6582,20 @@
       </c>
       <c r="D19" s="4">
         <f t="shared" si="1"/>
-        <v>19719407452123.27</v>
+        <v>197194074521.23273</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="2"/>
-        <v>132.9489386069954</v>
+        <v>112.94893860699538</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="4">
         <f t="shared" si="3"/>
-        <v>1.0142292585899439E-12</v>
-      </c>
-      <c r="H19" s="7">
+        <v>2.5355731464748595E-11</v>
+      </c>
+      <c r="H19" s="6">
         <f t="shared" si="4"/>
-        <v>-89.938638650355571</v>
+        <v>-75.959238563635196</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -6604,20 +6611,20 @@
       </c>
       <c r="D20" s="4">
         <f t="shared" si="1"/>
-        <v>33640438535567.23</v>
+        <v>336404385355.6723</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="2"/>
-        <v>135.26861648610287</v>
+        <v>115.26861648610286</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="4">
         <f t="shared" si="3"/>
-        <v>5.945225707701307E-13</v>
-      </c>
-      <c r="H20" s="7">
+        <v>1.4863064269253266E-11</v>
+      </c>
+      <c r="H20" s="6">
         <f t="shared" si="4"/>
-        <v>-92.258316529463045</v>
+        <v>-78.27891644274267</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -6633,20 +6640,20 @@
       </c>
       <c r="D21" s="4">
         <f t="shared" si="1"/>
-        <v>53885477839808.734</v>
+        <v>538854778398.0874</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="2"/>
-        <v>137.31471738399813</v>
+        <v>117.31471738399811</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="4">
         <f t="shared" si="3"/>
-        <v>3.7115751407932562E-13</v>
-      </c>
-      <c r="H21" s="7">
+        <v>9.2789378519831397E-12</v>
+      </c>
+      <c r="H21" s="6">
         <f t="shared" si="4"/>
-        <v>-94.304417427358302</v>
+        <v>-80.325017340637928</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -6662,20 +6669,20 @@
       </c>
       <c r="D22" s="4">
         <f t="shared" si="1"/>
-        <v>82129976893474.688</v>
+        <v>821299768934.74695</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="2"/>
-        <v>139.14501700642512</v>
+        <v>119.14501700642511</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="4">
         <f t="shared" si="3"/>
-        <v>2.4351644498744551E-13</v>
-      </c>
-      <c r="H22" s="7">
+        <v>6.087911124686137E-12</v>
+      </c>
+      <c r="H22" s="6">
         <f t="shared" si="4"/>
-        <v>-96.134717049785294</v>
+        <v>-82.155316963064919</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -6691,20 +6698,20 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" si="1"/>
-        <v>120246499169736.28</v>
+        <v>1202464991697.363</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="2"/>
-        <v>140.80072441275411</v>
+        <v>120.80072441275412</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="4">
         <f t="shared" si="3"/>
-        <v>1.6632500852909332E-13</v>
-      </c>
-      <c r="H23" s="7">
+        <v>4.1581252132273323E-12</v>
+      </c>
+      <c r="H23" s="6">
         <f t="shared" si="4"/>
-        <v>-97.790424456114309</v>
+        <v>-83.811024369393934</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -6720,20 +6727,20 @@
       </c>
       <c r="D24" s="4">
         <f t="shared" si="1"/>
-        <v>170304720086309.13</v>
+        <v>1703047200863.0913</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="2"/>
-        <v>142.31226684833013</v>
+        <v>122.31226684833011</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="4">
         <f t="shared" si="3"/>
-        <v>1.1743655718916161E-13</v>
-      </c>
-      <c r="H24" s="7">
+        <v>2.93591392972904E-12</v>
+      </c>
+      <c r="H24" s="6">
         <f t="shared" si="4"/>
-        <v>-99.301966891690299</v>
+        <v>-85.322566804969924</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -6749,20 +6756,20 @@
       </c>
       <c r="D25" s="4">
         <f t="shared" si="1"/>
-        <v>234571427005453.03</v>
+        <v>2345714270054.5303</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="2"/>
-        <v>143.70275109869857</v>
+        <v>123.70275109869858</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="4">
         <f t="shared" si="3"/>
-        <v>8.5261876330466554E-14</v>
-      </c>
-      <c r="H25" s="7">
+        <v>2.1315469082616638E-12</v>
+      </c>
+      <c r="H25" s="6">
         <f t="shared" si="4"/>
-        <v>-100.69245114205877</v>
+        <v>-86.713051055338397</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -6778,20 +6785,20 @@
       </c>
       <c r="D26" s="4">
         <f t="shared" si="1"/>
-        <v>315510519233972.31</v>
+        <v>3155105192339.7236</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="2"/>
-        <v>144.99013843355465</v>
+        <v>124.99013843355463</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="4">
         <f t="shared" si="3"/>
-        <v>6.3389328661871493E-14</v>
-      </c>
-      <c r="H26" s="7">
+        <v>1.5847332165467872E-12</v>
+      </c>
+      <c r="H26" s="6">
         <f t="shared" si="4"/>
-        <v>-101.97983847691482</v>
+        <v>-88.000438390194446</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -6807,20 +6814,20 @@
       </c>
       <c r="D27" s="4">
         <f t="shared" si="1"/>
-        <v>415783008023215.69</v>
+        <v>4157830080232.1567</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="2"/>
-        <v>146.18866736865237</v>
+        <v>126.18866736865236</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="4">
         <f t="shared" si="3"/>
-        <v>4.8102013824680588E-14</v>
-      </c>
-      <c r="H27" s="7">
+        <v>1.2025503456170147E-12</v>
+      </c>
+      <c r="H27" s="6">
         <f t="shared" si="4"/>
-        <v>-103.17836741201255</v>
+        <v>-89.198967325292173</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -6836,20 +6843,20 @@
       </c>
       <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>538247016569075.69</v>
+        <v>5382470165690.7568</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="2"/>
-        <v>147.30981631266212</v>
+        <v>127.30981631266211</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="4">
         <f t="shared" si="3"/>
-        <v>3.7157660673133169E-14</v>
-      </c>
-      <c r="H28" s="7">
+        <v>9.2894151682832913E-13</v>
+      </c>
+      <c r="H28" s="6">
         <f t="shared" si="4"/>
-        <v>-104.29951635602229</v>
+        <v>-90.32011626930192</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -6865,20 +6872,20 @@
       </c>
       <c r="D29" s="4">
         <f t="shared" si="1"/>
-        <v>685957780011989.88</v>
+        <v>6859577800119.8994</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="2"/>
-        <v>148.36297386155607</v>
+        <v>128.36297386155607</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="4">
         <f t="shared" si="3"/>
-        <v>2.9156313380759992E-14</v>
-      </c>
-      <c r="H29" s="7">
+        <v>7.2890783451899974E-13</v>
+      </c>
+      <c r="H29" s="6">
         <f t="shared" si="4"/>
-        <v>-105.35267390491626</v>
+        <v>-91.373273818195884</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -6894,20 +6901,20 @@
       </c>
       <c r="D30" s="4">
         <f t="shared" si="1"/>
-        <v>862167645436939.75</v>
+        <v>8621676454369.3984</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="2"/>
-        <v>149.35591721055735</v>
+        <v>129.35591721055735</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
-        <v>2.3197344629957851E-14</v>
-      </c>
-      <c r="H30" s="7">
+        <v>5.7993361574894623E-13</v>
+      </c>
+      <c r="H30" s="6">
         <f t="shared" si="4"/>
-        <v>-106.34561725391754</v>
+        <v>-92.366217167197163</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -6923,20 +6930,20 @@
       </c>
       <c r="D31" s="4">
         <f t="shared" si="1"/>
-        <v>1070326071873451.4</v>
+        <v>10703260718734.516</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="2"/>
-        <v>150.29516104453828</v>
+        <v>130.29516104453828</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="4">
         <f t="shared" si="3"/>
-        <v>1.8685894444291061E-14</v>
-      </c>
-      <c r="H31" s="7">
+        <v>4.6714736110727642E-13</v>
+      </c>
+      <c r="H31" s="6">
         <f t="shared" si="4"/>
-        <v>-107.28486108789846</v>
+        <v>-93.305461001178088</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -6952,20 +6959,20 @@
       </c>
       <c r="D32" s="4">
         <f t="shared" si="1"/>
-        <v>1314079630295595</v>
+        <v>13140796302955.951</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="2"/>
-        <v>151.18621683298437</v>
+        <v>131.18621683298437</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="4">
         <f t="shared" si="3"/>
-        <v>1.5219777811715344E-14</v>
-      </c>
-      <c r="H32" s="7">
+        <v>3.8049444529288356E-13</v>
+      </c>
+      <c r="H32" s="6">
         <f t="shared" si="4"/>
-        <v>-108.17591687634454</v>
+        <v>-94.19651678962417</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -6981,20 +6988,20 @@
       </c>
       <c r="D33" s="4">
         <f t="shared" si="1"/>
-        <v>1597272003621985</v>
+        <v>15972720036219.852</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="2"/>
-        <v>152.0337887957819</v>
+        <v>132.0337887957819</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="4">
         <f t="shared" si="3"/>
-        <v>1.2521348871480788E-14</v>
-      </c>
-      <c r="H33" s="7">
+        <v>3.1303372178701968E-13</v>
+      </c>
+      <c r="H33" s="6">
         <f t="shared" si="4"/>
-        <v>-109.02348883914208</v>
+        <v>-95.0440887524217</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -7010,20 +7017,20 @@
       </c>
       <c r="D34" s="4">
         <f t="shared" si="1"/>
-        <v>1923943986715780.5</v>
+        <v>19239439867157.809</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="2"/>
-        <v>152.84192423931336</v>
+        <v>132.84192423931336</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="4">
         <f t="shared" si="3"/>
-        <v>1.0395313033068333E-14</v>
-      </c>
-      <c r="H34" s="7">
+        <v>2.5988282582670827E-13</v>
+      </c>
+      <c r="H34" s="6">
         <f t="shared" si="4"/>
-        <v>-109.83162428267354</v>
+        <v>-95.852224195953184</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -7039,20 +7046,20 @@
       </c>
       <c r="D35" s="4">
         <f t="shared" si="1"/>
-        <v>2298333486384685</v>
+        <v>22983334863846.848</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="2"/>
-        <v>153.61413044712884</v>
+        <v>133.61413044712884</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="4">
         <f t="shared" si="3"/>
-        <v>8.7019573610530816E-15</v>
-      </c>
-      <c r="H35" s="7">
+        <v>2.1754893402632702E-13</v>
+      </c>
+      <c r="H35" s="6">
         <f t="shared" si="4"/>
-        <v>-110.60383049048902</v>
+        <v>-96.624430403768642</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -7068,20 +7075,20 @@
       </c>
       <c r="D36" s="4">
         <f t="shared" si="1"/>
-        <v>2724875521380946</v>
+        <v>27248755213809.461</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="2"/>
-        <v>154.35346667488938</v>
+        <v>134.35346667488938</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="4">
         <f t="shared" si="3"/>
-        <v>7.3397848243226006E-15</v>
-      </c>
-      <c r="H36" s="7">
+        <v>1.83494620608065E-13</v>
+      </c>
+      <c r="H36" s="6">
         <f t="shared" si="4"/>
-        <v>-111.34316671824955</v>
+        <v>-97.363766631529174</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -7097,20 +7104,20 @@
       </c>
       <c r="D37" s="4">
         <f t="shared" si="1"/>
-        <v>3208202222401355</v>
+        <v>32082022224013.551</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="2"/>
-        <v>155.06261735330662</v>
+        <v>135.06261735330662</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
-        <v>6.2340209916786054E-15</v>
-      </c>
-      <c r="H37" s="7">
+        <v>1.5585052479196512E-13</v>
+      </c>
+      <c r="H37" s="6">
         <f t="shared" si="4"/>
-        <v>-112.05231739666681</v>
+        <v>-98.072917309946433</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -7126,20 +7133,20 @@
       </c>
       <c r="D38" s="4">
         <f t="shared" si="1"/>
-        <v>3753142832087248.5</v>
+        <v>37531428320872.484</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="2"/>
-        <v>155.74395092525782</v>
+        <v>135.74395092525782</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
-        <v>5.3288672706541596E-15</v>
-      </c>
-      <c r="H38" s="7">
+        <v>1.3322168176635399E-13</v>
+      </c>
+      <c r="H38" s="6">
         <f t="shared" si="4"/>
-        <v>-112.73365096861802</v>
+        <v>-98.754250881897647</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -7155,20 +7162,20 @@
       </c>
       <c r="D39" s="4">
         <f t="shared" si="1"/>
-        <v>4364723705024508.5</v>
+        <v>43647237050245.086</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="2"/>
-        <v>156.3995675727846</v>
+        <v>136.3995675727846</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
-        <v>4.5821915318435255E-15</v>
-      </c>
-      <c r="H39" s="7">
+        <v>1.1455478829608812E-13</v>
+      </c>
+      <c r="H39" s="6">
         <f t="shared" si="4"/>
-        <v>-113.38926761614479</v>
+        <v>-99.409867529424417</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -7184,20 +7191,20 @@
       </c>
       <c r="D40" s="4">
         <f t="shared" si="1"/>
-        <v>5048168307743557</v>
+        <v>50481683077435.578</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="2"/>
-        <v>157.0313382601139</v>
+        <v>137.0313382601139</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
-        <v>3.9618330413669683E-15</v>
-      </c>
-      <c r="H40" s="7">
+        <v>9.9045826034174198E-14</v>
+      </c>
+      <c r="H40" s="6">
         <f t="shared" si="4"/>
-        <v>-114.02103830347407</v>
+        <v>-100.0416382167537</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -7213,20 +7220,20 @@
       </c>
       <c r="D41" s="4">
         <f t="shared" si="1"/>
-        <v>5808897218719367</v>
+        <v>58088972187193.672</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="2"/>
-        <v>157.64093692238336</v>
+        <v>137.64093692238336</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="4">
         <f t="shared" si="3"/>
-        <v>3.4429942977041024E-15</v>
-      </c>
-      <c r="H41" s="7">
+        <v>8.6074857442602549E-14</v>
+      </c>
+      <c r="H41" s="6">
         <f t="shared" si="4"/>
-        <v>-114.63063696574353</v>
+        <v>-100.65123687902316</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -7242,20 +7249,20 @@
       </c>
       <c r="D42" s="4">
         <f t="shared" si="1"/>
-        <v>6652528128371451</v>
+        <v>66525281283714.508</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="2"/>
-        <v>158.22986719521163</v>
+        <v>138.22986719521163</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="4">
         <f t="shared" si="3"/>
-        <v>3.0063758640425367E-15</v>
-      </c>
-      <c r="H42" s="7">
+        <v>7.5159396601063416E-14</v>
+      </c>
+      <c r="H42" s="6">
         <f t="shared" si="4"/>
-        <v>-115.2195672385718</v>
+        <v>-101.24016715185142</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -7271,20 +7278,20 @@
       </c>
       <c r="D43" s="4">
         <f t="shared" si="1"/>
-        <v>7584875839063864</v>
+        <v>75848758390638.641</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="2"/>
-        <v>158.799484759796</v>
+        <v>138.799484759796</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="4">
         <f t="shared" si="3"/>
-        <v>2.6368262875175066E-15</v>
-      </c>
-      <c r="H43" s="7">
+        <v>6.5920657187937667E-14</v>
+      </c>
+      <c r="H43" s="6">
         <f t="shared" si="4"/>
-        <v>-115.7891848031562</v>
+        <v>-101.80978471643583</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -7300,20 +7307,20 @@
       </c>
       <c r="D44" s="4">
         <f t="shared" si="1"/>
-        <v>8611952265105211</v>
+        <v>86119522651052.109</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="2"/>
-        <v>159.35101613922137</v>
+        <v>139.35101613922137</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="4">
         <f t="shared" si="3"/>
-        <v>2.3223537920708231E-15</v>
-      </c>
-      <c r="H44" s="7">
+        <v>5.805884480177057E-14</v>
+      </c>
+      <c r="H44" s="6">
         <f t="shared" si="4"/>
-        <v>-116.34071618258155</v>
+        <v>-102.36131609586117</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -7329,20 +7336,20 @@
       </c>
       <c r="D45" s="4">
         <f t="shared" si="1"/>
-        <v>9739966432748640</v>
+        <v>97399664327486.406</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="2"/>
-        <v>159.88557460154061</v>
+        <v>139.88557460154061</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
-        <v>2.0533951670258432E-15</v>
-      </c>
-      <c r="H45" s="7">
+        <v>5.1334879175646077E-14</v>
+      </c>
+      <c r="H45" s="6">
         <f t="shared" si="4"/>
-        <v>-116.8752746449008</v>
+        <v>-102.89587455818042</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -7358,20 +7365,20 @@
       </c>
       <c r="D46" s="4">
         <f t="shared" si="1"/>
-        <v>1.0975324480191838E+16</v>
+        <v>109753244801918.39</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="2"/>
-        <v>160.40417368811532</v>
+        <v>140.40417368811532</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="4">
         <f t="shared" si="3"/>
-        <v>1.8222695862974995E-15</v>
-      </c>
-      <c r="H46" s="7">
+        <v>4.5556739657437484E-14</v>
+      </c>
+      <c r="H46" s="6">
         <f t="shared" si="4"/>
-        <v>-117.39387373147551</v>
+        <v>-103.41447364475513</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -7387,20 +7394,20 @@
       </c>
       <c r="D47" s="4">
         <f t="shared" si="1"/>
-        <v>1.2324629657577044E+16</v>
+        <v>123246296575770.45</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="2"/>
-        <v>160.90773878043615</v>
+        <v>140.90773878043615</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="4">
         <f t="shared" si="3"/>
-        <v>1.6227668137439103E-15</v>
-      </c>
-      <c r="H47" s="7">
+        <v>4.0569170343597754E-14</v>
+      </c>
+      <c r="H47" s="6">
         <f t="shared" si="4"/>
-        <v>-117.89743882379632</v>
+        <v>-103.91803873707595</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -7416,20 +7423,20 @@
       </c>
       <c r="D48" s="4">
         <f t="shared" si="1"/>
-        <v>1.3794682326991036E+16</v>
+        <v>137946823269910.38</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="2"/>
-        <v>161.39711703711663</v>
+        <v>141.3971170371166</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="4">
         <f t="shared" si="3"/>
-        <v>1.4498340393723657E-15</v>
-      </c>
-      <c r="H48" s="7">
+        <v>3.6245850984309139E-14</v>
+      </c>
+      <c r="H48" s="6">
         <f t="shared" si="4"/>
-        <v>-118.38681708047679</v>
+        <v>-104.40741699375641</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -7445,20 +7452,20 @@
       </c>
       <c r="D49" s="4">
         <f t="shared" si="1"/>
-        <v>1.539247996246514E+16</v>
+        <v>153924799624651.44</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="2"/>
-        <v>161.87308596910492</v>
+        <v>141.87308596910492</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="4">
         <f t="shared" si="3"/>
-        <v>1.2993357827179497E-15</v>
-      </c>
-      <c r="H49" s="7">
+        <v>3.2483394567948738E-14</v>
+      </c>
+      <c r="H49" s="6">
         <f t="shared" si="4"/>
-        <v>-118.86278601246509</v>
+        <v>-104.88338592574472</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -7474,20 +7481,20 @@
       </c>
       <c r="D50" s="4">
         <f t="shared" si="1"/>
-        <v>1.7125217149975222E+16</v>
+        <v>171252171499752.25</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="2"/>
-        <v>162.3363608710975</v>
+        <v>142.3363608710975</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="4">
         <f t="shared" si="3"/>
-        <v>1.1678684027681913E-15</v>
-      </c>
-      <c r="H50" s="7">
+        <v>2.9196710069204776E-14</v>
+      </c>
+      <c r="H50" s="6">
         <f t="shared" si="4"/>
-        <v>-119.3260609144577</v>
+        <v>-105.34666082773732</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -7503,20 +7510,20 @@
       </c>
       <c r="D51" s="4">
         <f t="shared" si="1"/>
-        <v>1.9000285587441696E+16</v>
+        <v>190002855874417</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="2"/>
-        <v>162.78760128748507</v>
+        <v>142.78760128748507</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="4">
         <f t="shared" si="3"/>
-        <v>1.0526157571662538E-15</v>
-      </c>
-      <c r="H51" s="7">
+        <v>2.6315393929156338E-14</v>
+      </c>
+      <c r="H51" s="6">
         <f t="shared" si="4"/>
-        <v>-119.77730133084528</v>
+        <v>-105.7979012441249</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -7532,20 +7539,20 @@
       </c>
       <c r="D52" s="4">
         <f t="shared" si="1"/>
-        <v>2.102527408472952E+16</v>
+        <v>210252740847295.22</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="2"/>
-        <v>163.22741665954362</v>
+        <v>143.22741665954362</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="4">
         <f t="shared" si="3"/>
-        <v>9.5123611323220902E-16</v>
-      </c>
-      <c r="H52" s="7">
+        <v>2.3780902830805222E-14</v>
+      </c>
+      <c r="H52" s="6">
         <f t="shared" si="4"/>
-        <v>-120.21711670290379</v>
+        <v>-106.23771661618342</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -7561,20 +7568,20 @@
       </c>
       <c r="D53" s="4">
         <f t="shared" si="1"/>
-        <v>2.3207968563648192E+16</v>
+        <v>232079685636481.97</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="2"/>
-        <v>163.65637127521452</v>
+        <v>143.65637127521452</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="4">
         <f t="shared" si="3"/>
-        <v>8.6177297013953239E-16</v>
-      </c>
-      <c r="H53" s="7">
+        <v>2.1544324253488306E-14</v>
+      </c>
+      <c r="H53" s="6">
         <f t="shared" si="4"/>
-        <v>-120.64607131857471</v>
+        <v>-106.66667123185434</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -7590,20 +7597,20 @@
       </c>
       <c r="D54" s="4">
         <f t="shared" si="1"/>
-        <v>2.555635205795176E+16</v>
+        <v>255563520579517.63</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="2"/>
-        <v>164.07498862234115</v>
+        <v>144.07498862234115</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="4">
         <f t="shared" si="3"/>
-        <v>7.8258430446754926E-16</v>
-      </c>
-      <c r="H54" s="7">
+        <v>1.956460761168873E-14</v>
+      </c>
+      <c r="H54" s="6">
         <f t="shared" si="4"/>
-        <v>-121.06468866570133</v>
+        <v>-107.08528857898095</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -7619,20 +7626,20 @@
       </c>
       <c r="D55" s="4">
         <f t="shared" si="1"/>
-        <v>2.8078604713338812E+16</v>
+        <v>280786047133388.16</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" si="2"/>
-        <v>164.48375522960859</v>
+        <v>144.48375522960856</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="4">
         <f t="shared" si="3"/>
-        <v>7.1228610553069789E-16</v>
-      </c>
-      <c r="H55" s="7">
+        <v>1.7807152638267444E-14</v>
+      </c>
+      <c r="H55" s="6">
         <f t="shared" si="4"/>
-        <v>-121.47345527296876</v>
+        <v>-107.49405518624839</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -7648,20 +7655,20 @@
       </c>
       <c r="D56" s="4">
         <f t="shared" si="1"/>
-        <v>3.0783103787452488E+16</v>
+        <v>307831037874524.94</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" si="2"/>
-        <v>164.88312406587261</v>
+        <v>144.88312406587261</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="4">
         <f t="shared" si="3"/>
-        <v>6.497070645667708E-16</v>
-      </c>
-      <c r="H56" s="7">
+        <v>1.6242676614169267E-14</v>
+      </c>
+      <c r="H56" s="6">
         <f t="shared" si="4"/>
-        <v>-121.87282410923279</v>
+        <v>-107.89342402251242</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -7677,20 +7684,20 @@
       </c>
       <c r="D57" s="4">
         <f t="shared" si="1"/>
-        <v>3.3678423649880468E+16</v>
+        <v>336784236498804.69</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" si="2"/>
-        <v>165.27351755743888</v>
+        <v>145.27351755743888</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="4">
         <f t="shared" si="3"/>
-        <v>5.9385202252692087E-16</v>
-      </c>
-      <c r="H57" s="7">
+        <v>1.4846300563173021E-14</v>
+      </c>
+      <c r="H57" s="6">
         <f t="shared" si="4"/>
-        <v>-122.26321760079905</v>
+        <v>-108.28381751407868</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -7706,20 +7713,20 @@
       </c>
       <c r="D58" s="4">
         <f t="shared" si="1"/>
-        <v>3.677333578215496E+16</v>
+        <v>367733357821549.56</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="2"/>
-        <v>165.65533027368809</v>
+        <v>145.65533027368809</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="4">
         <f t="shared" si="3"/>
-        <v>5.438723350658176E-16</v>
-      </c>
-      <c r="H58" s="7">
+        <v>1.3596808376645439E-14</v>
+      </c>
+      <c r="H58" s="6">
         <f t="shared" si="4"/>
-        <v>-122.64503031704827</v>
+        <v>-108.66563023032789</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -7735,20 +7742,20 @@
       </c>
       <c r="D59" s="4">
         <f t="shared" si="1"/>
-        <v>4.0076808777752744E+16</v>
+        <v>400768087777527.5</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="2"/>
-        <v>166.02893132385384</v>
+        <v>146.02893132385381</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="4">
         <f t="shared" si="3"/>
-        <v>4.9904173036607416E-16</v>
-      </c>
-      <c r="H59" s="7">
+        <v>1.2476043259151853E-14</v>
+      </c>
+      <c r="H59" s="6">
         <f t="shared" si="4"/>
-        <v>-123.018631367214</v>
+        <v>-109.03923128049362</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -7764,20 +7771,20 @@
       </c>
       <c r="D60" s="4">
         <f t="shared" si="1"/>
-        <v>4.3598008342095136E+16</v>
+        <v>435980083420951.38</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" si="2"/>
-        <v>166.39466650144863</v>
+        <v>146.3946665014486</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="4">
         <f t="shared" si="3"/>
-        <v>4.5873655152016254E-16</v>
-      </c>
-      <c r="H60" s="7">
+        <v>1.1468413788004063E-14</v>
+      </c>
+      <c r="H60" s="6">
         <f t="shared" si="4"/>
-        <v>-123.38436654480878</v>
+        <v>-109.40496645808841</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -7793,20 +7800,20 @@
       </c>
       <c r="D61" s="4">
         <f t="shared" si="1"/>
-        <v>4.7346297292547976E+16</v>
+        <v>473462972925479.81</v>
       </c>
       <c r="E61" s="5">
         <f t="shared" si="2"/>
-        <v>166.75286020756567</v>
+        <v>146.75286020756567</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="4">
         <f t="shared" si="3"/>
-        <v>4.2241951628069301E-16</v>
-      </c>
-      <c r="H61" s="7">
+        <v>1.0560487907017323E-14</v>
+      </c>
+      <c r="H61" s="6">
         <f t="shared" si="4"/>
-        <v>-123.74256025092585</v>
+        <v>-109.76316016420547</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -7822,20 +7829,20 @@
       </c>
       <c r="D62" s="4">
         <f t="shared" si="1"/>
-        <v>5.133123555842168E+16</v>
+        <v>513312355584216.81</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" si="2"/>
-        <v>167.10381717986587</v>
+        <v>147.10381717986587</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="4">
         <f t="shared" si="3"/>
-        <v>3.8962631197991284E-16</v>
-      </c>
-      <c r="H62" s="7">
+        <v>9.7406577994978202E-15</v>
+      </c>
+      <c r="H62" s="6">
         <f t="shared" si="4"/>
-        <v>-124.09351722322606</v>
+        <v>-110.11411713650567</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -7851,20 +7858,20 @@
       </c>
       <c r="D63" s="4">
         <f t="shared" si="1"/>
-        <v>5.5562580180971184E+16</v>
+        <v>555625801809711.94</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" si="2"/>
-        <v>167.44782405034258</v>
+        <v>147.44782405034258</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="4">
         <f t="shared" si="3"/>
-        <v>3.599544861822221E-16</v>
-      </c>
-      <c r="H63" s="7">
+        <v>8.9988621545555511E-15</v>
+      </c>
+      <c r="H63" s="6">
         <f t="shared" si="4"/>
-        <v>-124.43752409370276</v>
+        <v>-110.45812400698239</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -7880,20 +7887,20 @@
       </c>
       <c r="D64" s="4">
         <f t="shared" si="1"/>
-        <v>6.0050285313395976E+16</v>
+        <v>600502853133959.75</v>
       </c>
       <c r="E64" s="5">
         <f t="shared" si="2"/>
-        <v>167.78515075181707</v>
+        <v>147.78515075181707</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="4">
         <f t="shared" si="3"/>
-        <v>3.3305420441588498E-16</v>
-      </c>
-      <c r="H64" s="7">
+        <v>8.3263551103971244E-15</v>
+      </c>
+      <c r="H64" s="6">
         <f t="shared" si="4"/>
-        <v>-124.77485079517727</v>
+        <v>-110.7954507084569</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -7909,20 +7916,20 @@
       </c>
       <c r="D65" s="4">
         <f t="shared" si="1"/>
-        <v>6.4804502220840096E+16</v>
+        <v>648045022208401.13</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" si="2"/>
-        <v>168.11605179045668</v>
+        <v>148.11605179045668</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="4">
         <f t="shared" si="3"/>
-        <v>3.0862053275008905E-16</v>
-      </c>
-      <c r="H65" s="7">
+        <v>7.7155133187522248E-15</v>
+      </c>
+      <c r="H65" s="6">
         <f t="shared" si="4"/>
-        <v>-125.10575183381687</v>
+        <v>-111.12635174709649</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -7938,20 +7945,20 @@
       </c>
       <c r="D66" s="4">
         <f t="shared" si="1"/>
-        <v>6.9835579280392136E+16</v>
+        <v>698355792803921.38</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" si="2"/>
-        <v>168.44076739934388</v>
+        <v>148.44076739934386</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="4">
         <f t="shared" si="3"/>
-        <v>2.8638697074022034E-16</v>
-      </c>
-      <c r="H66" s="7">
+        <v>7.1596742685055076E-15</v>
+      </c>
+      <c r="H66" s="6">
         <f t="shared" si="4"/>
-        <v>-125.43046744270404</v>
+        <v>-111.45106735598367</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -7967,20 +7974,20 @@
       </c>
       <c r="D67" s="4">
         <f t="shared" si="1"/>
-        <v>7.5154061981085184E+16</v>
+        <v>751540619810851.88</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" si="2"/>
-        <v>168.75952458619486</v>
+        <v>148.75952458619486</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="4">
         <f t="shared" si="3"/>
-        <v>2.6612001364654929E-16</v>
-      </c>
-      <c r="H67" s="7">
+        <v>6.6530003411637313E-15</v>
+      </c>
+      <c r="H67" s="6">
         <f t="shared" si="4"/>
-        <v>-125.74922462955506</v>
+        <v>-111.76982454283468</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -7996,20 +8003,20 @@
       </c>
       <c r="D68" s="4">
         <f t="shared" si="1"/>
-        <v>8.0770692923896912E+16</v>
+        <v>807706929238969.25</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" si="2"/>
-        <v>169.07253808667315</v>
+        <v>149.07253808667315</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="4">
         <f t="shared" si="3"/>
-        <v>2.4761456508543552E-16</v>
-      </c>
-      <c r="H68" s="7">
+        <v>6.1903641271358874E-15</v>
+      </c>
+      <c r="H68" s="6">
         <f t="shared" si="4"/>
-        <v>-126.06223813003332</v>
+        <v>-112.08283804331295</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -8025,20 +8032,20 @@
       </c>
       <c r="D69" s="4">
         <f t="shared" si="1"/>
-        <v>8.6696411821749568E+16</v>
+        <v>866964118217495.88</v>
       </c>
       <c r="E69" s="5">
         <f t="shared" si="2"/>
-        <v>169.38001123332475</v>
+        <v>149.38001123332475</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="4">
         <f t="shared" si="3"/>
-        <v>2.3069005486779085E-16</v>
-      </c>
-      <c r="H69" s="7">
+        <v>5.7672513716947704E-15</v>
+      </c>
+      <c r="H69" s="6">
         <f t="shared" si="4"/>
-        <v>-126.36971127668495</v>
+        <v>-112.39031118996458</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -8054,20 +8061,20 @@
       </c>
       <c r="D70" s="4">
         <f t="shared" si="1"/>
-        <v>9.2942355499509872E+16</v>
+        <v>929423554995098.75</v>
       </c>
       <c r="E70" s="5">
         <f t="shared" si="2"/>
-        <v>169.68213674894261</v>
+        <v>149.68213674894261</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="4">
         <f t="shared" si="3"/>
-        <v>2.151871436065064E-16</v>
-      </c>
-      <c r="H70" s="7">
+        <v>5.3796785901626593E-15</v>
+      </c>
+      <c r="H70" s="6">
         <f t="shared" si="4"/>
-        <v>-126.67183679230278</v>
+        <v>-112.69243670558241</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -8083,20 +8090,20 @@
       </c>
       <c r="D71" s="4">
         <f t="shared" si="1"/>
-        <v>9.9519857893989136E+16</v>
+        <v>995198578939891.5</v>
       </c>
       <c r="E71" s="5">
         <f t="shared" si="2"/>
-        <v>169.97909747211088</v>
+        <v>149.97909747211088</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="4">
         <f t="shared" si="3"/>
-        <v>2.009649171857185E-16</v>
-      </c>
-      <c r="H71" s="7">
+        <v>5.0241229296429619E-15</v>
+      </c>
+      <c r="H71" s="6">
         <f t="shared" si="4"/>
-        <v>-126.96879751547107</v>
+        <v>-112.98939742875069</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -8112,20 +8119,20 @@
       </c>
       <c r="D72" s="4">
         <f t="shared" si="1"/>
-        <v>1.0644045005394322E+17</v>
+        <v>1064404500539432.1</v>
       </c>
       <c r="E72" s="5">
         <f t="shared" si="2"/>
-        <v>170.27106702177088</v>
+        <v>150.27106702177088</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="4">
         <f t="shared" si="3"/>
-        <v>1.8789849150265855E-16</v>
-      </c>
-      <c r="H72" s="7">
+        <v>4.6974622875664635E-15</v>
+      </c>
+      <c r="H72" s="6">
         <f t="shared" si="4"/>
-        <v>-127.26076706513105</v>
+        <v>-113.28136697841067</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -8141,20 +8148,20 @@
       </c>
       <c r="D73" s="4">
         <f t="shared" si="1"/>
-        <v>1.1371586014007243E+17</v>
+        <v>1137158601400724.3</v>
       </c>
       <c r="E73" s="5">
         <f t="shared" si="2"/>
-        <v>170.55821040685578</v>
+        <v>150.55821040685578</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="4">
         <f t="shared" si="3"/>
-        <v>1.758769618887329E-16</v>
-      </c>
-      <c r="H73" s="7">
+        <v>4.3969240472183223E-15</v>
+      </c>
+      <c r="H73" s="6">
         <f t="shared" si="4"/>
-        <v>-127.54791045021598</v>
+        <v>-113.56851036349561</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -8170,20 +8177,20 @@
       </c>
       <c r="D74" s="4">
         <f t="shared" si="1"/>
-        <v>1.2135801342502182E+17</v>
+        <v>1213580134250218.3</v>
       </c>
       <c r="E74" s="5">
         <f t="shared" si="2"/>
-        <v>170.84068458635528</v>
+        <v>150.84068458635525</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="4">
         <f t="shared" si="3"/>
-        <v>1.6480164296984416E-16</v>
-      </c>
-      <c r="H74" s="7">
+        <v>4.1200410742461042E-15</v>
+      </c>
+      <c r="H74" s="6">
         <f t="shared" si="4"/>
-        <v>-127.83038462971545</v>
+        <v>-113.85098454299508</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -8199,20 +8206,20 @@
       </c>
       <c r="D75" s="4">
         <f t="shared" si="1"/>
-        <v>1.2937903229338078E+17</v>
+        <v>1293790322933808</v>
       </c>
       <c r="E75" s="5">
         <f t="shared" si="2"/>
-        <v>171.11863898456841</v>
+        <v>151.11863898456838</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="4">
         <f t="shared" si="3"/>
-        <v>1.5458455396889863E-16</v>
-      </c>
-      <c r="H75" s="7">
+        <v>3.8646138492224652E-15</v>
+      </c>
+      <c r="H75" s="6">
         <f t="shared" si="4"/>
-        <v>-128.10833902792857</v>
+        <v>-114.12893894120819</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -8228,20 +8235,20 @@
       </c>
       <c r="D76" s="4">
         <f t="shared" si="1"/>
-        <v>1.3779123624168338E+17</v>
+        <v>1377912362416833.8</v>
       </c>
       <c r="E76" s="5">
         <f t="shared" si="2"/>
-        <v>171.39221596578062</v>
+        <v>151.39221596578062</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="4">
         <f t="shared" si="3"/>
-        <v>1.4514711200442644E-16</v>
-      </c>
-      <c r="H76" s="7">
+        <v>3.6286778001106606E-15</v>
+      </c>
+      <c r="H76" s="6">
         <f t="shared" si="4"/>
-        <v>-128.38191600914081</v>
+        <v>-114.40251592242042</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -8257,20 +8264,20 @@
       </c>
       <c r="D77" s="4">
         <f t="shared" si="1"/>
-        <v>1.4660714187840816E+17</v>
+        <v>1466071418784081.5</v>
       </c>
       <c r="E77" s="5">
         <f t="shared" si="2"/>
-        <v>171.66155127213932</v>
+        <v>151.66155127213932</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="4">
         <f t="shared" si="3"/>
-        <v>1.3641900212874649E-16</v>
-      </c>
-      <c r="H77" s="7">
+        <v>3.410475053218662E-15</v>
+      </c>
+      <c r="H77" s="6">
         <f t="shared" si="4"/>
-        <v>-128.65125131549951</v>
+        <v>-114.67185122877915</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -8286,20 +8293,20 @@
       </c>
       <c r="D78" s="4">
         <f t="shared" ref="D78:D112" si="6">$B$4/G78</f>
-        <v>1.5583946292397824E+17</v>
+        <v>1558394629239782.5</v>
       </c>
       <c r="E78" s="5">
         <f t="shared" ref="E78:E112" si="7">10*LOG(D78)</f>
-        <v>171.92677442809986</v>
+        <v>151.92677442809986</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="4">
         <f t="shared" ref="G78:G112" si="8">($B$4*$B$5*$B$6*$B$7*($B$8^2))/(((4*PI())^3)*(B78^2)*(A78^2))</f>
-        <v>1.283371979391152E-16</v>
-      </c>
-      <c r="H78" s="7">
+        <v>3.2084299484778798E-15</v>
+      </c>
+      <c r="H78" s="6">
         <f t="shared" ref="H78:H112" si="9">10*LOG10(G78*1000)</f>
-        <v>-128.91647447146005</v>
+        <v>-114.93707438473967</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -8315,20 +8322,20 @@
       </c>
       <c r="D79" s="4">
         <f t="shared" si="6"/>
-        <v>1.6550111021076125E+17</v>
+        <v>1655011102107612.8</v>
       </c>
       <c r="E79" s="5">
         <f t="shared" si="7"/>
-        <v>172.18800911445817</v>
+        <v>152.18800911445817</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="4">
         <f t="shared" si="8"/>
-        <v>1.2084511079430545E-16</v>
-      </c>
-      <c r="H79" s="7">
+        <v>3.0211277698576357E-15</v>
+      </c>
+      <c r="H79" s="6">
         <f t="shared" si="9"/>
-        <v>-129.17770915781836</v>
+        <v>-115.19830907109798</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -8344,20 +8351,20 @@
       </c>
       <c r="D80" s="4">
         <f t="shared" si="6"/>
-        <v>1.7560519168306941E+17</v>
+        <v>1756051916830694.3</v>
       </c>
       <c r="E80" s="5">
         <f t="shared" si="7"/>
-        <v>172.44537351467457</v>
+        <v>152.44537351467457</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="4">
         <f t="shared" si="8"/>
-        <v>1.1389184914359372E-16</v>
-      </c>
-      <c r="H80" s="7">
+        <v>2.8472962285898427E-15</v>
+      </c>
+      <c r="H80" s="6">
         <f t="shared" si="9"/>
-        <v>-129.43507355803476</v>
+        <v>-115.45567347131438</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -8373,20 +8380,20 @@
       </c>
       <c r="D81" s="4">
         <f t="shared" si="6"/>
-        <v>1.8616501239715949E+17</v>
+        <v>1861650123971595</v>
       </c>
       <c r="E81" s="5">
         <f t="shared" si="7"/>
-        <v>172.69898063591535</v>
+        <v>152.69898063591535</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="4">
         <f t="shared" si="8"/>
-        <v>1.0743157235868001E-16</v>
-      </c>
-      <c r="H81" s="7">
+        <v>2.685789308967E-15</v>
+      </c>
+      <c r="H81" s="6">
         <f t="shared" si="9"/>
-        <v>-129.68868067927554</v>
+        <v>-115.70928059255515</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -8402,20 +8409,20 @@
       </c>
       <c r="D82" s="4">
         <f t="shared" si="6"/>
-        <v>1.971940745212327E+17</v>
+        <v>1971940745212327.3</v>
       </c>
       <c r="E82" s="5">
         <f t="shared" si="7"/>
-        <v>172.9489386069954</v>
+        <v>152.9489386069954</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="4">
         <f t="shared" si="8"/>
-        <v>1.0142292585899439E-16</v>
-      </c>
-      <c r="H82" s="7">
+        <v>2.5355731464748596E-15</v>
+      </c>
+      <c r="H82" s="6">
         <f t="shared" si="9"/>
-        <v>-129.93863865035559</v>
+        <v>-115.9592385636352</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -8431,20 +8438,20 @@
       </c>
       <c r="D83" s="4">
         <f t="shared" si="6"/>
-        <v>2.0870607733543498E+17</v>
+        <v>2087060773354350</v>
       </c>
       <c r="E83" s="5">
         <f t="shared" si="7"/>
-        <v>173.19535095518813</v>
+        <v>153.19535095518813</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="4">
         <f t="shared" si="8"/>
-        <v>9.5828546323812864E-17</v>
-      </c>
-      <c r="H83" s="7">
+        <v>2.3957136580953211E-15</v>
+      </c>
+      <c r="H83" s="6">
         <f t="shared" si="9"/>
-        <v>-130.18505099854832</v>
+        <v>-116.20565091182795</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -8460,20 +8467,20 @@
       </c>
       <c r="D84" s="4">
         <f t="shared" si="6"/>
-        <v>2.2071491723185658E+17</v>
+        <v>2207149172318566</v>
       </c>
       <c r="E84" s="5">
         <f t="shared" si="7"/>
-        <v>173.43831686367588</v>
+        <v>153.43831686367585</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="4">
         <f t="shared" si="8"/>
-        <v>9.0614627460772856E-17</v>
-      </c>
-      <c r="H84" s="7">
+        <v>2.2653656865193212E-15</v>
+      </c>
+      <c r="H84" s="6">
         <f t="shared" si="9"/>
-        <v>-130.42801690703604</v>
+        <v>-116.44861682031566</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -8489,20 +8496,20 @@
       </c>
       <c r="D85" s="4">
         <f t="shared" si="6"/>
-        <v>2.3323468771453254E+17</v>
+        <v>2332346877145325.5</v>
       </c>
       <c r="E85" s="5">
         <f t="shared" si="7"/>
-        <v>173.67793141124335</v>
+        <v>153.67793141124335</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="4">
         <f t="shared" si="8"/>
-        <v>8.5750538206731021E-17</v>
-      </c>
-      <c r="H85" s="7">
+        <v>2.1437634551682752E-15</v>
+      </c>
+      <c r="H85" s="6">
         <f t="shared" si="9"/>
-        <v>-130.66763145460354</v>
+        <v>-116.68823136788316</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -8518,20 +8525,20 @@
       </c>
       <c r="D86" s="4">
         <f t="shared" si="6"/>
-        <v>2.4627967939944224E+17</v>
+        <v>2462796793994423</v>
       </c>
       <c r="E86" s="5">
         <f t="shared" si="7"/>
-        <v>173.91428579566417</v>
+        <v>153.91428579566417</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="4">
         <f t="shared" si="8"/>
-        <v>8.1208486419871859E-17</v>
-      </c>
-      <c r="H86" s="7">
+        <v>2.0302121604967961E-15</v>
+      </c>
+      <c r="H86" s="6">
         <f t="shared" si="9"/>
-        <v>-130.90398583902436</v>
+        <v>-116.92458575230397</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -8547,20 +8554,20 @@
       </c>
       <c r="D87" s="4">
         <f t="shared" si="6"/>
-        <v>2.5986438001450973E+17</v>
+        <v>2598643800145098</v>
       </c>
       <c r="E87" s="5">
         <f t="shared" si="7"/>
-        <v>174.14746754209312</v>
+        <v>154.14746754209312</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="4">
         <f t="shared" si="8"/>
-        <v>7.6963222119488957E-17</v>
-      </c>
-      <c r="H87" s="7">
+        <v>1.9240805529872236E-15</v>
+      </c>
+      <c r="H87" s="6">
         <f t="shared" si="9"/>
-        <v>-131.13716758545331</v>
+        <v>-117.15776749873292</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -8576,20 +8583,20 @@
       </c>
       <c r="D88" s="4">
         <f t="shared" si="6"/>
-        <v>2.7400347439960355E+17</v>
+        <v>2740034743996036</v>
       </c>
       <c r="E88" s="5">
         <f t="shared" si="7"/>
-        <v>174.37756069765675</v>
+        <v>154.37756069765675</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="4">
         <f t="shared" si="8"/>
-        <v>7.2991775173011955E-17</v>
-      </c>
-      <c r="H88" s="7">
+        <v>1.8247943793252985E-15</v>
+      </c>
+      <c r="H88" s="6">
         <f t="shared" si="9"/>
-        <v>-131.36726074101693</v>
+        <v>-117.38786065429657</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -8605,20 +8612,20 @@
       </c>
       <c r="D89" s="4">
         <f t="shared" si="6"/>
-        <v>2.8871184450653683E+17</v>
+        <v>2887118445065369</v>
       </c>
       <c r="E89" s="5">
         <f t="shared" si="7"/>
-        <v>174.60464601332438</v>
+        <v>154.60464601332438</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="4">
         <f t="shared" si="8"/>
-        <v>6.927322304418713E-17</v>
-      </c>
-      <c r="H89" s="7">
+        <v>1.7318305761046781E-15</v>
+      </c>
+      <c r="H89" s="6">
         <f t="shared" si="9"/>
-        <v>-131.59434605668457</v>
+        <v>-117.6149459699642</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -8634,20 +8641,20 @@
       </c>
       <c r="D90" s="4">
         <f t="shared" si="6"/>
-        <v>3.0400456939906714E+17</v>
+        <v>3040045693990672</v>
       </c>
       <c r="E90" s="5">
         <f t="shared" si="7"/>
-        <v>174.82880111404432</v>
+        <v>154.82880111404432</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="4">
         <f t="shared" si="8"/>
-        <v>6.578848482289086E-17</v>
-      </c>
-      <c r="H90" s="7">
+        <v>1.6447121205722711E-15</v>
+      </c>
+      <c r="H90" s="6">
         <f t="shared" si="9"/>
-        <v>-131.81850115740451</v>
+        <v>-117.83910107068414</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -8663,20 +8670,20 @@
       </c>
       <c r="D91" s="4">
         <f t="shared" si="6"/>
-        <v>3.198969252528967E+17</v>
+        <v>3198969252528968</v>
       </c>
       <c r="E91" s="5">
         <f t="shared" si="7"/>
-        <v>175.05010065804277</v>
+        <v>155.05010065804277</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="4">
         <f t="shared" si="8"/>
-        <v>6.2520138273254306E-17</v>
-      </c>
-      <c r="H91" s="7">
+        <v>1.5630034568313573E-15</v>
+      </c>
+      <c r="H91" s="6">
         <f t="shared" si="9"/>
-        <v>-132.03980070140295</v>
+        <v>-118.06040061468258</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -8692,20 +8699,20 @@
       </c>
       <c r="D92" s="4">
         <f t="shared" si="6"/>
-        <v>3.3640438535567232E+17</v>
+        <v>3364043853556723.5</v>
       </c>
       <c r="E92" s="5">
         <f t="shared" si="7"/>
-        <v>175.26861648610287</v>
+        <v>155.26861648610287</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="4">
         <f t="shared" si="8"/>
-        <v>5.9452257077013064E-17</v>
-      </c>
-      <c r="H92" s="7">
+        <v>1.4863064269253264E-15</v>
+      </c>
+      <c r="H92" s="6">
         <f t="shared" si="9"/>
-        <v>-132.25831652946306</v>
+        <v>-118.27891644274267</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -8721,20 +8728,20 @@
       </c>
       <c r="D93" s="4">
         <f t="shared" si="6"/>
-        <v>3.5354262010698515E+17</v>
+        <v>3535426201069851.5</v>
       </c>
       <c r="E93" s="5">
         <f t="shared" si="7"/>
-        <v>175.48441776157108</v>
+        <v>155.48441776157111</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="4">
         <f t="shared" si="8"/>
-        <v>5.6570265825228714E-17</v>
-      </c>
-      <c r="H93" s="7">
+        <v>1.4142566456307178E-15</v>
+      </c>
+      <c r="H93" s="6">
         <f t="shared" si="9"/>
-        <v>-132.4741178049313</v>
+        <v>-118.49471771821092</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -8750,20 +8757,20 @@
       </c>
       <c r="D94" s="4">
         <f t="shared" si="6"/>
-        <v>3.7132749701837107E+17</v>
+        <v>3713274970183711.5</v>
       </c>
       <c r="E94" s="5">
         <f t="shared" si="7"/>
-        <v>175.69757110177378</v>
+        <v>155.69757110177378</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="4">
         <f t="shared" si="8"/>
-        <v>5.3860810633720775E-17</v>
-      </c>
-      <c r="H94" s="7">
+        <v>1.3465202658430192E-15</v>
+      </c>
+      <c r="H94" s="6">
         <f t="shared" si="9"/>
-        <v>-132.68727114513396</v>
+        <v>-118.70787105841359</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -8779,20 +8786,20 @@
       </c>
       <c r="D95" s="4">
         <f t="shared" si="6"/>
-        <v>3.8977508071331046E+17</v>
+        <v>3897750807133105.5</v>
       </c>
       <c r="E95" s="5">
         <f t="shared" si="7"/>
-        <v>175.90814070146806</v>
+        <v>155.90814070146808</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="4">
         <f t="shared" si="8"/>
-        <v>5.1311643534006503E-17</v>
-      </c>
-      <c r="H95" s="7">
+        <v>1.2827910883501624E-15</v>
+      </c>
+      <c r="H95" s="6">
         <f t="shared" si="9"/>
-        <v>-132.89784074482827</v>
+        <v>-118.91844065810788</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -8808,20 +8815,20 @@
       </c>
       <c r="D96" s="4">
         <f t="shared" si="6"/>
-        <v>4.0890163292722816E+17</v>
+        <v>4089016329272282</v>
       </c>
       <c r="E96" s="5">
         <f t="shared" si="7"/>
-        <v>176.1161884489004</v>
+        <v>156.1161884489004</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="4">
         <f t="shared" si="8"/>
-        <v>4.8911519029221829E-17</v>
-      </c>
-      <c r="H96" s="7">
+        <v>1.2227879757305456E-15</v>
+      </c>
+      <c r="H96" s="6">
         <f t="shared" si="9"/>
-        <v>-133.10588849226059</v>
+        <v>-119.12648840554019</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -8837,20 +8844,20 @@
       </c>
       <c r="D97" s="4">
         <f t="shared" si="6"/>
-        <v>4.287236125074937E+17</v>
+        <v>4287236125074938</v>
       </c>
       <c r="E97" s="5">
         <f t="shared" si="7"/>
-        <v>176.32177403499682</v>
+        <v>156.32177403499682</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="4">
         <f t="shared" si="8"/>
-        <v>4.6650101409215985E-17</v>
-      </c>
-      <c r="H97" s="7">
+        <v>1.1662525352303994E-15</v>
+      </c>
+      <c r="H97" s="6">
         <f t="shared" si="9"/>
-        <v>-133.31147407835701</v>
+        <v>-119.33207399163663</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -8866,20 +8873,20 @@
       </c>
       <c r="D98" s="4">
         <f t="shared" si="6"/>
-        <v>4.4925767541342099E+17</v>
+        <v>4492576754134210.5</v>
       </c>
       <c r="E98" s="5">
         <f t="shared" si="7"/>
-        <v>176.52495505616781</v>
+        <v>156.52495505616781</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="4">
         <f t="shared" si="8"/>
-        <v>4.4517881595668618E-17</v>
-      </c>
-      <c r="H98" s="7">
+        <v>1.1129470398917152E-15</v>
+      </c>
+      <c r="H98" s="6">
         <f t="shared" si="9"/>
-        <v>-133.514655099528</v>
+        <v>-119.53525501280764</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -8895,20 +8902,20 @@
       </c>
       <c r="D99" s="4">
         <f t="shared" si="6"/>
-        <v>4.7052067471626861E+17</v>
+        <v>4705206747162687</v>
       </c>
       <c r="E99" s="5">
         <f t="shared" si="7"/>
-        <v>176.72578711116984</v>
+        <v>156.72578711116986</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="4">
         <f t="shared" si="8"/>
-        <v>4.2506102440791396E-17</v>
-      </c>
-      <c r="H99" s="7">
+        <v>1.0626525610197847E-15</v>
+      </c>
+      <c r="H99" s="6">
         <f t="shared" si="9"/>
-        <v>-133.71548715453005</v>
+        <v>-119.73608706780966</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -8924,20 +8931,20 @@
       </c>
       <c r="D100" s="4">
         <f t="shared" si="6"/>
-        <v>4.9252966059923981E+17</v>
+        <v>4925296605992399</v>
       </c>
       <c r="E100" s="5">
         <f t="shared" si="7"/>
-        <v>176.92432389243186</v>
+        <v>156.92432389243186</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="4">
         <f t="shared" si="8"/>
-        <v>4.0606691535423175E-17</v>
-      </c>
-      <c r="H100" s="7">
+        <v>1.0151672883855792E-15</v>
+      </c>
+      <c r="H100" s="6">
         <f t="shared" si="9"/>
-        <v>-133.91402393579204</v>
+        <v>-119.93462384907167</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -8953,20 +8960,20 @@
       </c>
       <c r="D101" s="4">
         <f t="shared" si="6"/>
-        <v>5.1530188035748205E+17</v>
+        <v>5153018803574821</v>
       </c>
       <c r="E101" s="5">
         <f t="shared" si="7"/>
-        <v>177.12061727222164</v>
+        <v>157.12061727222161</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="4">
         <f t="shared" si="8"/>
-        <v>3.8812200697046427E-17</v>
-      </c>
-      <c r="H101" s="7">
+        <v>9.7030501742616054E-16</v>
+      </c>
+      <c r="H101" s="6">
         <f t="shared" si="9"/>
-        <v>-134.1103173155818</v>
+        <v>-120.13091722886143</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -8982,20 +8989,20 @@
       </c>
       <c r="D102" s="4">
         <f t="shared" si="6"/>
-        <v>5.3885477839808749E+17</v>
+        <v>5388547783980875</v>
       </c>
       <c r="E102" s="5">
         <f t="shared" si="7"/>
-        <v>177.31471738399813</v>
+        <v>157.31471738399813</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="4">
         <f t="shared" si="8"/>
-        <v>3.7115751407932554E-17</v>
-      </c>
-      <c r="H102" s="7">
+        <v>9.278937851983138E-16</v>
+      </c>
+      <c r="H102" s="6">
         <f t="shared" si="9"/>
-        <v>-134.30441742735832</v>
+        <v>-120.32501734063793</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -9011,20 +9018,20 @@
       </c>
       <c r="D103" s="4">
         <f t="shared" si="6"/>
-        <v>5.6320599624009286E+17</v>
+        <v>5632059962400929</v>
       </c>
       <c r="E103" s="5">
         <f t="shared" si="7"/>
-        <v>177.50667269926885</v>
+        <v>157.50667269926885</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="4">
         <f t="shared" si="8"/>
-        <v>3.5510985560377566E-17</v>
-      </c>
-      <c r="H103" s="7">
+        <v>8.8777463900943908E-16</v>
+      </c>
+      <c r="H103" s="6">
         <f t="shared" si="9"/>
-        <v>-134.49637274262903</v>
+        <v>-120.51697265590867</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -9040,20 +9047,20 @@
       </c>
       <c r="D104" s="4">
         <f t="shared" si="6"/>
-        <v>5.8837337251447936E+17</v>
+        <v>5883733725144793</v>
       </c>
       <c r="E104" s="5">
         <f t="shared" si="7"/>
-        <v>177.69653010024734</v>
+        <v>157.69653010024734</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="4">
         <f t="shared" si="8"/>
-        <v>3.39920209416136E-17</v>
-      </c>
-      <c r="H104" s="7">
+        <v>8.4980052354033993E-16</v>
+      </c>
+      <c r="H104" s="6">
         <f t="shared" si="9"/>
-        <v>-134.68623014360753</v>
+        <v>-120.70683005688714</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -9069,20 +9076,20 @@
       </c>
       <c r="D105" s="4">
         <f t="shared" si="6"/>
-        <v>6.1437494296417293E+17</v>
+        <v>6143749429641731</v>
       </c>
       <c r="E105" s="5">
         <f t="shared" si="7"/>
-        <v>177.88433494858253</v>
+        <v>157.88433494858251</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="4">
         <f t="shared" si="8"/>
-        <v>3.2553410957006252E-17</v>
-      </c>
-      <c r="H105" s="7">
+        <v>8.138352739251562E-16</v>
+      </c>
+      <c r="H105" s="6">
         <f t="shared" si="9"/>
-        <v>-134.87403499194269</v>
+        <v>-120.89463490522233</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -9098,20 +9105,20 @@
       </c>
       <c r="D106" s="4">
         <f t="shared" si="6"/>
-        <v>6.412289404440439E+17</v>
+        <v>6412289404440440</v>
       </c>
       <c r="E106" s="5">
         <f t="shared" si="7"/>
-        <v>178.07013115041309</v>
+        <v>158.07013115041306</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="4">
         <f t="shared" si="8"/>
-        <v>3.1190108147879635E-17</v>
-      </c>
-      <c r="H106" s="7">
+        <v>7.7975270369699082E-16</v>
+      </c>
+      <c r="H106" s="6">
         <f t="shared" si="9"/>
-        <v>-135.05983119377325</v>
+        <v>-121.08043110705287</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -9127,20 +9134,20 @@
       </c>
       <c r="D107" s="4">
         <f t="shared" si="6"/>
-        <v>6.6895379492090714E+17</v>
+        <v>6689537949209072</v>
       </c>
       <c r="E107" s="5">
         <f t="shared" si="7"/>
-        <v>178.253961217979</v>
+        <v>158.25396121797903</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="4">
         <f t="shared" si="8"/>
-        <v>2.9897431110865696E-17</v>
-      </c>
-      <c r="H107" s="7">
+        <v>7.4743577777164232E-16</v>
+      </c>
+      <c r="H107" s="6">
         <f t="shared" si="9"/>
-        <v>-135.24366126133921</v>
+        <v>-121.26426117461884</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -9156,20 +9163,20 @@
       </c>
       <c r="D108" s="4">
         <f t="shared" si="6"/>
-        <v>6.9756813347352218E+17</v>
+        <v>6975681334735222</v>
       </c>
       <c r="E108" s="5">
         <f t="shared" si="7"/>
-        <v>178.43586632800788</v>
+        <v>158.43586632800785</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="4">
         <f t="shared" si="8"/>
-        <v>2.8671034470010159E-17</v>
-      </c>
-      <c r="H108" s="7">
+        <v>7.1677586175025391E-16</v>
+      </c>
+      <c r="H108" s="6">
         <f t="shared" si="9"/>
-        <v>-135.42556637136803</v>
+        <v>-121.44616628464766</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -9185,20 +9192,20 @@
       </c>
       <c r="D109" s="4">
         <f t="shared" si="6"/>
-        <v>7.2709078029259277E+17</v>
+        <v>7270907802925928</v>
       </c>
       <c r="E109" s="5">
         <f t="shared" si="7"/>
-        <v>178.6158863770749</v>
+        <v>158.6158863770749</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="4">
         <f t="shared" si="8"/>
-        <v>2.7506881591803002E-17</v>
-      </c>
-      <c r="H109" s="7">
+        <v>6.8767203979507496E-16</v>
+      </c>
+      <c r="H109" s="6">
         <f t="shared" si="9"/>
-        <v>-135.60558642043509</v>
+        <v>-121.62618633371473</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -9214,20 +9221,20 @@
       </c>
       <c r="D110" s="4">
         <f t="shared" si="6"/>
-        <v>7.5754075668076762E+17</v>
+        <v>7575407566807677</v>
       </c>
       <c r="E110" s="5">
         <f t="shared" si="7"/>
-        <v>178.79406003412493</v>
+        <v>158.79406003412493</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="4">
         <f t="shared" si="8"/>
-        <v>2.6401219767543313E-17</v>
-      </c>
-      <c r="H110" s="7">
+        <v>6.6003049418858271E-16</v>
+      </c>
+      <c r="H110" s="6">
         <f t="shared" si="9"/>
-        <v>-135.78376007748511</v>
+        <v>-121.80435999076472</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -9243,20 +9250,20 @@
       </c>
       <c r="D111" s="4">
         <f t="shared" si="6"/>
-        <v>7.8893728105263987E+17</v>
+        <v>7889372810526400</v>
       </c>
       <c r="E111" s="5">
         <f t="shared" si="7"/>
-        <v>178.97042479032709</v>
+        <v>158.97042479032712</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="4">
         <f t="shared" si="8"/>
-        <v>2.5350557617603001E-17</v>
-      </c>
-      <c r="H111" s="7">
+        <v>6.3376394044007498E-16</v>
+      </c>
+      <c r="H111" s="6">
         <f t="shared" si="9"/>
-        <v>-135.9601248336873</v>
+        <v>-121.98072474696693</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -9272,20 +9279,20 @@
       </c>
       <c r="D112" s="4">
         <f t="shared" si="6"/>
-        <v>8.2129976893474688E+17</v>
+        <v>8212997689347469</v>
       </c>
       <c r="E112" s="5">
         <f t="shared" si="7"/>
-        <v>179.14501700642512</v>
+        <v>159.14501700642512</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="4">
         <f t="shared" si="8"/>
-        <v>2.4351644498744552E-17</v>
-      </c>
-      <c r="H112" s="7">
+        <v>6.0879111246861376E-16</v>
+      </c>
+      <c r="H112" s="6">
         <f t="shared" si="9"/>
-        <v>-136.13471704978531</v>
+        <v>-122.15531696306492</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/calculoPerdidas.xlsx
+++ b/documentation/calculoPerdidas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raul\Documents\Github\TFGRaul\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raul\Documents\GitHub\TFGRaul\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C65B4C3-B9D9-4196-94FB-5245C79557A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45804A4-8D70-40CB-9A7D-0881F226AD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92DAF7E3-0953-4B99-83BE-4E56EDBC23EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92DAF7E3-0953-4B99-83BE-4E56EDBC23EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -6280,24 +6280,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D925E85-375D-42F6-B196-03066D5C9F63}">
   <dimension ref="A3:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -6306,7 +6306,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>36.989700043360187</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -6351,10 +6351,10 @@
         <v>0.77720207253886009</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -6364,7 +6364,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>6400</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>874987806310103.63</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>200</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>-54.19651678962417</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>300</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>-61.240167151851423</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>400</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>-66.23771661618342</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>500</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>-70.114117136505683</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>600</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>-73.281366978410674</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>700</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>-75.959238563635196</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>800</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>-78.27891644274267</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>900</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>-80.325017340637928</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1000</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>-82.155316963064919</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1100</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>-83.811024369393934</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1200</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>-85.322566804969924</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1300</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>-86.713051055338397</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1400</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>-88.000438390194446</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1500</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>-89.198967325292173</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1600</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>-90.32011626930192</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1700</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>-91.373273818195884</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>1800</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>-92.366217167197163</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>1900</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>-93.305461001178088</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2000</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>-94.19651678962417</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2100</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>-95.0440887524217</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2200</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>-95.852224195953184</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2300</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>-96.624430403768642</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2400</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>-97.363766631529174</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2500</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>-98.072917309946433</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2600</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>-98.754250881897647</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2700</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>-99.409867529424417</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2800</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>-100.0416382167537</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2900</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>-100.65123687902316</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>3000</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>-101.24016715185142</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>3100</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>-101.80978471643583</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>3200</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>-102.36131609586117</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>3300</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>-102.89587455818042</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>3400</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>-103.41447364475513</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>3500</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>-103.91803873707595</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>3600</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>-104.40741699375641</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>3700</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>-104.88338592574472</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>3800</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>-105.34666082773732</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>3900</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>-105.7979012441249</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>4000</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>-106.23771661618342</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>4100</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>-106.66667123185434</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>4200</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>-107.08528857898095</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>4300</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>-107.49405518624839</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>4400</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>-107.89342402251242</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>4500</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>-108.28381751407868</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>4600</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>-108.66563023032789</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>4700</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>-109.03923128049362</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>4800</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>-109.40496645808841</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>4900</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>-109.76316016420547</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>5000</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>-110.11411713650567</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>5100</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>-110.45812400698239</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>5200</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>-110.7954507084569</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>5300</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>-111.12635174709649</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>5400</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>-111.45106735598367</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>5500</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>-111.76982454283468</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>5600</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>-112.08283804331295</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>5700</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>-112.39031118996458</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>5800</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>-112.69243670558241</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>5900</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>-112.98939742875069</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>6000</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>-113.28136697841067</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>6100</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>-113.56851036349561</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>6200</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>-113.85098454299508</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>6300</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>-114.12893894120819</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>6400</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>-114.40251592242042</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>6500</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>-114.67185122877915</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>6600</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>-114.93707438473967</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>6700</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>-115.19830907109798</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>6800</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>-115.45567347131438</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>6900</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>-115.70928059255515</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>7000</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>-115.9592385636352</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>7100</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>-116.20565091182795</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>7200</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>-116.44861682031566</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>7300</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>-116.68823136788316</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>7400</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>-116.92458575230397</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>7500</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>-117.15776749873292</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>7600</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>-117.38786065429657</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>7700</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>-117.6149459699642</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>7800</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>-117.83910107068414</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>7900</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>-118.06040061468258</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>8000</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>-118.27891644274267</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>8100</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>-118.49471771821092</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>8200</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>-118.70787105841359</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>8300</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>-118.91844065810788</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>8400</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>-119.12648840554019</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>8500</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>-119.33207399163663</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>8600</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>-119.53525501280764</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>8700</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>-119.73608706780966</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>8800</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>-119.93462384907167</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>8900</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>-120.13091722886143</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>9000</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>-120.32501734063793</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>9100</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>-120.51697265590867</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>9200</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>-120.70683005688714</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>9300</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>-120.89463490522233</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>9400</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>-121.08043110705287</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>9500</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>-121.26426117461884</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>9600</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>-121.44616628464766</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>9700</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>-121.62618633371473</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>9800</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>-121.80435999076472</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>9900</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>-121.98072474696693</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>10000</v>
       </c>

--- a/documentation/calculoPerdidas.xlsx
+++ b/documentation/calculoPerdidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raul\Documents\GitHub\TFGRaul\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45804A4-8D70-40CB-9A7D-0881F226AD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8A60CB-97DD-4956-8AC9-96855E967ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92DAF7E3-0953-4B99-83BE-4E56EDBC23EF}"/>
   </bookViews>
@@ -231,7 +231,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>11500</c:v>
+                  <c:v>26231</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>400</c:v>
@@ -540,7 +540,7 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>874987806310103.75</c:v>
+                  <c:v>2.3256052300584744E+16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1314079630.2955949</c:v>
@@ -1096,7 +1096,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>11500</c:v>
+                  <c:v>26231</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>400</c:v>
@@ -1405,7 +1405,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>149.42002000806158</c:v>
+                  <c:v>163.6653599544924</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>91.186216832984357</c:v>
@@ -1961,7 +1961,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>11500</c:v>
+                  <c:v>26231</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>400</c:v>
@@ -2270,7 +2270,7 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>5.7143653476560038E-15</c:v>
+                  <c:v>2.1499779650367752E-16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.8049444529288361E-9</c:v>
@@ -2826,7 +2826,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>11500</c:v>
+                  <c:v>26231</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>400</c:v>
@@ -3135,7 +3135,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-112.4303199647014</c:v>
+                  <c:v>-126.67565991113221</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-54.19651678962417</c:v>
@@ -6280,8 +6280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D925E85-375D-42F6-B196-03066D5C9F63}">
   <dimension ref="A3:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6389,39 +6389,39 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>6400</v>
+        <v>15050</v>
       </c>
       <c r="B13" s="3">
-        <v>5100</v>
+        <v>11181</v>
       </c>
       <c r="C13" s="3">
         <f>B13+A13</f>
-        <v>11500</v>
+        <v>26231</v>
       </c>
       <c r="D13" s="4">
         <f>$B$4/G13</f>
-        <v>874987806310103.75</v>
+        <v>2.3256052300584744E+16</v>
       </c>
       <c r="E13" s="5">
         <f>10*LOG(D13)</f>
-        <v>149.42002000806158</v>
+        <v>163.6653599544924</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4">
         <f>($B$4*$B$5*$B$6*$B$7*($B$8^2))/(((4*PI())^3)*(B13^2)*(A13^2))</f>
-        <v>5.7143653476560038E-15</v>
+        <v>2.1499779650367752E-16</v>
       </c>
       <c r="H13" s="6">
         <f>10*LOG10(G13*1000)</f>
-        <v>-112.4303199647014</v>
+        <v>-126.67565991113221</v>
       </c>
       <c r="J13" s="1">
         <f>($B$5*$B$6*$B$7*($B$8^2))/(((4*PI())^3)*(B13^2)*(A13^2))</f>
-        <v>1.1428730695312009E-15</v>
+        <v>4.2999559300735508E-17</v>
       </c>
       <c r="K13" s="1">
         <f>J13^-1</f>
-        <v>874987806310103.63</v>
+        <v>2.325605230058474E+16</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
